--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2.5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>91.12000000000002</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2.5</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>91.25000000000003</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2.5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
       <c r="L14" t="n">
         <v>91.37000000000003</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>91.49000000000004</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>91.59000000000003</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.799999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>91.69000000000003</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>91.79000000000003</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3.099999999999994</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>91.88000000000002</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3.5</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>91.99000000000004</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>92.10000000000004</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3.700000000000003</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>92.22000000000003</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3.800000000000011</v>
       </c>
       <c r="K23" t="n">
-        <v>92.30769230769168</v>
+        <v>84.61538461538343</v>
       </c>
       <c r="L23" t="n">
         <v>92.33000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>3.800000000000011</v>
       </c>
       <c r="K24" t="n">
-        <v>91.99999999999936</v>
+        <v>79.99999999999858</v>
       </c>
       <c r="L24" t="n">
         <v>92.44000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>91.30434782608631</v>
+        <v>81.81818181818065</v>
       </c>
       <c r="L25" t="n">
         <v>92.53</v>
@@ -1564,7 +1586,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>90.47619047618977</v>
+        <v>81.81818181818065</v>
       </c>
       <c r="L26" t="n">
         <v>92.62</v>
@@ -1617,7 +1639,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>90.47619047618977</v>
+        <v>77.77777777777636</v>
       </c>
       <c r="L27" t="n">
         <v>92.71000000000001</v>
@@ -1674,7 +1696,7 @@
         <v>3.90000000000002</v>
       </c>
       <c r="K28" t="n">
-        <v>89.47368421052553</v>
+        <v>74.99999999999866</v>
       </c>
       <c r="L28" t="n">
         <v>92.78</v>
@@ -1729,7 +1751,7 @@
         <v>4.100000000000009</v>
       </c>
       <c r="K29" t="n">
-        <v>89.47368421052545</v>
+        <v>66.6666666666643</v>
       </c>
       <c r="L29" t="n">
         <v>92.86</v>
@@ -1786,7 +1808,7 @@
         <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>52.38095238095257</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>92.86</v>
@@ -1847,7 +1869,7 @@
         <v>4.899999999999991</v>
       </c>
       <c r="K31" t="n">
-        <v>60</v>
+        <v>16.66666666666588</v>
       </c>
       <c r="L31" t="n">
         <v>92.90000000000001</v>
@@ -1908,7 +1930,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K32" t="n">
-        <v>52.00000000000018</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L32" t="n">
         <v>92.91</v>
@@ -1965,7 +1987,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K33" t="n">
-        <v>52.00000000000018</v>
+        <v>16.66666666666726</v>
       </c>
       <c r="L33" t="n">
         <v>92.93000000000001</v>
@@ -2022,7 +2044,7 @@
         <v>5.09999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>46.15384615384662</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>92.94000000000001</v>
@@ -2081,7 +2103,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K35" t="n">
-        <v>23.07692307692291</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L35" t="n">
         <v>92.91000000000001</v>
@@ -2144,7 +2166,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>31.03448275862083</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>92.91000000000001</v>
@@ -2205,7 +2227,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K37" t="n">
-        <v>31.03448275862083</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>92.91000000000001</v>
@@ -2266,7 +2288,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>25.925925925926</v>
+        <v>-12.49999999999933</v>
       </c>
       <c r="L38" t="n">
         <v>92.91000000000001</v>
@@ -2327,7 +2349,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>23.07692307692333</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L39" t="n">
         <v>92.89000000000001</v>
@@ -2388,7 +2410,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>9.090909090909207</v>
+        <v>-24.99999999999822</v>
       </c>
       <c r="L40" t="n">
         <v>92.91</v>
@@ -2449,7 +2471,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K41" t="n">
-        <v>13.04347826086946</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>92.90000000000001</v>
@@ -2510,7 +2532,7 @@
         <v>5.799999999999997</v>
       </c>
       <c r="K42" t="n">
-        <v>4.761904761904504</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>92.90000000000001</v>
@@ -2571,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>18.18181818181854</v>
+        <v>33.33333333333228</v>
       </c>
       <c r="L43" t="n">
         <v>92.92</v>
@@ -2632,7 +2654,7 @@
         <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>18.18181818181854</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>92.95000000000002</v>
@@ -2689,7 +2711,7 @@
         <v>6.700000000000003</v>
       </c>
       <c r="K45" t="n">
-        <v>35.71428571428593</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>93.08000000000001</v>
@@ -2746,7 +2768,7 @@
         <v>6.700000000000003</v>
       </c>
       <c r="K46" t="n">
-        <v>35.71428571428593</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>93.18000000000001</v>
@@ -2803,7 +2825,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K47" t="n">
-        <v>26.6666666666667</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L47" t="n">
         <v>93.26000000000001</v>
@@ -2854,7 +2876,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K48" t="n">
-        <v>26.6666666666667</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L48" t="n">
         <v>93.34</v>
@@ -2905,7 +2927,7 @@
         <v>7.900000000000006</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.52631578947347</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L49" t="n">
         <v>93.31999999999999</v>
@@ -2956,7 +2978,7 @@
         <v>8.800000000000011</v>
       </c>
       <c r="K50" t="n">
-        <v>-20.93023255813961</v>
+        <v>-39.99999999999991</v>
       </c>
       <c r="L50" t="n">
         <v>93.21000000000001</v>
@@ -3007,7 +3029,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>-53.57142857142836</v>
+        <v>-61.70212765957437</v>
       </c>
       <c r="L51" t="n">
         <v>92.92</v>
@@ -3058,7 +3080,7 @@
         <v>10.70000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-47.36842105263137</v>
+        <v>-61.70212765957437</v>
       </c>
       <c r="L52" t="n">
         <v>92.65000000000001</v>
@@ -3109,7 +3131,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>3.44827586206892</v>
+        <v>1.298701298701222</v>
       </c>
       <c r="L53" t="n">
         <v>92.66</v>
@@ -3160,7 +3182,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>1.123595505617909</v>
+        <v>-12.32876712328773</v>
       </c>
       <c r="L54" t="n">
         <v>92.63999999999999</v>
@@ -3211,7 +3233,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>3.44827586206909</v>
+        <v>-13.5135135135135</v>
       </c>
       <c r="L55" t="n">
         <v>92.53999999999999</v>
@@ -3262,7 +3284,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>-1.176470588235393</v>
+        <v>-12.32876712328773</v>
       </c>
       <c r="L56" t="n">
         <v>92.42999999999998</v>
@@ -3313,7 +3335,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.325581395348868</v>
+        <v>-13.5135135135135</v>
       </c>
       <c r="L57" t="n">
         <v>92.32999999999998</v>
@@ -3364,7 +3386,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-1.149425287356419</v>
+        <v>1.538461538461451</v>
       </c>
       <c r="L58" t="n">
         <v>92.23999999999998</v>
@@ -3415,7 +3437,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.370786516854058</v>
+        <v>13.79310344827582</v>
       </c>
       <c r="L59" t="n">
         <v>92.22999999999998</v>
@@ -3466,7 +3488,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.370786516854058</v>
+        <v>60.97560975609765</v>
       </c>
       <c r="L60" t="n">
         <v>92.30999999999997</v>
@@ -3517,7 +3539,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.22222222222225</v>
+        <v>60.97560975609765</v>
       </c>
       <c r="L61" t="n">
         <v>92.57999999999997</v>
@@ -3568,7 +3590,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.22222222222225</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L62" t="n">
         <v>92.82999999999997</v>
@@ -3619,7 +3641,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.370786516853893</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L63" t="n">
         <v>92.78999999999998</v>
@@ -3670,7 +3692,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.370786516853893</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>92.77999999999997</v>
@@ -3721,7 +3743,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>-12.19512195121949</v>
+        <v>14.28571428571544</v>
       </c>
       <c r="L65" t="n">
         <v>92.77999999999997</v>
@@ -3772,7 +3794,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>-12.19512195121949</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>92.78999999999998</v>
@@ -3823,7 +3845,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>-9.999999999999947</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L67" t="n">
         <v>92.80999999999997</v>
@@ -3874,7 +3896,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.999999999999947</v>
+        <v>100</v>
       </c>
       <c r="L68" t="n">
         <v>92.81999999999996</v>
@@ -3925,7 +3947,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>2.857142857142892</v>
+        <v>100</v>
       </c>
       <c r="L69" t="n">
         <v>92.84999999999997</v>
@@ -3976,7 +3998,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>18.03278688524601</v>
+        <v>100</v>
       </c>
       <c r="L70" t="n">
         <v>92.87999999999997</v>
@@ -4027,7 +4049,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>63.63636363636381</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>92.88999999999996</v>
@@ -4078,7 +4100,7 @@
         <v>15.30000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>65.2173913043479</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>92.93999999999997</v>
@@ -4129,7 +4151,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K73" t="n">
-        <v>5.882352941176962</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>92.98999999999997</v>
@@ -4180,7 +4202,7 @@
         <v>15.50000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>93.04999999999997</v>
@@ -4231,7 +4253,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>46.6666666666659</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>93.11999999999998</v>
@@ -4282,7 +4304,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>57.14285714285728</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
         <v>93.18999999999997</v>
@@ -4333,7 +4355,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>71.42857142857115</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>93.26999999999997</v>
@@ -4384,7 +4406,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>69.23076923076906</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>93.34999999999997</v>
@@ -4639,7 +4661,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>81.81818181818042</v>
+        <v>59.99999999999772</v>
       </c>
       <c r="L83" t="n">
         <v>93.74999999999997</v>
@@ -4690,7 +4712,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>83.33333333333215</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L84" t="n">
         <v>93.78999999999996</v>
@@ -4741,7 +4763,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>83.33333333333215</v>
+        <v>59.99999999999886</v>
       </c>
       <c r="L85" t="n">
         <v>93.81999999999996</v>
@@ -4792,7 +4814,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K86" t="n">
-        <v>83.33333333333215</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L86" t="n">
         <v>93.84999999999997</v>
@@ -4843,7 +4865,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K87" t="n">
-        <v>83.33333333333215</v>
+        <v>49.99999999999822</v>
       </c>
       <c r="L87" t="n">
         <v>93.86999999999996</v>
@@ -4894,7 +4916,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K88" t="n">
-        <v>83.33333333333215</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>93.88999999999996</v>
@@ -4945,7 +4967,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K89" t="n">
-        <v>83.33333333333215</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>93.88999999999997</v>
@@ -4996,7 +5018,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K90" t="n">
-        <v>83.33333333333215</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>93.88999999999997</v>
@@ -5047,7 +5069,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K91" t="n">
-        <v>83.33333333333215</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>93.88999999999997</v>
@@ -5098,7 +5120,7 @@
         <v>16.10000000000004</v>
       </c>
       <c r="K92" t="n">
-        <v>74.99999999999866</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>93.88999999999997</v>
@@ -5148,9 +5170,7 @@
       <c r="J93" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K93" t="n">
-        <v>71.42857142856968</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>93.89999999999998</v>
       </c>
@@ -5199,9 +5219,7 @@
       <c r="J94" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K94" t="n">
-        <v>66.66666666666508</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>93.89999999999999</v>
       </c>
@@ -5250,9 +5268,7 @@
       <c r="J95" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K95" t="n">
-        <v>59.99999999999886</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>93.89999999999999</v>
       </c>
@@ -5301,9 +5317,7 @@
       <c r="J96" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K96" t="n">
-        <v>59.99999999999886</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>93.89999999999999</v>
       </c>
@@ -5352,9 +5366,7 @@
       <c r="J97" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K97" t="n">
-        <v>49.99999999999822</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>93.89999999999999</v>
       </c>
@@ -5403,9 +5415,7 @@
       <c r="J98" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K98" t="n">
-        <v>49.99999999999822</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>93.89999999999999</v>
       </c>
@@ -5454,9 +5464,7 @@
       <c r="J99" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>93.89999999999999</v>
       </c>
@@ -5505,9 +5513,7 @@
       <c r="J100" t="n">
         <v>16.10000000000004</v>
       </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>93.89999999999999</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>17.00000000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>-81.81818181818065</v>
+        <v>-100</v>
       </c>
       <c r="L101" t="n">
         <v>93.81</v>
@@ -5659,7 +5665,7 @@
         <v>17.90000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>5.263157894737236</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>93.81</v>
@@ -6016,7 +6022,7 @@
         <v>22.50000000000007</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>16.36363636363638</v>
       </c>
       <c r="L110" t="n">
         <v>93.58000000000001</v>
@@ -6220,7 +6226,7 @@
         <v>22.50000000000007</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>21.0526315789476</v>
       </c>
       <c r="L114" t="n">
         <v>93.67000000000002</v>
@@ -6424,7 +6430,7 @@
         <v>22.60000000000008</v>
       </c>
       <c r="K118" t="n">
-        <v>-1.53846153846166</v>
+        <v>87.49999999999901</v>
       </c>
       <c r="L118" t="n">
         <v>93.74000000000002</v>
@@ -6475,7 +6481,7 @@
         <v>22.80000000000008</v>
       </c>
       <c r="K119" t="n">
-        <v>1.492537313432741</v>
+        <v>33.33333333333017</v>
       </c>
       <c r="L119" t="n">
         <v>93.90000000000001</v>
@@ -6526,7 +6532,7 @@
         <v>23.70000000000009</v>
       </c>
       <c r="K120" t="n">
-        <v>13.15789473684202</v>
+        <v>83.33333333333215</v>
       </c>
       <c r="L120" t="n">
         <v>94.00000000000001</v>
@@ -6577,7 +6583,7 @@
         <v>23.80000000000008</v>
       </c>
       <c r="K121" t="n">
-        <v>29.41176470588218</v>
+        <v>84.61538461538343</v>
       </c>
       <c r="L121" t="n">
         <v>94.11</v>
@@ -6628,7 +6634,7 @@
         <v>24.30000000000008</v>
       </c>
       <c r="K122" t="n">
-        <v>24.99999999999978</v>
+        <v>88.888888888888</v>
       </c>
       <c r="L122" t="n">
         <v>94.27</v>
@@ -6679,7 +6685,7 @@
         <v>24.30000000000008</v>
       </c>
       <c r="K123" t="n">
-        <v>24.99999999999978</v>
+        <v>88.888888888888</v>
       </c>
       <c r="L123" t="n">
         <v>94.42999999999998</v>
@@ -6730,7 +6736,7 @@
         <v>27.80000000000008</v>
       </c>
       <c r="K124" t="n">
-        <v>51.51515151515128</v>
+        <v>96.22641509433932</v>
       </c>
       <c r="L124" t="n">
         <v>94.93999999999997</v>
@@ -6781,7 +6787,7 @@
         <v>27.80000000000008</v>
       </c>
       <c r="K125" t="n">
-        <v>64.83516483516473</v>
+        <v>96.22641509433932</v>
       </c>
       <c r="L125" t="n">
         <v>95.44999999999996</v>
@@ -6832,7 +6838,7 @@
         <v>29.70000000000009</v>
       </c>
       <c r="K126" t="n">
-        <v>31.37254901960768</v>
+        <v>44.44444444444418</v>
       </c>
       <c r="L126" t="n">
         <v>95.76999999999997</v>
@@ -6883,7 +6889,7 @@
         <v>29.70000000000009</v>
       </c>
       <c r="K127" t="n">
-        <v>31.37254901960768</v>
+        <v>46.47887323943652</v>
       </c>
       <c r="L127" t="n">
         <v>96.08999999999997</v>
@@ -6934,7 +6940,7 @@
         <v>29.70000000000009</v>
       </c>
       <c r="K128" t="n">
-        <v>31.37254901960768</v>
+        <v>44.92753623188394</v>
       </c>
       <c r="L128" t="n">
         <v>96.41999999999999</v>
@@ -6985,7 +6991,7 @@
         <v>29.70000000000009</v>
       </c>
       <c r="K129" t="n">
-        <v>54.02298850574689</v>
+        <v>36.66666666666647</v>
       </c>
       <c r="L129" t="n">
         <v>96.72999999999998</v>
@@ -7036,7 +7042,7 @@
         <v>30.10000000000008</v>
       </c>
       <c r="K130" t="n">
-        <v>36.84210526315781</v>
+        <v>26.98412698412704</v>
       </c>
       <c r="L130" t="n">
         <v>96.90999999999998</v>
@@ -7087,7 +7093,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K131" t="n">
-        <v>37.66233766233753</v>
+        <v>22.03389830508473</v>
       </c>
       <c r="L131" t="n">
         <v>97.08999999999999</v>
@@ -7138,7 +7144,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K132" t="n">
-        <v>37.66233766233753</v>
+        <v>22.03389830508473</v>
       </c>
       <c r="L132" t="n">
         <v>97.21999999999998</v>
@@ -7189,7 +7195,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K133" t="n">
-        <v>37.66233766233753</v>
+        <v>-91.66666666666711</v>
       </c>
       <c r="L133" t="n">
         <v>97.34999999999998</v>
@@ -7240,7 +7246,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K134" t="n">
-        <v>37.66233766233753</v>
+        <v>-91.66666666666711</v>
       </c>
       <c r="L134" t="n">
         <v>97.12999999999997</v>
@@ -7291,7 +7297,7 @@
         <v>30.20000000000007</v>
       </c>
       <c r="K135" t="n">
-        <v>37.66233766233753</v>
+        <v>-60.00000000000114</v>
       </c>
       <c r="L135" t="n">
         <v>96.90999999999997</v>
@@ -7342,7 +7348,7 @@
         <v>30.30000000000007</v>
       </c>
       <c r="K136" t="n">
-        <v>35.89743589743588</v>
+        <v>-66.66666666666745</v>
       </c>
       <c r="L136" t="n">
         <v>96.86999999999998</v>
@@ -7393,7 +7399,7 @@
         <v>30.40000000000008</v>
       </c>
       <c r="K137" t="n">
-        <v>34.17721518987325</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L137" t="n">
         <v>96.81999999999996</v>
@@ -7444,7 +7450,7 @@
         <v>30.50000000000009</v>
       </c>
       <c r="K138" t="n">
-        <v>36.70886075949372</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L138" t="n">
         <v>96.77999999999996</v>
@@ -7495,7 +7501,7 @@
         <v>31.60000000000009</v>
       </c>
       <c r="K139" t="n">
-        <v>18.18181818181809</v>
+        <v>-73.3333333333332</v>
       </c>
       <c r="L139" t="n">
         <v>96.62999999999997</v>
@@ -7546,7 +7552,7 @@
         <v>32.7000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>19.99999999999994</v>
+        <v>-3.999999999999727</v>
       </c>
       <c r="L140" t="n">
         <v>96.62999999999995</v>
@@ -7597,7 +7603,7 @@
         <v>32.8000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>19.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>96.62999999999995</v>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>89.91333333333348</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>89.2</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>89.89500000000015</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>89.87666666666681</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,23 @@
         <v>89.86666666666682</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +619,23 @@
         <v>89.86166666666682</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +662,23 @@
         <v>89.85666666666681</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>91</v>
+      </c>
+      <c r="K7" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +705,23 @@
         <v>89.85500000000015</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>91</v>
+      </c>
+      <c r="K8" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +751,18 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +792,18 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.399999999999991</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.399999999999991</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +833,18 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.399999999999991</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.399999999999991</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>90.87000000000002</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +874,18 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>91.12000000000002</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +915,18 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>91.25000000000003</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +956,18 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L14" t="n">
-        <v>91.37000000000003</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +997,18 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.799999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>91.49000000000004</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1038,18 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.799999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>91.59000000000003</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1079,18 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.799999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>91.69000000000003</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1120,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>100</v>
-      </c>
-      <c r="L18" t="n">
-        <v>91.79000000000003</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1161,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.099999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>100</v>
-      </c>
-      <c r="L19" t="n">
-        <v>91.88000000000002</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1202,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>91.99000000000004</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1243,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>100</v>
-      </c>
-      <c r="L21" t="n">
-        <v>92.10000000000004</v>
+        <v>89.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>91.48500000000001</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1284,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.700000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" t="n">
-        <v>92.22000000000003</v>
+        <v>89.2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>91.67000000000002</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1325,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.800000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>84.61538461538343</v>
-      </c>
-      <c r="L23" t="n">
-        <v>92.33000000000001</v>
+        <v>89.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>91.79000000000001</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1366,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.800000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>79.99999999999858</v>
-      </c>
-      <c r="L24" t="n">
-        <v>92.44000000000001</v>
+        <v>89.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>91.905</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1407,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.90000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>81.81818181818065</v>
-      </c>
-      <c r="L25" t="n">
-        <v>92.53</v>
+        <v>89.2</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>92.01000000000002</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,33 +1445,21 @@
         <v>90.63000000000009</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.90000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>81.81818181818065</v>
-      </c>
-      <c r="L26" t="n">
-        <v>92.62</v>
+        <v>89.2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>92.10500000000002</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,37 +1486,21 @@
         <v>90.68666666666675</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.90000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>77.77777777777636</v>
-      </c>
-      <c r="L27" t="n">
-        <v>92.71000000000001</v>
+        <v>89.2</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>92.20000000000002</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1687,35 +1527,21 @@
         <v>90.74333333333341</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.90000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>74.99999999999866</v>
-      </c>
-      <c r="L28" t="n">
-        <v>92.78</v>
+        <v>89.2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>92.28500000000003</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="P28" t="n">
-        <v>96.15000000000001</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,37 +1568,21 @@
         <v>90.8000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.899999999999991</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.100000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>66.6666666666643</v>
-      </c>
-      <c r="L29" t="n">
-        <v>92.86</v>
+        <v>89.2</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>92.37000000000002</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1799,41 +1609,21 @@
         <v>90.85333333333342</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>4.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>92.86</v>
+        <v>89.2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>92.42500000000003</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,41 +1650,21 @@
         <v>90.90666666666677</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3.899999999999991</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.899999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>16.66666666666588</v>
-      </c>
-      <c r="L31" t="n">
-        <v>92.90000000000001</v>
+        <v>89.2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>92.50000000000003</v>
-      </c>
-      <c r="N31" t="n">
-        <v>91.95666666666668</v>
-      </c>
-      <c r="O31" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="P31" t="n">
-        <v>96.15000000000001</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,34 +1694,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>16.66666666666726</v>
-      </c>
-      <c r="L32" t="n">
-        <v>92.91</v>
+        <v>89.2</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>92.56500000000003</v>
-      </c>
-      <c r="N32" t="n">
-        <v>92.08333333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1981,35 +1735,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.999999999999986</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>16.66666666666726</v>
-      </c>
-      <c r="L33" t="n">
-        <v>92.93000000000001</v>
+        <v>89.2</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>92.63000000000002</v>
-      </c>
-      <c r="N33" t="n">
-        <v>92.17000000000002</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
+        <v>1.037600896860987</v>
       </c>
     </row>
     <row r="34">
@@ -2035,39 +1773,15 @@
         <v>91.05333333333343</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.09999999999998</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>92.94000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>92.69000000000003</v>
-      </c>
-      <c r="N34" t="n">
-        <v>92.25000000000001</v>
-      </c>
-      <c r="O34" t="n">
-        <v>93</v>
-      </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,43 +1808,15 @@
         <v>91.10000000000009</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3.399999999999991</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.399999999999991</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-20.00000000000114</v>
-      </c>
-      <c r="L35" t="n">
-        <v>92.91000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>92.72000000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>92.31</v>
-      </c>
-      <c r="O35" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2160,38 +1846,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>92.91000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>92.76500000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>92.37333333333335</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2221,38 +1881,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>92.91000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>92.81000000000003</v>
-      </c>
-      <c r="N37" t="n">
-        <v>92.43666666666668</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,38 +1916,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-12.49999999999933</v>
-      </c>
-      <c r="L38" t="n">
-        <v>92.91000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>92.84500000000003</v>
-      </c>
-      <c r="N38" t="n">
-        <v>92.49333333333335</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2343,38 +1951,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K39" t="n">
-        <v>16.66666666666686</v>
-      </c>
-      <c r="L39" t="n">
-        <v>92.89000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>92.87500000000003</v>
-      </c>
-      <c r="N39" t="n">
-        <v>92.54333333333335</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2404,38 +1986,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-24.99999999999822</v>
-      </c>
-      <c r="L40" t="n">
-        <v>92.91</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>92.88500000000003</v>
-      </c>
-      <c r="N40" t="n">
-        <v>92.58666666666669</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2465,38 +2021,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.799999999999997</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>92.90000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>92.90000000000003</v>
-      </c>
-      <c r="N41" t="n">
-        <v>92.63333333333337</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,38 +2056,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.799999999999997</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>92.90000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>92.90500000000003</v>
-      </c>
-      <c r="N42" t="n">
-        <v>92.6766666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,38 +2091,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>33.33333333333228</v>
-      </c>
-      <c r="L43" t="n">
-        <v>92.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>92.92500000000004</v>
-      </c>
-      <c r="N43" t="n">
-        <v>92.7266666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,34 +2126,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6</v>
-      </c>
-      <c r="K44" t="n">
-        <v>100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>92.95000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>92.94500000000004</v>
-      </c>
-      <c r="N44" t="n">
-        <v>92.7766666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,34 +2161,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J45" t="n">
-        <v>6.700000000000003</v>
-      </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" t="n">
-        <v>93.08000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>92.99500000000003</v>
-      </c>
-      <c r="N45" t="n">
-        <v>92.84000000000005</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2762,35 +2196,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J46" t="n">
-        <v>6.700000000000003</v>
-      </c>
-      <c r="K46" t="n">
-        <v>100</v>
-      </c>
-      <c r="L46" t="n">
-        <v>93.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>93.04500000000004</v>
-      </c>
-      <c r="N46" t="n">
-        <v>92.90333333333338</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
-        <v>1.005764262648009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2819,28 +2231,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>6.900000000000006</v>
-      </c>
-      <c r="K47" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L47" t="n">
-        <v>93.26000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>93.08500000000004</v>
-      </c>
-      <c r="N47" t="n">
-        <v>92.96000000000004</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,28 +2266,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6.900000000000006</v>
-      </c>
-      <c r="K48" t="n">
-        <v>66.66666666666627</v>
-      </c>
-      <c r="L48" t="n">
-        <v>93.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>93.12500000000003</v>
-      </c>
-      <c r="N48" t="n">
-        <v>93.01000000000003</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2921,28 +2301,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>7.900000000000006</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-9.090909090909207</v>
-      </c>
-      <c r="L49" t="n">
-        <v>93.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>93.10500000000005</v>
-      </c>
-      <c r="N49" t="n">
-        <v>93.02333333333335</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,28 +2336,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2.599999999999994</v>
-      </c>
-      <c r="J50" t="n">
-        <v>8.800000000000011</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-39.99999999999991</v>
-      </c>
-      <c r="L50" t="n">
-        <v>93.21000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>93.06000000000003</v>
-      </c>
-      <c r="N50" t="n">
-        <v>92.99333333333337</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,28 +2371,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="J51" t="n">
-        <v>10.50000000000001</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-61.70212765957437</v>
-      </c>
-      <c r="L51" t="n">
-        <v>92.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>92.91000000000004</v>
-      </c>
-      <c r="N51" t="n">
-        <v>92.90666666666671</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,28 +2406,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="J52" t="n">
-        <v>10.70000000000002</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-61.70212765957437</v>
-      </c>
-      <c r="L52" t="n">
-        <v>92.65000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>92.77500000000003</v>
-      </c>
-      <c r="N52" t="n">
-        <v>92.82000000000004</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,28 +2441,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="J53" t="n">
-        <v>13.70000000000002</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.298701298701222</v>
-      </c>
-      <c r="L53" t="n">
-        <v>92.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>92.79000000000003</v>
-      </c>
-      <c r="N53" t="n">
-        <v>92.83666666666672</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3176,28 +2476,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J54" t="n">
-        <v>14.00000000000001</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-12.32876712328773</v>
-      </c>
-      <c r="L54" t="n">
-        <v>92.63999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>92.79500000000003</v>
-      </c>
-      <c r="N54" t="n">
-        <v>92.84333333333338</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3227,28 +2511,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J55" t="n">
-        <v>14.10000000000001</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-13.5135135135135</v>
-      </c>
-      <c r="L55" t="n">
-        <v>92.53999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>92.81000000000003</v>
-      </c>
-      <c r="N55" t="n">
-        <v>92.84333333333338</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3278,28 +2546,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J56" t="n">
-        <v>14.20000000000002</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-12.32876712328773</v>
-      </c>
-      <c r="L56" t="n">
-        <v>92.42999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>92.80500000000004</v>
-      </c>
-      <c r="N56" t="n">
-        <v>92.84000000000005</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3329,28 +2581,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>14.30000000000001</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-13.5135135135135</v>
-      </c>
-      <c r="L57" t="n">
-        <v>92.32999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>92.79500000000003</v>
-      </c>
-      <c r="N57" t="n">
-        <v>92.83333333333336</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,28 +2616,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J58" t="n">
-        <v>14.40000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.538461538461451</v>
-      </c>
-      <c r="L58" t="n">
-        <v>92.23999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>92.79000000000002</v>
-      </c>
-      <c r="N58" t="n">
-        <v>92.83000000000003</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,28 +2651,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>3.399999999999991</v>
-      </c>
-      <c r="J59" t="n">
-        <v>14.60000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>13.79310344827582</v>
-      </c>
-      <c r="L59" t="n">
-        <v>92.22999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>92.77500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>92.81333333333336</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,28 +2686,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>3.399999999999991</v>
-      </c>
-      <c r="J60" t="n">
-        <v>14.60000000000001</v>
-      </c>
-      <c r="K60" t="n">
-        <v>60.97560975609765</v>
-      </c>
-      <c r="L60" t="n">
-        <v>92.30999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>92.76000000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>92.81000000000003</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,28 +2721,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J61" t="n">
-        <v>14.80000000000001</v>
-      </c>
-      <c r="K61" t="n">
-        <v>60.97560975609765</v>
-      </c>
-      <c r="L61" t="n">
-        <v>92.57999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>92.75</v>
-      </c>
-      <c r="N61" t="n">
-        <v>92.80000000000004</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,28 +2756,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>3.599999999999994</v>
-      </c>
-      <c r="J62" t="n">
-        <v>14.80000000000001</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-45.45454545454569</v>
-      </c>
-      <c r="L62" t="n">
-        <v>92.82999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>92.73999999999999</v>
-      </c>
-      <c r="N62" t="n">
-        <v>92.79333333333338</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3635,28 +2791,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J63" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-11.11111111111041</v>
-      </c>
-      <c r="L63" t="n">
-        <v>92.78999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>92.72499999999999</v>
-      </c>
-      <c r="N63" t="n">
-        <v>92.79000000000005</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,28 +2826,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J64" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>92.77999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>92.71000000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>92.79000000000005</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,28 +2861,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J65" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K65" t="n">
-        <v>14.28571428571544</v>
-      </c>
-      <c r="L65" t="n">
-        <v>92.77999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>92.66</v>
-      </c>
-      <c r="N65" t="n">
-        <v>92.80000000000005</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,28 +2896,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J66" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K66" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L66" t="n">
-        <v>92.78999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>92.61</v>
-      </c>
-      <c r="N66" t="n">
-        <v>92.80000000000005</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3839,28 +2931,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J67" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K67" t="n">
-        <v>20.00000000000114</v>
-      </c>
-      <c r="L67" t="n">
-        <v>92.80999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>92.57000000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>92.80000000000005</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,28 +2966,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J68" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K68" t="n">
-        <v>100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>92.81999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>92.53</v>
-      </c>
-      <c r="N68" t="n">
-        <v>92.80000000000005</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,28 +3001,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J69" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K69" t="n">
-        <v>100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>92.84999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>92.54000000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>92.80000000000005</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,28 +3036,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J70" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K70" t="n">
-        <v>100</v>
-      </c>
-      <c r="L70" t="n">
-        <v>92.87999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>92.59500000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>92.80000000000005</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4043,28 +3071,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3.700000000000003</v>
-      </c>
-      <c r="J71" t="n">
-        <v>14.90000000000002</v>
-      </c>
-      <c r="K71" t="n">
-        <v>100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>92.88999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>92.73500000000003</v>
-      </c>
-      <c r="N71" t="n">
-        <v>92.79666666666672</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,28 +3106,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>4.099999999999994</v>
-      </c>
-      <c r="J72" t="n">
-        <v>15.30000000000001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>92.93999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>92.88500000000002</v>
-      </c>
-      <c r="N72" t="n">
-        <v>92.80666666666674</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4145,28 +3141,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>4.200000000000003</v>
-      </c>
-      <c r="J73" t="n">
-        <v>15.40000000000002</v>
-      </c>
-      <c r="K73" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>92.98999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>92.89000000000003</v>
-      </c>
-      <c r="N73" t="n">
-        <v>92.81333333333342</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,28 +3176,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>4.299999999999997</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15.50000000000001</v>
-      </c>
-      <c r="K74" t="n">
-        <v>100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>93.04999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>92.91500000000003</v>
-      </c>
-      <c r="N74" t="n">
-        <v>92.82333333333342</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,28 +3211,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>4.399999999999991</v>
-      </c>
-      <c r="J75" t="n">
-        <v>15.60000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>93.11999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>92.95000000000002</v>
-      </c>
-      <c r="N75" t="n">
-        <v>92.81333333333342</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,28 +3246,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>4.399999999999991</v>
-      </c>
-      <c r="J76" t="n">
-        <v>15.60000000000001</v>
-      </c>
-      <c r="K76" t="n">
-        <v>100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>93.18999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>92.99000000000002</v>
-      </c>
-      <c r="N76" t="n">
-        <v>92.80333333333341</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,28 +3281,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>15.70000000000002</v>
-      </c>
-      <c r="K77" t="n">
-        <v>100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>93.26999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>93.04000000000002</v>
-      </c>
-      <c r="N77" t="n">
-        <v>92.80333333333341</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,28 +3316,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>15.70000000000002</v>
-      </c>
-      <c r="K78" t="n">
-        <v>100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>93.34999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>93.08500000000002</v>
-      </c>
-      <c r="N78" t="n">
-        <v>92.80333333333341</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4451,28 +3351,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J79" t="n">
-        <v>15.90000000000002</v>
-      </c>
-      <c r="K79" t="n">
-        <v>100</v>
-      </c>
-      <c r="L79" t="n">
-        <v>93.44999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>93.15000000000003</v>
-      </c>
-      <c r="N79" t="n">
-        <v>92.84333333333342</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,28 +3386,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J80" t="n">
-        <v>15.90000000000002</v>
-      </c>
-      <c r="K80" t="n">
-        <v>100</v>
-      </c>
-      <c r="L80" t="n">
-        <v>93.54999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>93.21500000000005</v>
-      </c>
-      <c r="N80" t="n">
-        <v>92.91333333333341</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4553,28 +3421,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J81" t="n">
-        <v>15.90000000000002</v>
-      </c>
-      <c r="K81" t="n">
-        <v>100</v>
-      </c>
-      <c r="L81" t="n">
-        <v>93.64999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>93.27000000000005</v>
-      </c>
-      <c r="N81" t="n">
-        <v>93.04000000000009</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,28 +3456,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J82" t="n">
-        <v>15.90000000000002</v>
-      </c>
-      <c r="K82" t="n">
-        <v>100</v>
-      </c>
-      <c r="L82" t="n">
-        <v>93.70999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>93.32500000000006</v>
-      </c>
-      <c r="N82" t="n">
-        <v>93.16000000000008</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4655,28 +3491,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>4.599999999999994</v>
-      </c>
-      <c r="J83" t="n">
-        <v>16.00000000000003</v>
-      </c>
-      <c r="K83" t="n">
-        <v>59.99999999999772</v>
-      </c>
-      <c r="L83" t="n">
-        <v>93.74999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>93.37000000000005</v>
-      </c>
-      <c r="N83" t="n">
-        <v>93.17666666666675</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,28 +3526,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J84" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K84" t="n">
-        <v>59.99999999999886</v>
-      </c>
-      <c r="L84" t="n">
-        <v>93.78999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>93.42000000000004</v>
-      </c>
-      <c r="N84" t="n">
-        <v>93.20666666666675</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,28 +3561,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J85" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K85" t="n">
-        <v>59.99999999999886</v>
-      </c>
-      <c r="L85" t="n">
-        <v>93.81999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>93.47000000000006</v>
-      </c>
-      <c r="N85" t="n">
-        <v>93.24000000000008</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,28 +3596,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J86" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K86" t="n">
-        <v>49.99999999999822</v>
-      </c>
-      <c r="L86" t="n">
-        <v>93.84999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>93.52000000000005</v>
-      </c>
-      <c r="N86" t="n">
-        <v>93.27666666666674</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,28 +3631,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J87" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K87" t="n">
-        <v>49.99999999999822</v>
-      </c>
-      <c r="L87" t="n">
-        <v>93.86999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>93.57000000000005</v>
-      </c>
-      <c r="N87" t="n">
-        <v>93.31666666666676</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,28 +3666,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J88" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>93.88999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>93.62000000000005</v>
-      </c>
-      <c r="N88" t="n">
-        <v>93.35333333333342</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4961,28 +3701,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J89" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>93.88999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>93.67000000000004</v>
-      </c>
-      <c r="N89" t="n">
-        <v>93.39666666666676</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5012,28 +3736,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J90" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>93.88999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>93.72000000000006</v>
-      </c>
-      <c r="N90" t="n">
-        <v>93.4400000000001</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5063,28 +3771,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J91" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>93.88999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>93.77000000000005</v>
-      </c>
-      <c r="N91" t="n">
-        <v>93.47666666666676</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5114,28 +3806,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J92" t="n">
-        <v>16.10000000000004</v>
-      </c>
-      <c r="K92" t="n">
-        <v>100</v>
-      </c>
-      <c r="L92" t="n">
-        <v>93.88999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>93.80000000000005</v>
-      </c>
-      <c r="N92" t="n">
-        <v>93.51333333333342</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5165,26 +3841,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J93" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>93.89999999999998</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>93.82500000000006</v>
-      </c>
-      <c r="N93" t="n">
-        <v>93.54666666666677</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,26 +3876,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J94" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>93.89999999999999</v>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>93.84500000000006</v>
-      </c>
-      <c r="N94" t="n">
-        <v>93.5800000000001</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,26 +3911,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J95" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>93.89999999999999</v>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>93.86000000000007</v>
-      </c>
-      <c r="N95" t="n">
-        <v>93.61333333333343</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,26 +3946,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J96" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>93.89999999999999</v>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>93.87500000000009</v>
-      </c>
-      <c r="N96" t="n">
-        <v>93.64666666666676</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5361,26 +3981,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J97" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>93.89999999999999</v>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>93.88500000000008</v>
-      </c>
-      <c r="N97" t="n">
-        <v>93.68000000000009</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,26 +4016,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J98" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>93.89999999999999</v>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>93.89500000000008</v>
-      </c>
-      <c r="N98" t="n">
-        <v>93.71333333333342</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5459,26 +4051,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J99" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>93.89999999999999</v>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>93.89500000000008</v>
-      </c>
-      <c r="N99" t="n">
-        <v>93.74666666666675</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,26 +4086,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J100" t="n">
-        <v>16.10000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>93.89999999999999</v>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>93.89500000000008</v>
-      </c>
-      <c r="N100" t="n">
-        <v>93.7800000000001</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,28 +4121,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="J101" t="n">
-        <v>17.00000000000004</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L101" t="n">
-        <v>93.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>93.85000000000008</v>
-      </c>
-      <c r="N101" t="n">
-        <v>93.78333333333343</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,28 +4156,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J102" t="n">
-        <v>17.90000000000005</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>93.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>93.85000000000008</v>
-      </c>
-      <c r="N102" t="n">
-        <v>93.80333333333343</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5659,28 +4191,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J103" t="n">
-        <v>17.90000000000005</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>93.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>93.85500000000009</v>
-      </c>
-      <c r="N103" t="n">
-        <v>93.82000000000009</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5710,28 +4226,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J104" t="n">
-        <v>17.90000000000005</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>93.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>93.85500000000009</v>
-      </c>
-      <c r="N104" t="n">
-        <v>93.83333333333343</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5761,28 +4261,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>3.899999999999991</v>
-      </c>
-      <c r="J105" t="n">
-        <v>18.70000000000006</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-30.76923076923094</v>
-      </c>
-      <c r="L105" t="n">
-        <v>93.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>93.81500000000008</v>
-      </c>
-      <c r="N105" t="n">
-        <v>93.81666666666676</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,28 +4296,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J106" t="n">
-        <v>19.50000000000007</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>93.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>93.81500000000008</v>
-      </c>
-      <c r="N106" t="n">
-        <v>93.82666666666677</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5863,28 +4331,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J107" t="n">
-        <v>19.50000000000007</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>93.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>93.81500000000008</v>
-      </c>
-      <c r="N107" t="n">
-        <v>93.83333333333344</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,28 +4366,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J108" t="n">
-        <v>19.50000000000007</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>93.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>93.81500000000008</v>
-      </c>
-      <c r="N108" t="n">
-        <v>93.84000000000012</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5965,28 +4401,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>3.200000000000003</v>
-      </c>
-      <c r="J109" t="n">
-        <v>21.00000000000007</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-30.61224489795897</v>
-      </c>
-      <c r="L109" t="n">
-        <v>93.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N109" t="n">
-        <v>93.79000000000012</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,28 +4436,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J110" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K110" t="n">
-        <v>16.36363636363638</v>
-      </c>
-      <c r="L110" t="n">
-        <v>93.58000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N110" t="n">
-        <v>93.79000000000012</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6067,28 +4471,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J111" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>93.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N111" t="n">
-        <v>93.79000000000012</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,28 +4506,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J112" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>93.67000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N112" t="n">
-        <v>93.79000000000012</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,28 +4541,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J113" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>93.67000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N113" t="n">
-        <v>93.79333333333345</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,28 +4576,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J114" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K114" t="n">
-        <v>21.0526315789476</v>
-      </c>
-      <c r="L114" t="n">
-        <v>93.67000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N114" t="n">
-        <v>93.79333333333345</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6271,28 +4611,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J115" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>93.75000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N115" t="n">
-        <v>93.79333333333345</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6322,28 +4646,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J116" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>93.75000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N116" t="n">
-        <v>93.79333333333345</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6373,28 +4681,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>4.700000000000003</v>
-      </c>
-      <c r="J117" t="n">
-        <v>22.50000000000007</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>93.75000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>93.74000000000008</v>
-      </c>
-      <c r="N117" t="n">
-        <v>93.79333333333345</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6424,28 +4716,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>4.599999999999994</v>
-      </c>
-      <c r="J118" t="n">
-        <v>22.60000000000008</v>
-      </c>
-      <c r="K118" t="n">
-        <v>87.49999999999901</v>
-      </c>
-      <c r="L118" t="n">
-        <v>93.74000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>93.73500000000007</v>
-      </c>
-      <c r="N118" t="n">
-        <v>93.79000000000012</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6475,28 +4751,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>4.799999999999997</v>
-      </c>
-      <c r="J119" t="n">
-        <v>22.80000000000008</v>
-      </c>
-      <c r="K119" t="n">
-        <v>33.33333333333017</v>
-      </c>
-      <c r="L119" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>93.74000000000007</v>
-      </c>
-      <c r="N119" t="n">
-        <v>93.79333333333345</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6526,1099 +4786,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>5.700000000000003</v>
-      </c>
-      <c r="J120" t="n">
-        <v>23.70000000000009</v>
-      </c>
-      <c r="K120" t="n">
-        <v>83.33333333333215</v>
-      </c>
-      <c r="L120" t="n">
-        <v>94.00000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>93.79000000000006</v>
-      </c>
-      <c r="N120" t="n">
-        <v>93.82666666666678</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="C121" t="n">
-        <v>95</v>
-      </c>
-      <c r="D121" t="n">
-        <v>95</v>
-      </c>
-      <c r="E121" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G121" t="n">
-        <v>93.66999999999983</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>5.799999999999997</v>
-      </c>
-      <c r="J121" t="n">
-        <v>23.80000000000008</v>
-      </c>
-      <c r="K121" t="n">
-        <v>84.61538461538343</v>
-      </c>
-      <c r="L121" t="n">
-        <v>94.11</v>
-      </c>
-      <c r="M121" t="n">
-        <v>93.89000000000007</v>
-      </c>
-      <c r="N121" t="n">
-        <v>93.86333333333344</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>95</v>
-      </c>
-      <c r="C122" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E122" t="n">
-        <v>95</v>
-      </c>
-      <c r="F122" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G122" t="n">
-        <v>93.71499999999983</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>6.299999999999997</v>
-      </c>
-      <c r="J122" t="n">
-        <v>24.30000000000008</v>
-      </c>
-      <c r="K122" t="n">
-        <v>88.888888888888</v>
-      </c>
-      <c r="L122" t="n">
-        <v>94.27</v>
-      </c>
-      <c r="M122" t="n">
-        <v>93.97000000000006</v>
-      </c>
-      <c r="N122" t="n">
-        <v>93.91666666666677</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E123" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1650</v>
-      </c>
-      <c r="G123" t="n">
-        <v>93.75833333333317</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.299999999999997</v>
-      </c>
-      <c r="J123" t="n">
-        <v>24.30000000000008</v>
-      </c>
-      <c r="K123" t="n">
-        <v>88.888888888888</v>
-      </c>
-      <c r="L123" t="n">
-        <v>94.42999999999998</v>
-      </c>
-      <c r="M123" t="n">
-        <v>94.05000000000005</v>
-      </c>
-      <c r="N123" t="n">
-        <v>93.9700000000001</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C124" t="n">
-        <v>99</v>
-      </c>
-      <c r="D124" t="n">
-        <v>99</v>
-      </c>
-      <c r="E124" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>95748.76720919192</v>
-      </c>
-      <c r="G124" t="n">
-        <v>93.85999999999984</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>9.799999999999997</v>
-      </c>
-      <c r="J124" t="n">
-        <v>27.80000000000008</v>
-      </c>
-      <c r="K124" t="n">
-        <v>96.22641509433932</v>
-      </c>
-      <c r="L124" t="n">
-        <v>94.93999999999997</v>
-      </c>
-      <c r="M124" t="n">
-        <v>94.30500000000005</v>
-      </c>
-      <c r="N124" t="n">
-        <v>94.1400000000001</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C125" t="n">
-        <v>99</v>
-      </c>
-      <c r="D125" t="n">
-        <v>99</v>
-      </c>
-      <c r="E125" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3314.0707</v>
-      </c>
-      <c r="G125" t="n">
-        <v>93.96166666666652</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>9.799999999999997</v>
-      </c>
-      <c r="J125" t="n">
-        <v>27.80000000000008</v>
-      </c>
-      <c r="K125" t="n">
-        <v>96.22641509433932</v>
-      </c>
-      <c r="L125" t="n">
-        <v>95.44999999999996</v>
-      </c>
-      <c r="M125" t="n">
-        <v>94.60000000000005</v>
-      </c>
-      <c r="N125" t="n">
-        <v>94.3100000000001</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D126" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E126" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1888.28</v>
-      </c>
-      <c r="G126" t="n">
-        <v>94.03166666666652</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="J126" t="n">
-        <v>29.70000000000009</v>
-      </c>
-      <c r="K126" t="n">
-        <v>44.44444444444418</v>
-      </c>
-      <c r="L126" t="n">
-        <v>95.76999999999997</v>
-      </c>
-      <c r="M126" t="n">
-        <v>94.76000000000005</v>
-      </c>
-      <c r="N126" t="n">
-        <v>94.41666666666676</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F127" t="n">
-        <v>981.6154</v>
-      </c>
-      <c r="G127" t="n">
-        <v>94.10166666666653</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="J127" t="n">
-        <v>29.70000000000009</v>
-      </c>
-      <c r="K127" t="n">
-        <v>46.47887323943652</v>
-      </c>
-      <c r="L127" t="n">
-        <v>96.08999999999997</v>
-      </c>
-      <c r="M127" t="n">
-        <v>94.92000000000004</v>
-      </c>
-      <c r="N127" t="n">
-        <v>94.52333333333341</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E128" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F128" t="n">
-        <v>635</v>
-      </c>
-      <c r="G128" t="n">
-        <v>94.17166666666655</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="J128" t="n">
-        <v>29.70000000000009</v>
-      </c>
-      <c r="K128" t="n">
-        <v>44.92753623188394</v>
-      </c>
-      <c r="L128" t="n">
-        <v>96.41999999999999</v>
-      </c>
-      <c r="M128" t="n">
-        <v>95.08000000000003</v>
-      </c>
-      <c r="N128" t="n">
-        <v>94.63000000000008</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E129" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1409.1366</v>
-      </c>
-      <c r="G129" t="n">
-        <v>94.24166666666656</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>7.899999999999991</v>
-      </c>
-      <c r="J129" t="n">
-        <v>29.70000000000009</v>
-      </c>
-      <c r="K129" t="n">
-        <v>36.66666666666647</v>
-      </c>
-      <c r="L129" t="n">
-        <v>96.72999999999998</v>
-      </c>
-      <c r="M129" t="n">
-        <v>95.31500000000003</v>
-      </c>
-      <c r="N129" t="n">
-        <v>94.73666666666674</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E130" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F130" t="n">
-        <v>362.304</v>
-      </c>
-      <c r="G130" t="n">
-        <v>94.30499999999989</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>30.10000000000008</v>
-      </c>
-      <c r="K130" t="n">
-        <v>26.98412698412704</v>
-      </c>
-      <c r="L130" t="n">
-        <v>96.90999999999998</v>
-      </c>
-      <c r="M130" t="n">
-        <v>95.45500000000001</v>
-      </c>
-      <c r="N130" t="n">
-        <v>94.83000000000007</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>800</v>
-      </c>
-      <c r="G131" t="n">
-        <v>94.36999999999991</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>7.599999999999994</v>
-      </c>
-      <c r="J131" t="n">
-        <v>30.20000000000007</v>
-      </c>
-      <c r="K131" t="n">
-        <v>22.03389830508473</v>
-      </c>
-      <c r="L131" t="n">
-        <v>97.08999999999999</v>
-      </c>
-      <c r="M131" t="n">
-        <v>95.60000000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>94.95666666666673</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10047.9751</v>
-      </c>
-      <c r="G132" t="n">
-        <v>94.42833333333324</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>7.599999999999994</v>
-      </c>
-      <c r="J132" t="n">
-        <v>30.20000000000007</v>
-      </c>
-      <c r="K132" t="n">
-        <v>22.03389830508473</v>
-      </c>
-      <c r="L132" t="n">
-        <v>97.21999999999998</v>
-      </c>
-      <c r="M132" t="n">
-        <v>95.745</v>
-      </c>
-      <c r="N132" t="n">
-        <v>95.05333333333341</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>800</v>
-      </c>
-      <c r="G133" t="n">
-        <v>94.48499999999991</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>7.599999999999994</v>
-      </c>
-      <c r="J133" t="n">
-        <v>30.20000000000007</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-91.66666666666711</v>
-      </c>
-      <c r="L133" t="n">
-        <v>97.34999999999998</v>
-      </c>
-      <c r="M133" t="n">
-        <v>95.89</v>
-      </c>
-      <c r="N133" t="n">
-        <v>95.15000000000008</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F134" t="n">
-        <v>6910.6301</v>
-      </c>
-      <c r="G134" t="n">
-        <v>94.53999999999992</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>7.599999999999994</v>
-      </c>
-      <c r="J134" t="n">
-        <v>30.20000000000007</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-91.66666666666711</v>
-      </c>
-      <c r="L134" t="n">
-        <v>97.12999999999997</v>
-      </c>
-      <c r="M134" t="n">
-        <v>96.035</v>
-      </c>
-      <c r="N134" t="n">
-        <v>95.24666666666674</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>800</v>
-      </c>
-      <c r="G135" t="n">
-        <v>94.59333333333325</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>7.599999999999994</v>
-      </c>
-      <c r="J135" t="n">
-        <v>30.20000000000007</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-60.00000000000114</v>
-      </c>
-      <c r="L135" t="n">
-        <v>96.90999999999997</v>
-      </c>
-      <c r="M135" t="n">
-        <v>96.17999999999998</v>
-      </c>
-      <c r="N135" t="n">
-        <v>95.37000000000009</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E136" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F136" t="n">
-        <v>800</v>
-      </c>
-      <c r="G136" t="n">
-        <v>94.64499999999991</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>30.30000000000007</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-66.66666666666745</v>
-      </c>
-      <c r="L136" t="n">
-        <v>96.86999999999998</v>
-      </c>
-      <c r="M136" t="n">
-        <v>96.31999999999998</v>
-      </c>
-      <c r="N136" t="n">
-        <v>95.46333333333341</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D137" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="E137" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G137" t="n">
-        <v>94.69333333333324</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>7.399999999999991</v>
-      </c>
-      <c r="J137" t="n">
-        <v>30.40000000000008</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-71.42857142857258</v>
-      </c>
-      <c r="L137" t="n">
-        <v>96.81999999999996</v>
-      </c>
-      <c r="M137" t="n">
-        <v>96.45499999999997</v>
-      </c>
-      <c r="N137" t="n">
-        <v>95.55333333333341</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="C138" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="F138" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G138" t="n">
-        <v>94.74333333333325</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J138" t="n">
-        <v>30.50000000000009</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-49.99999999999911</v>
-      </c>
-      <c r="L138" t="n">
-        <v>96.77999999999996</v>
-      </c>
-      <c r="M138" t="n">
-        <v>96.59999999999998</v>
-      </c>
-      <c r="N138" t="n">
-        <v>95.64666666666673</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="E139" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3933.7034</v>
-      </c>
-      <c r="G139" t="n">
-        <v>94.77166666666659</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>6.399999999999991</v>
-      </c>
-      <c r="J139" t="n">
-        <v>31.60000000000009</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-73.3333333333332</v>
-      </c>
-      <c r="L139" t="n">
-        <v>96.62999999999997</v>
-      </c>
-      <c r="M139" t="n">
-        <v>96.67999999999998</v>
-      </c>
-      <c r="N139" t="n">
-        <v>95.75333333333339</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E140" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G140" t="n">
-        <v>94.81833333333326</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J140" t="n">
-        <v>32.7000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-3.999999999999727</v>
-      </c>
-      <c r="L140" t="n">
-        <v>96.62999999999995</v>
-      </c>
-      <c r="M140" t="n">
-        <v>96.76999999999997</v>
-      </c>
-      <c r="N140" t="n">
-        <v>95.84666666666672</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="C141" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>96.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="F141" t="n">
-        <v>7200</v>
-      </c>
-      <c r="G141" t="n">
-        <v>94.8666666666666</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>7.599999999999994</v>
-      </c>
-      <c r="J141" t="n">
-        <v>32.8000000000001</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>96.62999999999995</v>
-      </c>
-      <c r="M141" t="n">
-        <v>96.85999999999997</v>
-      </c>
-      <c r="N141" t="n">
-        <v>95.94333333333338</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -451,17 +451,13 @@
         <v>89.91333333333348</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>89.89500000000015</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>89.87666666666681</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>89.86666666666682</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>89.86166666666682</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>89.85666666666681</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>89.85500000000015</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>91</v>
-      </c>
-      <c r="K8" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -754,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -795,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -836,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -918,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -959,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1041,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1164,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1287,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1328,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1369,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1410,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1451,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1492,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1533,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1574,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1615,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1656,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1697,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1735,19 +1539,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>1.037600896860987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1776,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1846,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1881,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1916,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1986,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -2021,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -2056,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2161,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2788,14 +2586,20 @@
         <v>92.48000000000003</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>92.8</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2830,7 +2634,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2865,7 +2673,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2900,7 +2712,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2935,7 +2751,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2970,7 +2790,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3005,7 +2829,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3033,14 +2861,20 @@
         <v>92.69333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>92.90000000000001</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3075,7 +2909,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3110,7 +2948,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3138,14 +2980,20 @@
         <v>92.76999999999998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>93.3</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3180,7 +3028,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3215,7 +3067,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3250,7 +3106,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3285,7 +3145,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3320,7 +3184,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3355,7 +3223,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3390,7 +3262,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3301,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3460,7 +3340,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3495,7 +3379,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3530,7 +3418,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3565,7 +3457,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3600,7 +3496,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3635,7 +3535,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3670,7 +3574,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +3613,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3740,7 +3652,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3775,7 +3691,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3810,7 +3730,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3845,7 +3769,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3880,7 +3808,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3915,7 +3847,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3950,7 +3886,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3985,7 +3925,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4020,7 +3964,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4055,7 +4003,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4090,7 +4042,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4125,7 +4081,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4160,7 +4120,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4195,7 +4159,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4230,7 +4198,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4265,7 +4237,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4300,7 +4276,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4335,7 +4315,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4370,7 +4354,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4405,7 +4393,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4440,7 +4432,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4475,7 +4471,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4510,7 +4510,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4545,7 +4549,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4588,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4615,7 +4627,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4650,7 +4666,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4685,7 +4705,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4720,7 +4744,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4755,7 +4783,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4790,7 +4822,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.2</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>89.2</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>89.2</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>89.2</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>2886.443</v>
+        <v>800</v>
       </c>
       <c r="G2" t="n">
-        <v>89.91333333333348</v>
+        <v>89.95166666666682</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="C3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E3" t="n">
-        <v>90.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F3" t="n">
-        <v>540.8276</v>
+        <v>2886.443</v>
       </c>
       <c r="G3" t="n">
-        <v>89.89500000000015</v>
+        <v>89.91333333333348</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>3613.3778</v>
+        <v>540.8276</v>
       </c>
       <c r="G4" t="n">
-        <v>89.87666666666681</v>
+        <v>89.89500000000015</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>89.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="C5" t="n">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
       <c r="D5" t="n">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
       <c r="E5" t="n">
-        <v>89.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4413.0047</v>
+        <v>3613.3778</v>
       </c>
       <c r="G5" t="n">
-        <v>89.86666666666682</v>
+        <v>89.87666666666681</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C6" t="n">
         <v>90.8</v>
       </c>
-      <c r="C6" t="n">
-        <v>91</v>
-      </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="E6" t="n">
-        <v>90.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8335</v>
+        <v>4413.0047</v>
       </c>
       <c r="G6" t="n">
-        <v>89.86166666666682</v>
+        <v>89.86666666666682</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="C7" t="n">
         <v>91</v>
@@ -617,13 +617,13 @@
         <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>91</v>
+        <v>90.8</v>
       </c>
       <c r="F7" t="n">
-        <v>2400</v>
+        <v>8335</v>
       </c>
       <c r="G7" t="n">
-        <v>89.85666666666681</v>
+        <v>89.86166666666682</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>91</v>
       </c>
       <c r="C8" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="D8" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="E8" t="n">
         <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>5763</v>
+        <v>2400</v>
       </c>
       <c r="G8" t="n">
-        <v>89.85500000000015</v>
+        <v>89.85666666666681</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>91</v>
+      </c>
+      <c r="C9" t="n">
         <v>91.2</v>
       </c>
-      <c r="C9" t="n">
-        <v>91.40000000000001</v>
-      </c>
       <c r="D9" t="n">
-        <v>91.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="E9" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="F9" t="n">
-        <v>1995</v>
+        <v>5763</v>
       </c>
       <c r="G9" t="n">
-        <v>89.88500000000013</v>
+        <v>89.85500000000015</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="C10" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="C10" t="n">
-        <v>91.59999999999999</v>
-      </c>
       <c r="D10" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>91.40000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="F10" t="n">
-        <v>424</v>
+        <v>1995</v>
       </c>
       <c r="G10" t="n">
-        <v>89.92000000000013</v>
+        <v>89.88500000000013</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>91.59999999999999</v>
@@ -757,13 +757,13 @@
         <v>91.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>692</v>
+        <v>424</v>
       </c>
       <c r="G11" t="n">
-        <v>89.95333333333346</v>
+        <v>89.92000000000013</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>19616</v>
+        <v>692</v>
       </c>
       <c r="G12" t="n">
-        <v>89.99000000000014</v>
+        <v>89.95333333333346</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="C13" t="n">
         <v>91.7</v>
@@ -827,13 +827,13 @@
         <v>91.7</v>
       </c>
       <c r="E13" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="F13" t="n">
-        <v>8537</v>
+        <v>19616</v>
       </c>
       <c r="G13" t="n">
-        <v>90.0266666666668</v>
+        <v>89.99000000000014</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>91.7</v>
       </c>
       <c r="F14" t="n">
-        <v>800</v>
+        <v>8537</v>
       </c>
       <c r="G14" t="n">
-        <v>90.06333333333346</v>
+        <v>90.0266666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>91.7</v>
       </c>
       <c r="C15" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="D15" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="E15" t="n">
         <v>91.7</v>
       </c>
       <c r="F15" t="n">
-        <v>15610</v>
+        <v>800</v>
       </c>
       <c r="G15" t="n">
-        <v>90.10500000000012</v>
+        <v>90.06333333333346</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="C16" t="n">
         <v>92</v>
@@ -932,19 +932,19 @@
         <v>92</v>
       </c>
       <c r="E16" t="n">
-        <v>92</v>
+        <v>91.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7600</v>
+        <v>15610</v>
       </c>
       <c r="G16" t="n">
-        <v>90.14666666666679</v>
+        <v>90.10500000000012</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -970,16 +970,16 @@
         <v>92</v>
       </c>
       <c r="F17" t="n">
-        <v>1863.6412</v>
+        <v>7600</v>
       </c>
       <c r="G17" t="n">
-        <v>90.18833333333346</v>
+        <v>90.14666666666679</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -996,19 +996,19 @@
         <v>92</v>
       </c>
       <c r="C18" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="D18" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="E18" t="n">
         <v>92</v>
       </c>
       <c r="F18" t="n">
-        <v>1023</v>
+        <v>1863.6412</v>
       </c>
       <c r="G18" t="n">
-        <v>90.23333333333345</v>
+        <v>90.18833333333346</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>92</v>
+      </c>
+      <c r="C19" t="n">
         <v>92.2</v>
       </c>
-      <c r="C19" t="n">
-        <v>92.3</v>
-      </c>
       <c r="D19" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="E19" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="F19" t="n">
-        <v>5939</v>
+        <v>1023</v>
       </c>
       <c r="G19" t="n">
-        <v>90.28666666666679</v>
+        <v>90.23333333333345</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="C20" t="n">
         <v>92.3</v>
       </c>
-      <c r="C20" t="n">
-        <v>92.7</v>
-      </c>
       <c r="D20" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="E20" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="F20" t="n">
-        <v>11797</v>
+        <v>5939</v>
       </c>
       <c r="G20" t="n">
-        <v>90.34166666666678</v>
+        <v>90.28666666666679</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="C21" t="n">
         <v>92.7</v>
@@ -1107,13 +1107,13 @@
         <v>92.7</v>
       </c>
       <c r="E21" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="F21" t="n">
-        <v>252</v>
+        <v>11797</v>
       </c>
       <c r="G21" t="n">
-        <v>90.37333333333345</v>
+        <v>90.34166666666678</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>92.7</v>
       </c>
       <c r="C22" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D22" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E22" t="n">
         <v>92.7</v>
       </c>
       <c r="F22" t="n">
-        <v>11200</v>
+        <v>252</v>
       </c>
       <c r="G22" t="n">
-        <v>90.43333333333344</v>
+        <v>90.37333333333345</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="C23" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="F23" t="n">
-        <v>4800</v>
+        <v>11200</v>
       </c>
       <c r="G23" t="n">
-        <v>90.49166666666677</v>
+        <v>90.43333333333344</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>92.8</v>
       </c>
       <c r="F24" t="n">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="G24" t="n">
-        <v>90.54166666666677</v>
+        <v>90.49166666666677</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>92.8</v>
       </c>
       <c r="C25" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D25" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E25" t="n">
         <v>92.8</v>
       </c>
       <c r="F25" t="n">
-        <v>2161</v>
+        <v>8000</v>
       </c>
       <c r="G25" t="n">
-        <v>90.57833333333343</v>
+        <v>90.54166666666677</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C26" t="n">
         <v>92.90000000000001</v>
@@ -1282,13 +1282,13 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F26" t="n">
-        <v>9553</v>
+        <v>2161</v>
       </c>
       <c r="G26" t="n">
-        <v>90.63000000000009</v>
+        <v>90.57833333333343</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>15449</v>
+        <v>9553</v>
       </c>
       <c r="G27" t="n">
-        <v>90.68666666666675</v>
+        <v>90.63000000000009</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1352,13 +1352,13 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>3214.4569</v>
+        <v>15449</v>
       </c>
       <c r="G28" t="n">
-        <v>90.74333333333341</v>
+        <v>90.68666666666675</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>92.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>6378</v>
+        <v>3214.4569</v>
       </c>
       <c r="G29" t="n">
-        <v>90.8000000000001</v>
+        <v>90.74333333333341</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>92.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>92.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>5873</v>
+        <v>6378</v>
       </c>
       <c r="G30" t="n">
-        <v>90.85333333333342</v>
+        <v>90.8000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>92.7</v>
       </c>
       <c r="C31" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D31" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E31" t="n">
         <v>92.7</v>
       </c>
       <c r="F31" t="n">
-        <v>2000</v>
+        <v>5873</v>
       </c>
       <c r="G31" t="n">
-        <v>90.90666666666677</v>
+        <v>90.85333333333342</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="C32" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="F32" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G32" t="n">
-        <v>90.96333333333342</v>
+        <v>90.90666666666677</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>93</v>
       </c>
       <c r="F33" t="n">
-        <v>3076</v>
+        <v>8000</v>
       </c>
       <c r="G33" t="n">
-        <v>91.00833333333343</v>
+        <v>90.96333333333342</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E34" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>3076</v>
       </c>
       <c r="G34" t="n">
-        <v>91.05333333333343</v>
+        <v>91.00833333333343</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>982.5773</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>91.10000000000009</v>
+        <v>91.05333333333343</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>12400</v>
+        <v>982.5773</v>
       </c>
       <c r="G36" t="n">
-        <v>91.15500000000007</v>
+        <v>91.10000000000009</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>4800</v>
+        <v>12400</v>
       </c>
       <c r="G37" t="n">
-        <v>91.21000000000006</v>
+        <v>91.15500000000007</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="G38" t="n">
-        <v>91.26666666666672</v>
+        <v>91.21000000000006</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>29</v>
+        <v>1200</v>
       </c>
       <c r="G39" t="n">
-        <v>91.31333333333338</v>
+        <v>91.26666666666672</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="G40" t="n">
-        <v>91.36000000000004</v>
+        <v>91.31333333333338</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>2849</v>
+        <v>228</v>
       </c>
       <c r="G41" t="n">
-        <v>91.40833333333336</v>
+        <v>91.36000000000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>93</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>2849</v>
       </c>
       <c r="G42" t="n">
-        <v>91.45500000000003</v>
+        <v>91.40833333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="E43" t="n">
         <v>93</v>
       </c>
       <c r="F43" t="n">
-        <v>4400</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>91.50833333333337</v>
+        <v>91.45500000000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="C44" t="n">
         <v>93.2</v>
@@ -1912,13 +1912,13 @@
         <v>93.2</v>
       </c>
       <c r="E44" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>4400</v>
       </c>
       <c r="G44" t="n">
-        <v>91.56333333333336</v>
+        <v>91.50833333333337</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="C45" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D45" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E45" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="F45" t="n">
-        <v>14593</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="n">
-        <v>91.64000000000003</v>
+        <v>91.56333333333336</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C46" t="n">
         <v>93.90000000000001</v>
@@ -1982,13 +1982,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>32</v>
+        <v>14593</v>
       </c>
       <c r="G46" t="n">
-        <v>91.70833333333334</v>
+        <v>91.64000000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="G47" t="n">
-        <v>91.78166666666668</v>
+        <v>91.70833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>93.7</v>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G48" t="n">
-        <v>91.855</v>
+        <v>91.78166666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C49" t="n">
-        <v>92.7</v>
+        <v>93.7</v>
       </c>
       <c r="D49" t="n">
         <v>93.7</v>
       </c>
       <c r="E49" t="n">
-        <v>92.7</v>
+        <v>93.7</v>
       </c>
       <c r="F49" t="n">
-        <v>25504</v>
+        <v>800</v>
       </c>
       <c r="G49" t="n">
-        <v>91.91166666666666</v>
+        <v>91.855</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>93</v>
+      </c>
+      <c r="C50" t="n">
         <v>92.7</v>
       </c>
-      <c r="C50" t="n">
-        <v>91.8</v>
-      </c>
       <c r="D50" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E50" t="n">
         <v>92.7</v>
       </c>
-      <c r="E50" t="n">
-        <v>91.8</v>
-      </c>
       <c r="F50" t="n">
-        <v>26498.6252</v>
+        <v>25504</v>
       </c>
       <c r="G50" t="n">
-        <v>91.95333333333333</v>
+        <v>91.91166666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>91</v>
+        <v>92.7</v>
       </c>
       <c r="C51" t="n">
-        <v>90.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="D51" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E51" t="n">
         <v>91.8</v>
       </c>
-      <c r="E51" t="n">
-        <v>90.09999999999999</v>
-      </c>
       <c r="F51" t="n">
-        <v>26401.9188</v>
+        <v>26498.6252</v>
       </c>
       <c r="G51" t="n">
-        <v>91.96833333333333</v>
+        <v>91.95333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>90.3</v>
+        <v>91</v>
       </c>
       <c r="C52" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>91.09999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="E52" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>38011.6506</v>
+        <v>26401.9188</v>
       </c>
       <c r="G52" t="n">
-        <v>91.98666666666668</v>
+        <v>91.96833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>92.5</v>
+        <v>90.3</v>
       </c>
       <c r="C53" t="n">
-        <v>93.3</v>
+        <v>90.3</v>
       </c>
       <c r="D53" t="n">
-        <v>93.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>92.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>10406</v>
+        <v>38011.6506</v>
       </c>
       <c r="G53" t="n">
-        <v>92.04000000000001</v>
+        <v>91.98666666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="C54" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="D54" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="E54" t="n">
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>10406</v>
       </c>
       <c r="G54" t="n">
-        <v>92.08833333333334</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,28 +2291,32 @@
         <v>93</v>
       </c>
       <c r="C55" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D55" t="n">
         <v>93</v>
       </c>
       <c r="E55" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F55" t="n">
-        <v>2808</v>
+        <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>92.13499999999999</v>
+        <v>92.08833333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2323,22 +2327,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="C56" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="E56" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>10659</v>
+        <v>2808</v>
       </c>
       <c r="G56" t="n">
-        <v>92.16666666666667</v>
+        <v>92.13499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2351,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,32 +2368,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="C57" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D57" t="n">
         <v>92.8</v>
       </c>
       <c r="E57" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>10659</v>
       </c>
       <c r="G57" t="n">
-        <v>92.19666666666667</v>
+        <v>92.16666666666667</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K57" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="C58" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="D58" t="n">
         <v>92.8</v>
       </c>
       <c r="E58" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>21</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="n">
-        <v>92.24333333333334</v>
+        <v>92.19666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2435,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2452,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="C59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="D59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="E59" t="n">
-        <v>92.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1128</v>
+        <v>21</v>
       </c>
       <c r="G59" t="n">
-        <v>92.28666666666668</v>
+        <v>92.24333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2476,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2469,16 +2499,16 @@
         <v>92.59999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>92.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>5185</v>
+        <v>1128</v>
       </c>
       <c r="G60" t="n">
-        <v>92.33166666666669</v>
+        <v>92.28666666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2517,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,32 +2534,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="E61" t="n">
-        <v>92.8</v>
+        <v>92.5</v>
       </c>
       <c r="F61" t="n">
-        <v>800</v>
+        <v>5185</v>
       </c>
       <c r="G61" t="n">
-        <v>92.37833333333336</v>
+        <v>92.33166666666669</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,20 +2589,28 @@
         <v>92.8</v>
       </c>
       <c r="F62" t="n">
-        <v>2380</v>
+        <v>800</v>
       </c>
       <c r="G62" t="n">
-        <v>92.43833333333336</v>
+        <v>92.37833333333336</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="K62" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2571,19 +2623,19 @@
         <v>92.8</v>
       </c>
       <c r="C63" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D63" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E63" t="n">
         <v>92.8</v>
       </c>
       <c r="F63" t="n">
-        <v>1345.7792</v>
+        <v>2380</v>
       </c>
       <c r="G63" t="n">
-        <v>92.48000000000003</v>
+        <v>92.43833333333336</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2594,10 +2646,12 @@
       <c r="J63" t="n">
         <v>92.8</v>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2609,7 +2663,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C64" t="n">
         <v>92.90000000000001</v>
@@ -2618,22 +2672,26 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>1345.7792</v>
       </c>
       <c r="G64" t="n">
-        <v>92.52000000000002</v>
+        <v>92.48000000000003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2660,10 +2718,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="n">
-        <v>92.55500000000002</v>
+        <v>92.52000000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2672,7 +2730,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,10 +2759,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>13205</v>
+        <v>2400</v>
       </c>
       <c r="G66" t="n">
-        <v>92.58666666666667</v>
+        <v>92.55500000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,7 +2771,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,19 +2800,23 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>4671.8113</v>
+        <v>13205</v>
       </c>
       <c r="G67" t="n">
-        <v>92.61833333333334</v>
+        <v>92.58666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K67" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2777,19 +2843,23 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1577</v>
+        <v>4671.8113</v>
       </c>
       <c r="G68" t="n">
-        <v>92.64666666666668</v>
+        <v>92.61833333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K68" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,10 +2886,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>7241</v>
+        <v>1577</v>
       </c>
       <c r="G69" t="n">
-        <v>92.67166666666667</v>
+        <v>92.64666666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2828,7 +2898,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2855,10 +2927,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>14836</v>
+        <v>7241</v>
       </c>
       <c r="G70" t="n">
-        <v>92.69333333333333</v>
+        <v>92.67166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -2869,7 +2941,9 @@
       <c r="J70" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,19 +2970,23 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>14836</v>
       </c>
       <c r="G71" t="n">
-        <v>92.71499999999997</v>
+        <v>92.69333333333333</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K71" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2926,28 +3004,32 @@
         <v>92.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>93.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>18572.092</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>92.74166666666665</v>
+        <v>92.71499999999997</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K72" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,22 +3044,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>93.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="D73" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="E73" t="n">
-        <v>93.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>800</v>
+        <v>18572.092</v>
       </c>
       <c r="G73" t="n">
-        <v>92.76999999999998</v>
+        <v>92.74166666666665</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -2986,9 +3068,11 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K73" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,28 +3090,32 @@
         <v>93.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E74" t="n">
         <v>93.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>7017.3979</v>
+        <v>800</v>
       </c>
       <c r="G74" t="n">
-        <v>92.79999999999998</v>
+        <v>92.76999999999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,22 +3130,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C75" t="n">
         <v>93.5</v>
       </c>
-      <c r="C75" t="n">
-        <v>93.59999999999999</v>
-      </c>
       <c r="D75" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="E75" t="n">
-        <v>93.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>4328.9766</v>
+        <v>7017.3979</v>
       </c>
       <c r="G75" t="n">
-        <v>92.82666666666665</v>
+        <v>92.79999999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3066,7 +3154,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,7 +3171,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="C76" t="n">
         <v>93.59999999999999</v>
@@ -3090,13 +3180,13 @@
         <v>93.59999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5013.4445</v>
+        <v>4328.9766</v>
       </c>
       <c r="G76" t="n">
-        <v>92.85333333333332</v>
+        <v>92.82666666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3105,7 +3195,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,22 +3212,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E77" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>22415.9336</v>
+        <v>5013.4445</v>
       </c>
       <c r="G77" t="n">
-        <v>92.88166666666666</v>
+        <v>92.85333333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3144,7 +3236,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,13 +3262,13 @@
         <v>93.7</v>
       </c>
       <c r="E78" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>8759</v>
+        <v>22415.9336</v>
       </c>
       <c r="G78" t="n">
-        <v>92.90666666666667</v>
+        <v>92.88166666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3183,7 +3277,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,19 +3297,19 @@
         <v>93.7</v>
       </c>
       <c r="C79" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D79" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E79" t="n">
         <v>93.7</v>
       </c>
       <c r="F79" t="n">
-        <v>11973.0075</v>
+        <v>8759</v>
       </c>
       <c r="G79" t="n">
-        <v>92.93333333333332</v>
+        <v>92.90666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3222,7 +3318,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,7 +3335,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C80" t="n">
         <v>93.90000000000001</v>
@@ -3246,13 +3344,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1454.8523</v>
+        <v>11973.0075</v>
       </c>
       <c r="G80" t="n">
-        <v>92.95333333333332</v>
+        <v>92.93333333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3261,7 +3359,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3288,10 +3388,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>2198.935</v>
+        <v>1454.8523</v>
       </c>
       <c r="G81" t="n">
-        <v>92.97333333333331</v>
+        <v>92.95333333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3300,7 +3400,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3327,10 +3429,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>5702.3216</v>
+        <v>2198.935</v>
       </c>
       <c r="G82" t="n">
-        <v>92.98999999999998</v>
+        <v>92.97333333333331</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3339,7 +3441,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3354,22 +3458,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D83" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>2400</v>
+        <v>5702.3216</v>
       </c>
       <c r="G83" t="n">
-        <v>93.00666666666665</v>
+        <v>92.98999999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3378,7 +3482,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,7 +3502,7 @@
         <v>93.8</v>
       </c>
       <c r="C84" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="D84" t="n">
         <v>93.90000000000001</v>
@@ -3405,10 +3511,10 @@
         <v>93.8</v>
       </c>
       <c r="F84" t="n">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="G84" t="n">
-        <v>93.02499999999996</v>
+        <v>93.00666666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3417,7 +3523,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3432,7 +3540,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C85" t="n">
         <v>93.90000000000001</v>
@@ -3441,13 +3549,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F85" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="G85" t="n">
-        <v>93.04166666666664</v>
+        <v>93.02499999999996</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3456,7 +3564,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3483,10 +3593,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="G86" t="n">
-        <v>93.05833333333331</v>
+        <v>93.04166666666664</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3495,7 +3605,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3522,10 +3634,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>5090</v>
+        <v>2800</v>
       </c>
       <c r="G87" t="n">
-        <v>93.07499999999997</v>
+        <v>93.05833333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,7 +3646,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3561,10 +3675,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>31</v>
+        <v>5090</v>
       </c>
       <c r="G88" t="n">
-        <v>93.09166666666664</v>
+        <v>93.07499999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3573,7 +3687,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,10 +3716,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>716</v>
+        <v>31</v>
       </c>
       <c r="G89" t="n">
-        <v>93.10499999999996</v>
+        <v>93.09166666666664</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3612,7 +3728,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,10 +3757,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>800</v>
+        <v>716</v>
       </c>
       <c r="G90" t="n">
-        <v>93.12499999999996</v>
+        <v>93.10499999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3651,7 +3769,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3678,10 +3798,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G91" t="n">
-        <v>93.13833333333328</v>
+        <v>93.12499999999996</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3690,7 +3810,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,7 +3842,7 @@
         <v>1600</v>
       </c>
       <c r="G92" t="n">
-        <v>93.15333333333326</v>
+        <v>93.13833333333328</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3729,7 +3851,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,10 +3880,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G93" t="n">
-        <v>93.16833333333327</v>
+        <v>93.15333333333326</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3768,7 +3892,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,13 +3918,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="G94" t="n">
-        <v>93.18499999999993</v>
+        <v>93.16833333333327</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3807,7 +3933,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,7 +3950,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C95" t="n">
         <v>93.90000000000001</v>
@@ -3831,13 +3959,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>93.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F95" t="n">
-        <v>17867</v>
+        <v>2800</v>
       </c>
       <c r="G95" t="n">
-        <v>93.20666666666658</v>
+        <v>93.18499999999993</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3846,7 +3974,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3861,7 +3991,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C96" t="n">
         <v>93.90000000000001</v>
@@ -3870,13 +4000,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>4905</v>
+        <v>17867</v>
       </c>
       <c r="G96" t="n">
-        <v>93.22333333333326</v>
+        <v>93.20666666666658</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3885,7 +4015,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,10 +4044,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>800</v>
+        <v>4905</v>
       </c>
       <c r="G97" t="n">
-        <v>93.23999999999992</v>
+        <v>93.22333333333326</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3924,7 +4056,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3951,10 +4085,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G98" t="n">
-        <v>93.25666666666659</v>
+        <v>93.23999999999992</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3963,7 +4097,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,10 +4126,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>9727</v>
+        <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>93.27333333333326</v>
+        <v>93.25666666666659</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4002,7 +4138,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,10 +4167,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>203</v>
+        <v>9727</v>
       </c>
       <c r="G100" t="n">
-        <v>93.28999999999992</v>
+        <v>93.27333333333326</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4041,7 +4179,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4056,19 +4196,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>24951.9032</v>
+        <v>203</v>
       </c>
       <c r="G101" t="n">
         <v>93.28999999999992</v>
@@ -4080,7 +4220,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4095,22 +4237,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>93.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D102" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="F102" t="n">
-        <v>7200</v>
+        <v>24951.9032</v>
       </c>
       <c r="G102" t="n">
-        <v>93.30499999999991</v>
+        <v>93.28999999999992</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4119,7 +4261,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,7 +4278,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C103" t="n">
         <v>93.90000000000001</v>
@@ -4143,13 +4287,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F103" t="n">
-        <v>1753.8828</v>
+        <v>7200</v>
       </c>
       <c r="G103" t="n">
-        <v>93.31666666666658</v>
+        <v>93.30499999999991</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4158,7 +4302,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,10 +4331,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>3898</v>
+        <v>1753.8828</v>
       </c>
       <c r="G104" t="n">
-        <v>93.32833333333323</v>
+        <v>93.31666666666658</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4197,7 +4343,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,22 +4360,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>538.2356</v>
+        <v>3898</v>
       </c>
       <c r="G105" t="n">
-        <v>93.31499999999991</v>
+        <v>93.32833333333323</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4236,7 +4384,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4251,19 +4401,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>37043.566</v>
+        <v>538.2356</v>
       </c>
       <c r="G106" t="n">
         <v>93.31499999999991</v>
@@ -4275,7 +4425,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,7 +4442,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C107" t="n">
         <v>93.90000000000001</v>
@@ -4299,13 +4451,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F107" t="n">
-        <v>117</v>
+        <v>37043.566</v>
       </c>
       <c r="G107" t="n">
-        <v>93.31833333333324</v>
+        <v>93.31499999999991</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4314,7 +4466,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,10 +4495,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>2797</v>
+        <v>117</v>
       </c>
       <c r="G108" t="n">
-        <v>93.32166666666657</v>
+        <v>93.31833333333324</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4353,7 +4507,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,19 +4527,19 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>92.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D109" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>92.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>7910</v>
+        <v>2797</v>
       </c>
       <c r="G109" t="n">
-        <v>93.31666666666658</v>
+        <v>93.32166666666657</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4392,7 +4548,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,22 +4565,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>93.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D110" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>93.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>800</v>
+        <v>7910</v>
       </c>
       <c r="G110" t="n">
-        <v>93.35166666666656</v>
+        <v>93.31666666666658</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4431,7 +4589,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,7 +4606,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C111" t="n">
         <v>93.90000000000001</v>
@@ -4455,13 +4615,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F111" t="n">
-        <v>667.4760383386581</v>
+        <v>800</v>
       </c>
       <c r="G111" t="n">
-        <v>93.41499999999989</v>
+        <v>93.35166666666656</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4470,7 +4630,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,10 +4659,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>600.4366347177848</v>
+        <v>667.4760383386581</v>
       </c>
       <c r="G112" t="n">
-        <v>93.47499999999988</v>
+        <v>93.41499999999989</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4509,7 +4671,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,10 +4700,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>417.7955</v>
+        <v>600.4366347177848</v>
       </c>
       <c r="G113" t="n">
-        <v>93.48499999999987</v>
+        <v>93.47499999999988</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4548,7 +4712,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,10 +4741,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>2800</v>
+        <v>417.7955</v>
       </c>
       <c r="G114" t="n">
-        <v>93.49999999999986</v>
+        <v>93.48499999999987</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4587,7 +4753,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4614,10 +4782,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>6400</v>
+        <v>2800</v>
       </c>
       <c r="G115" t="n">
-        <v>93.51666666666652</v>
+        <v>93.49999999999986</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4626,7 +4794,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4653,10 +4823,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>5200</v>
+        <v>6400</v>
       </c>
       <c r="G116" t="n">
-        <v>93.53499999999985</v>
+        <v>93.51666666666652</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4665,7 +4835,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4689,13 +4861,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>92.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>7504.2375</v>
+        <v>5200</v>
       </c>
       <c r="G117" t="n">
-        <v>93.55499999999985</v>
+        <v>93.53499999999985</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4704,7 +4876,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,22 +4893,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>93.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>400</v>
+        <v>7504.2375</v>
       </c>
       <c r="G118" t="n">
-        <v>93.57166666666652</v>
+        <v>93.55499999999985</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4743,7 +4917,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,19 +4937,19 @@
         <v>93.8</v>
       </c>
       <c r="C119" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="D119" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="E119" t="n">
         <v>93.8</v>
       </c>
       <c r="F119" t="n">
-        <v>6800</v>
+        <v>400</v>
       </c>
       <c r="G119" t="n">
-        <v>93.59499999999984</v>
+        <v>93.57166666666652</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4782,7 +4958,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>93.3</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4797,37 +4975,80 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C120" t="n">
         <v>94</v>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
+        <v>94</v>
+      </c>
+      <c r="E120" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G120" t="n">
+        <v>93.59499999999984</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>94</v>
+      </c>
+      <c r="C121" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D121" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E121" t="n">
         <v>94</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F121" t="n">
         <v>4800</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G121" t="n">
         <v>93.63333333333317</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>800</v>
       </c>
       <c r="G2" t="n">
+        <v>89.83999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>89.95166666666682</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>2886.443</v>
       </c>
       <c r="G3" t="n">
+        <v>89.83333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>89.91333333333348</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>90</v>
+      </c>
+      <c r="L3" t="n">
+        <v>90</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>540.8276</v>
       </c>
       <c r="G4" t="n">
+        <v>89.90666666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>89.89500000000015</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>90</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>3613.3778</v>
       </c>
       <c r="G5" t="n">
+        <v>89.98666666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>89.87666666666681</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>90</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,29 @@
         <v>4413.0047</v>
       </c>
       <c r="G6" t="n">
+        <v>90.08666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>89.86666666666682</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>90</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +671,29 @@
         <v>8335</v>
       </c>
       <c r="G7" t="n">
+        <v>90.20666666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>89.86166666666682</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>90</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +717,29 @@
         <v>2400</v>
       </c>
       <c r="G8" t="n">
+        <v>90.32666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>89.85666666666681</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>90</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +763,29 @@
         <v>5763</v>
       </c>
       <c r="G9" t="n">
+        <v>90.40000000000002</v>
+      </c>
+      <c r="H9" t="n">
         <v>89.85500000000015</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +809,29 @@
         <v>1995</v>
       </c>
       <c r="G10" t="n">
+        <v>90.48666666666669</v>
+      </c>
+      <c r="H10" t="n">
         <v>89.88500000000013</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>90</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +855,29 @@
         <v>424</v>
       </c>
       <c r="G11" t="n">
+        <v>90.58666666666669</v>
+      </c>
+      <c r="H11" t="n">
         <v>89.92000000000013</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="L11" t="n">
+        <v>90</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +901,29 @@
         <v>692</v>
       </c>
       <c r="G12" t="n">
+        <v>90.63333333333335</v>
+      </c>
+      <c r="H12" t="n">
         <v>89.95333333333346</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>90</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +947,29 @@
         <v>19616</v>
       </c>
       <c r="G13" t="n">
+        <v>90.68666666666668</v>
+      </c>
+      <c r="H13" t="n">
         <v>89.99000000000014</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>90</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +993,27 @@
         <v>8537</v>
       </c>
       <c r="G14" t="n">
+        <v>90.80000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>90.0266666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>90</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1037,27 @@
         <v>800</v>
       </c>
       <c r="G15" t="n">
+        <v>90.91333333333336</v>
+      </c>
+      <c r="H15" t="n">
         <v>90.06333333333346</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>90</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1081,27 @@
         <v>15610</v>
       </c>
       <c r="G16" t="n">
+        <v>91.05333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>90.10500000000012</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>90</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1125,29 @@
         <v>7600</v>
       </c>
       <c r="G17" t="n">
+        <v>91.18666666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>90.14666666666679</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>92</v>
+      </c>
+      <c r="L17" t="n">
+        <v>90</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1171,27 @@
         <v>1863.6412</v>
       </c>
       <c r="G18" t="n">
+        <v>91.37333333333335</v>
+      </c>
+      <c r="H18" t="n">
         <v>90.18833333333346</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>90</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1215,27 @@
         <v>1023</v>
       </c>
       <c r="G19" t="n">
+        <v>91.49333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>90.23333333333345</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>90</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1259,27 @@
         <v>5939</v>
       </c>
       <c r="G20" t="n">
+        <v>91.61333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>90.28666666666679</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>90</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1303,27 @@
         <v>11797</v>
       </c>
       <c r="G21" t="n">
+        <v>91.74000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>90.34166666666678</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>90</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1347,27 @@
         <v>252</v>
       </c>
       <c r="G22" t="n">
+        <v>91.85333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>90.37333333333345</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>90</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1391,27 @@
         <v>11200</v>
       </c>
       <c r="G23" t="n">
+        <v>91.98000000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>90.43333333333344</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>90</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1435,27 @@
         <v>4800</v>
       </c>
       <c r="G24" t="n">
+        <v>92.08666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>90.49166666666677</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>90</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1479,27 @@
         <v>8000</v>
       </c>
       <c r="G25" t="n">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>90.54166666666677</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>90</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1523,27 @@
         <v>2161</v>
       </c>
       <c r="G26" t="n">
+        <v>92.26666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>90.57833333333343</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>90</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1567,27 @@
         <v>9553</v>
       </c>
       <c r="G27" t="n">
+        <v>92.35333333333337</v>
+      </c>
+      <c r="H27" t="n">
         <v>90.63000000000009</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>90</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1611,27 @@
         <v>15449</v>
       </c>
       <c r="G28" t="n">
+        <v>92.43333333333337</v>
+      </c>
+      <c r="H28" t="n">
         <v>90.68666666666675</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>90</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1655,27 @@
         <v>3214.4569</v>
       </c>
       <c r="G29" t="n">
+        <v>92.51333333333336</v>
+      </c>
+      <c r="H29" t="n">
         <v>90.74333333333341</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>90</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1699,27 @@
         <v>6378</v>
       </c>
       <c r="G30" t="n">
+        <v>92.6066666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>90.8000000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>90</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1743,27 @@
         <v>5873</v>
       </c>
       <c r="G31" t="n">
+        <v>92.65333333333336</v>
+      </c>
+      <c r="H31" t="n">
         <v>90.85333333333342</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>90</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1787,27 @@
         <v>2000</v>
       </c>
       <c r="G32" t="n">
+        <v>92.72666666666669</v>
+      </c>
+      <c r="H32" t="n">
         <v>90.90666666666677</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>90</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1831,27 @@
         <v>8000</v>
       </c>
       <c r="G33" t="n">
+        <v>92.79333333333335</v>
+      </c>
+      <c r="H33" t="n">
         <v>90.96333333333342</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>90</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1875,27 @@
         <v>3076</v>
       </c>
       <c r="G34" t="n">
+        <v>92.84666666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>91.00833333333343</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>90</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1919,27 @@
         <v>100</v>
       </c>
       <c r="G35" t="n">
+        <v>92.8866666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>91.05333333333343</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>90</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1963,27 @@
         <v>982.5773</v>
       </c>
       <c r="G36" t="n">
+        <v>92.88000000000002</v>
+      </c>
+      <c r="H36" t="n">
         <v>91.10000000000009</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>90</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +2007,27 @@
         <v>12400</v>
       </c>
       <c r="G37" t="n">
+        <v>92.89333333333336</v>
+      </c>
+      <c r="H37" t="n">
         <v>91.15500000000007</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>90</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2051,27 @@
         <v>4800</v>
       </c>
       <c r="G38" t="n">
+        <v>92.89333333333336</v>
+      </c>
+      <c r="H38" t="n">
         <v>91.21000000000006</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>90</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2095,27 @@
         <v>1200</v>
       </c>
       <c r="G39" t="n">
+        <v>92.90000000000003</v>
+      </c>
+      <c r="H39" t="n">
         <v>91.26666666666672</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>90</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2139,27 @@
         <v>29</v>
       </c>
       <c r="G40" t="n">
+        <v>92.90666666666671</v>
+      </c>
+      <c r="H40" t="n">
         <v>91.31333333333338</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>90</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2183,27 @@
         <v>228</v>
       </c>
       <c r="G41" t="n">
+        <v>92.90666666666671</v>
+      </c>
+      <c r="H41" t="n">
         <v>91.36000000000004</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>90</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2227,27 @@
         <v>2849</v>
       </c>
       <c r="G42" t="n">
+        <v>92.91333333333337</v>
+      </c>
+      <c r="H42" t="n">
         <v>91.40833333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>90</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2271,27 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>92.92000000000003</v>
+      </c>
+      <c r="H43" t="n">
         <v>91.45500000000003</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>90</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2315,27 @@
         <v>4400</v>
       </c>
       <c r="G44" t="n">
+        <v>92.94000000000003</v>
+      </c>
+      <c r="H44" t="n">
         <v>91.50833333333337</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>90</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2359,27 @@
         <v>1200</v>
       </c>
       <c r="G45" t="n">
+        <v>92.9466666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>91.56333333333336</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>90</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2403,27 @@
         <v>14593</v>
       </c>
       <c r="G46" t="n">
+        <v>93.0266666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>91.64000000000003</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>90</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2447,27 @@
         <v>32</v>
       </c>
       <c r="G47" t="n">
+        <v>93.08000000000006</v>
+      </c>
+      <c r="H47" t="n">
         <v>91.70833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>90</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2491,27 @@
         <v>400</v>
       </c>
       <c r="G48" t="n">
+        <v>93.12666666666672</v>
+      </c>
+      <c r="H48" t="n">
         <v>91.78166666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>90</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2535,27 @@
         <v>800</v>
       </c>
       <c r="G49" t="n">
+        <v>93.17333333333339</v>
+      </c>
+      <c r="H49" t="n">
         <v>91.855</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>90</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2579,27 @@
         <v>25504</v>
       </c>
       <c r="G50" t="n">
+        <v>93.16000000000005</v>
+      </c>
+      <c r="H50" t="n">
         <v>91.91166666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>90</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2623,27 @@
         <v>26498.6252</v>
       </c>
       <c r="G51" t="n">
+        <v>93.10666666666673</v>
+      </c>
+      <c r="H51" t="n">
         <v>91.95333333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>90</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2667,27 @@
         <v>26401.9188</v>
       </c>
       <c r="G52" t="n">
+        <v>92.92000000000004</v>
+      </c>
+      <c r="H52" t="n">
         <v>91.96833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>90</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2711,27 @@
         <v>38011.6506</v>
       </c>
       <c r="G53" t="n">
+        <v>92.7466666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>91.98666666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>90</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2755,27 @@
         <v>10406</v>
       </c>
       <c r="G54" t="n">
+        <v>92.77333333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>92.04000000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>90</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,22 +2799,27 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
+        <v>92.78000000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>92.08833333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>90</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,24 +2843,27 @@
         <v>2808</v>
       </c>
       <c r="G56" t="n">
+        <v>92.78000000000002</v>
+      </c>
+      <c r="H56" t="n">
         <v>92.13499999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>90</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,26 +2887,27 @@
         <v>10659</v>
       </c>
       <c r="G57" t="n">
+        <v>92.76666666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>92.16666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K57" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>90</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,24 +2931,27 @@
         <v>4000</v>
       </c>
       <c r="G58" t="n">
+        <v>92.74666666666668</v>
+      </c>
+      <c r="H58" t="n">
         <v>92.19666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>90</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,24 +2975,27 @@
         <v>21</v>
       </c>
       <c r="G59" t="n">
+        <v>92.72000000000001</v>
+      </c>
+      <c r="H59" t="n">
         <v>92.24333333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>90</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,24 +3019,27 @@
         <v>1128</v>
       </c>
       <c r="G60" t="n">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="H60" t="n">
         <v>92.28666666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>90</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,26 +3063,27 @@
         <v>5185</v>
       </c>
       <c r="G61" t="n">
+        <v>92.59333333333332</v>
+      </c>
+      <c r="H61" t="n">
         <v>92.33166666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>90</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2592,26 +3107,27 @@
         <v>800</v>
       </c>
       <c r="G62" t="n">
+        <v>92.51999999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>92.37833333333336</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="K62" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>90</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2635,26 +3151,27 @@
         <v>2380</v>
       </c>
       <c r="G63" t="n">
+        <v>92.45999999999998</v>
+      </c>
+      <c r="H63" t="n">
         <v>92.43833333333336</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K63" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>90</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,26 +3195,27 @@
         <v>1345.7792</v>
       </c>
       <c r="G64" t="n">
+        <v>92.40666666666665</v>
+      </c>
+      <c r="H64" t="n">
         <v>92.48000000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K64" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>90</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2721,24 +3239,27 @@
         <v>2000</v>
       </c>
       <c r="G65" t="n">
+        <v>92.41999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>92.52000000000002</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>90</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2762,24 +3283,27 @@
         <v>2400</v>
       </c>
       <c r="G66" t="n">
+        <v>92.49333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>92.55500000000002</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>90</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2803,26 +3327,27 @@
         <v>13205</v>
       </c>
       <c r="G67" t="n">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>92.58666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K67" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>90</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,26 +3371,27 @@
         <v>4671.8113</v>
       </c>
       <c r="G68" t="n">
+        <v>92.85333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>92.61833333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K68" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>90</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2889,24 +3415,27 @@
         <v>1577</v>
       </c>
       <c r="G69" t="n">
+        <v>92.82666666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>92.64666666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>90</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,26 +3459,27 @@
         <v>7241</v>
       </c>
       <c r="G70" t="n">
+        <v>92.82000000000002</v>
+      </c>
+      <c r="H70" t="n">
         <v>92.67166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K70" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>90</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2973,26 +3503,27 @@
         <v>14836</v>
       </c>
       <c r="G71" t="n">
+        <v>92.82000000000002</v>
+      </c>
+      <c r="H71" t="n">
         <v>92.69333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>90</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3016,26 +3547,27 @@
         <v>2000</v>
       </c>
       <c r="G72" t="n">
+        <v>92.8266666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>92.71499999999997</v>
       </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>90</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3059,26 +3591,27 @@
         <v>18572.092</v>
       </c>
       <c r="G73" t="n">
+        <v>92.8666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>92.74166666666665</v>
       </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K73" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>90</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,26 +3635,27 @@
         <v>800</v>
       </c>
       <c r="G74" t="n">
+        <v>92.90666666666671</v>
+      </c>
+      <c r="H74" t="n">
         <v>92.76999999999998</v>
       </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="K74" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>90</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,24 +3679,27 @@
         <v>7017.3979</v>
       </c>
       <c r="G75" t="n">
+        <v>92.96666666666671</v>
+      </c>
+      <c r="H75" t="n">
         <v>92.79999999999998</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>90</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,24 +3723,27 @@
         <v>4328.9766</v>
       </c>
       <c r="G76" t="n">
+        <v>93.03333333333337</v>
+      </c>
+      <c r="H76" t="n">
         <v>92.82666666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>90</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3227,24 +3767,27 @@
         <v>5013.4445</v>
       </c>
       <c r="G77" t="n">
+        <v>93.08666666666672</v>
+      </c>
+      <c r="H77" t="n">
         <v>92.85333333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>90</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,24 +3811,27 @@
         <v>22415.9336</v>
       </c>
       <c r="G78" t="n">
+        <v>93.14666666666672</v>
+      </c>
+      <c r="H78" t="n">
         <v>92.88166666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>90</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,24 +3855,27 @@
         <v>8759</v>
       </c>
       <c r="G79" t="n">
+        <v>93.20000000000005</v>
+      </c>
+      <c r="H79" t="n">
         <v>92.90666666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>90</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,24 +3899,27 @@
         <v>11973.0075</v>
       </c>
       <c r="G80" t="n">
+        <v>93.26666666666671</v>
+      </c>
+      <c r="H80" t="n">
         <v>92.93333333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>90</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3391,24 +3943,27 @@
         <v>1454.8523</v>
       </c>
       <c r="G81" t="n">
+        <v>93.33333333333339</v>
+      </c>
+      <c r="H81" t="n">
         <v>92.95333333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>90</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,24 +3987,27 @@
         <v>2198.935</v>
       </c>
       <c r="G82" t="n">
+        <v>93.40000000000005</v>
+      </c>
+      <c r="H82" t="n">
         <v>92.97333333333331</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>90</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,24 +4031,27 @@
         <v>5702.3216</v>
       </c>
       <c r="G83" t="n">
+        <v>93.46666666666671</v>
+      </c>
+      <c r="H83" t="n">
         <v>92.98999999999998</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>90</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,24 +4075,27 @@
         <v>2400</v>
       </c>
       <c r="G84" t="n">
+        <v>93.5266666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>93.00666666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>90</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,24 +4119,27 @@
         <v>3600</v>
       </c>
       <c r="G85" t="n">
+        <v>93.59333333333338</v>
+      </c>
+      <c r="H85" t="n">
         <v>93.02499999999996</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>90</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3596,24 +4163,27 @@
         <v>3200</v>
       </c>
       <c r="G86" t="n">
+        <v>93.66000000000004</v>
+      </c>
+      <c r="H86" t="n">
         <v>93.04166666666664</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>90</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3637,24 +4207,27 @@
         <v>2800</v>
       </c>
       <c r="G87" t="n">
+        <v>93.7266666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>93.05833333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>90</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,24 +4251,27 @@
         <v>5090</v>
       </c>
       <c r="G88" t="n">
+        <v>93.76666666666671</v>
+      </c>
+      <c r="H88" t="n">
         <v>93.07499999999997</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>90</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,24 +4295,27 @@
         <v>31</v>
       </c>
       <c r="G89" t="n">
+        <v>93.80000000000004</v>
+      </c>
+      <c r="H89" t="n">
         <v>93.09166666666664</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>90</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,24 +4339,27 @@
         <v>716</v>
       </c>
       <c r="G90" t="n">
+        <v>93.82666666666672</v>
+      </c>
+      <c r="H90" t="n">
         <v>93.10499999999996</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>90</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,24 +4383,27 @@
         <v>800</v>
       </c>
       <c r="G91" t="n">
+        <v>93.84666666666674</v>
+      </c>
+      <c r="H91" t="n">
         <v>93.12499999999996</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>90</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,24 +4427,27 @@
         <v>1600</v>
       </c>
       <c r="G92" t="n">
+        <v>93.86666666666675</v>
+      </c>
+      <c r="H92" t="n">
         <v>93.13833333333328</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>90</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,24 +4471,27 @@
         <v>1600</v>
       </c>
       <c r="G93" t="n">
+        <v>93.88000000000008</v>
+      </c>
+      <c r="H93" t="n">
         <v>93.15333333333326</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>90</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3924,24 +4515,27 @@
         <v>800</v>
       </c>
       <c r="G94" t="n">
+        <v>93.89333333333342</v>
+      </c>
+      <c r="H94" t="n">
         <v>93.16833333333327</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>90</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,24 +4559,27 @@
         <v>2800</v>
       </c>
       <c r="G95" t="n">
+        <v>93.89333333333342</v>
+      </c>
+      <c r="H95" t="n">
         <v>93.18499999999993</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>90</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,24 +4603,27 @@
         <v>17867</v>
       </c>
       <c r="G96" t="n">
+        <v>93.89333333333342</v>
+      </c>
+      <c r="H96" t="n">
         <v>93.20666666666658</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>90</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4047,24 +4647,27 @@
         <v>4905</v>
       </c>
       <c r="G97" t="n">
+        <v>93.89333333333342</v>
+      </c>
+      <c r="H97" t="n">
         <v>93.22333333333326</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>90</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,24 +4691,27 @@
         <v>800</v>
       </c>
       <c r="G98" t="n">
+        <v>93.89333333333342</v>
+      </c>
+      <c r="H98" t="n">
         <v>93.23999999999992</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>90</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4129,24 +4735,27 @@
         <v>400</v>
       </c>
       <c r="G99" t="n">
+        <v>93.90000000000009</v>
+      </c>
+      <c r="H99" t="n">
         <v>93.25666666666659</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>90</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,24 +4779,27 @@
         <v>9727</v>
       </c>
       <c r="G100" t="n">
+        <v>93.90000000000009</v>
+      </c>
+      <c r="H100" t="n">
         <v>93.27333333333326</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>90</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,24 +4823,27 @@
         <v>203</v>
       </c>
       <c r="G101" t="n">
+        <v>93.90000000000009</v>
+      </c>
+      <c r="H101" t="n">
         <v>93.28999999999992</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>90</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,24 +4867,27 @@
         <v>24951.9032</v>
       </c>
       <c r="G102" t="n">
+        <v>93.84000000000009</v>
+      </c>
+      <c r="H102" t="n">
         <v>93.28999999999992</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>90</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4293,24 +4911,27 @@
         <v>7200</v>
       </c>
       <c r="G103" t="n">
+        <v>93.84000000000009</v>
+      </c>
+      <c r="H103" t="n">
         <v>93.30499999999991</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>90</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,24 +4955,27 @@
         <v>1753.8828</v>
       </c>
       <c r="G104" t="n">
+        <v>93.84000000000009</v>
+      </c>
+      <c r="H104" t="n">
         <v>93.31666666666658</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>90</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,24 +4999,27 @@
         <v>3898</v>
       </c>
       <c r="G105" t="n">
+        <v>93.84000000000009</v>
+      </c>
+      <c r="H105" t="n">
         <v>93.32833333333323</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>90</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,24 +5043,27 @@
         <v>538.2356</v>
       </c>
       <c r="G106" t="n">
+        <v>93.78666666666673</v>
+      </c>
+      <c r="H106" t="n">
         <v>93.31499999999991</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>90</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,24 +5087,27 @@
         <v>37043.566</v>
       </c>
       <c r="G107" t="n">
+        <v>93.78666666666673</v>
+      </c>
+      <c r="H107" t="n">
         <v>93.31499999999991</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>90</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,24 +5131,27 @@
         <v>117</v>
       </c>
       <c r="G108" t="n">
+        <v>93.78666666666673</v>
+      </c>
+      <c r="H108" t="n">
         <v>93.31833333333324</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>90</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4539,24 +5175,27 @@
         <v>2797</v>
       </c>
       <c r="G109" t="n">
+        <v>93.78666666666673</v>
+      </c>
+      <c r="H109" t="n">
         <v>93.32166666666657</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>90</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,24 +5219,27 @@
         <v>7910</v>
       </c>
       <c r="G110" t="n">
+        <v>93.68666666666674</v>
+      </c>
+      <c r="H110" t="n">
         <v>93.31666666666658</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>90</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4621,24 +5263,27 @@
         <v>800</v>
       </c>
       <c r="G111" t="n">
+        <v>93.68666666666674</v>
+      </c>
+      <c r="H111" t="n">
         <v>93.35166666666656</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>90</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,24 +5307,27 @@
         <v>667.4760383386581</v>
       </c>
       <c r="G112" t="n">
+        <v>93.68666666666674</v>
+      </c>
+      <c r="H112" t="n">
         <v>93.41499999999989</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>90</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,24 +5351,27 @@
         <v>600.4366347177848</v>
       </c>
       <c r="G113" t="n">
+        <v>93.68666666666674</v>
+      </c>
+      <c r="H113" t="n">
         <v>93.47499999999988</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>90</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,24 +5395,27 @@
         <v>417.7955</v>
       </c>
       <c r="G114" t="n">
+        <v>93.68666666666674</v>
+      </c>
+      <c r="H114" t="n">
         <v>93.48499999999987</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>90</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,24 +5439,27 @@
         <v>2800</v>
       </c>
       <c r="G115" t="n">
+        <v>93.68666666666674</v>
+      </c>
+      <c r="H115" t="n">
         <v>93.49999999999986</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>90</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,24 +5483,27 @@
         <v>6400</v>
       </c>
       <c r="G116" t="n">
+        <v>93.68666666666674</v>
+      </c>
+      <c r="H116" t="n">
         <v>93.51666666666652</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>90</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,24 +5527,27 @@
         <v>5200</v>
       </c>
       <c r="G117" t="n">
+        <v>93.74666666666674</v>
+      </c>
+      <c r="H117" t="n">
         <v>93.53499999999985</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>90</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,24 +5571,27 @@
         <v>7504.2375</v>
       </c>
       <c r="G118" t="n">
+        <v>93.74666666666674</v>
+      </c>
+      <c r="H118" t="n">
         <v>93.55499999999985</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>90</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4949,24 +5615,27 @@
         <v>400</v>
       </c>
       <c r="G119" t="n">
+        <v>93.74000000000007</v>
+      </c>
+      <c r="H119" t="n">
         <v>93.57166666666652</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>90</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,24 +5659,27 @@
         <v>6800</v>
       </c>
       <c r="G120" t="n">
+        <v>93.74666666666673</v>
+      </c>
+      <c r="H120" t="n">
         <v>93.59499999999984</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>90</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5031,24 +5703,437 @@
         <v>4800</v>
       </c>
       <c r="G121" t="n">
+        <v>93.86666666666675</v>
+      </c>
+      <c r="H121" t="n">
         <v>93.63333333333317</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>90</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>95</v>
+      </c>
+      <c r="D122" t="n">
+        <v>95</v>
+      </c>
+      <c r="E122" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G122" t="n">
+        <v>93.94000000000007</v>
+      </c>
+      <c r="H122" t="n">
+        <v>93.66999999999983</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>90</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>95</v>
+      </c>
+      <c r="C123" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>95</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G123" t="n">
+        <v>94.04666666666672</v>
+      </c>
+      <c r="H123" t="n">
+        <v>93.71499999999983</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>90</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G124" t="n">
+        <v>94.15333333333339</v>
+      </c>
+      <c r="H124" t="n">
+        <v>93.75833333333317</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>90</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>99</v>
+      </c>
+      <c r="D125" t="n">
+        <v>99</v>
+      </c>
+      <c r="E125" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>95748.76720919192</v>
+      </c>
+      <c r="G125" t="n">
+        <v>94.59333333333339</v>
+      </c>
+      <c r="H125" t="n">
+        <v>93.85999999999984</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>90</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>99</v>
+      </c>
+      <c r="D126" t="n">
+        <v>99</v>
+      </c>
+      <c r="E126" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3314.0707</v>
+      </c>
+      <c r="G126" t="n">
+        <v>94.93333333333338</v>
+      </c>
+      <c r="H126" t="n">
+        <v>93.96166666666652</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>90</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1888.28</v>
+      </c>
+      <c r="G127" t="n">
+        <v>95.1466666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>94.03166666666652</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>981.6154</v>
+      </c>
+      <c r="G128" t="n">
+        <v>95.36000000000003</v>
+      </c>
+      <c r="H128" t="n">
+        <v>94.10166666666653</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>635</v>
+      </c>
+      <c r="G129" t="n">
+        <v>95.57333333333334</v>
+      </c>
+      <c r="H129" t="n">
+        <v>94.17166666666655</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D130" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1409.1366</v>
+      </c>
+      <c r="G130" t="n">
+        <v>95.78666666666666</v>
+      </c>
+      <c r="H130" t="n">
+        <v>94.24166666666656</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>362.304</v>
+      </c>
+      <c r="G131" t="n">
+        <v>95.97333333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>94.30499999999989</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>89.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>89.83999999999999</v>
+        <v>-32583.23488750001</v>
       </c>
       <c r="H2" t="n">
-        <v>89.95166666666682</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>89.2</v>
+        <v>90.3</v>
       </c>
       <c r="C3" t="n">
-        <v>89.2</v>
+        <v>90.3</v>
       </c>
       <c r="D3" t="n">
-        <v>89.2</v>
+        <v>90.3</v>
       </c>
       <c r="E3" t="n">
-        <v>89.2</v>
+        <v>90.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2886.443</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>89.83333333333333</v>
+        <v>-32572.23488750001</v>
       </c>
       <c r="H3" t="n">
-        <v>89.91333333333348</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>90</v>
-      </c>
-      <c r="L3" t="n">
-        <v>90</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="C4" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="D4" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E4" t="n">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="F4" t="n">
-        <v>540.8276</v>
+        <v>25.3124</v>
       </c>
       <c r="G4" t="n">
-        <v>89.90666666666668</v>
+        <v>-32597.54728750001</v>
       </c>
       <c r="H4" t="n">
-        <v>89.89500000000015</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>90</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>90.5</v>
+        <v>89.8</v>
       </c>
       <c r="C5" t="n">
-        <v>90.5</v>
+        <v>89.8</v>
       </c>
       <c r="D5" t="n">
-        <v>90.5</v>
+        <v>89.8</v>
       </c>
       <c r="E5" t="n">
-        <v>90.5</v>
+        <v>89.8</v>
       </c>
       <c r="F5" t="n">
-        <v>3613.3778</v>
+        <v>508.6821</v>
       </c>
       <c r="G5" t="n">
-        <v>89.98666666666668</v>
+        <v>-33106.22938750001</v>
       </c>
       <c r="H5" t="n">
-        <v>89.87666666666681</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>90</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,44 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C6" t="n">
         <v>89.59999999999999</v>
       </c>
-      <c r="C6" t="n">
-        <v>90.8</v>
-      </c>
       <c r="D6" t="n">
-        <v>90.8</v>
+        <v>89.8</v>
       </c>
       <c r="E6" t="n">
         <v>89.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>4413.0047</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>90.08666666666667</v>
+        <v>-43106.22938750001</v>
       </c>
       <c r="H6" t="n">
-        <v>89.86666666666682</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>90</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>90.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>8335</v>
+        <v>7000</v>
       </c>
       <c r="G7" t="n">
-        <v>90.20666666666668</v>
+        <v>-43106.22938750001</v>
       </c>
       <c r="H7" t="n">
-        <v>89.86166666666682</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>90</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -702,44 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>91</v>
+        <v>89.5</v>
       </c>
       <c r="D8" t="n">
-        <v>91</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>89.5</v>
       </c>
       <c r="F8" t="n">
-        <v>2400</v>
+        <v>5453.4126</v>
       </c>
       <c r="G8" t="n">
-        <v>90.32666666666667</v>
+        <v>-48559.64198750001</v>
       </c>
       <c r="H8" t="n">
-        <v>89.85666666666681</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>90</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,44 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>91.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>91.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>91</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>5763</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>90.40000000000002</v>
+        <v>-48549.64198750001</v>
       </c>
       <c r="H9" t="n">
-        <v>89.85500000000015</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>91</v>
-      </c>
-      <c r="L9" t="n">
-        <v>90</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -794,44 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>91.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>91.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>91.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1995</v>
+        <v>1074.1134</v>
       </c>
       <c r="G10" t="n">
-        <v>90.48666666666669</v>
+        <v>-48549.64198750001</v>
       </c>
       <c r="H10" t="n">
-        <v>89.88500000000013</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>90</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -840,44 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>91.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>91.59999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>91.59999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>91.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>424</v>
+        <v>3551.9242</v>
       </c>
       <c r="G11" t="n">
-        <v>90.58666666666669</v>
+        <v>-48549.64198750001</v>
       </c>
       <c r="H11" t="n">
-        <v>89.92000000000013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>90</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,44 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>91.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C12" t="n">
-        <v>91.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="D12" t="n">
-        <v>91.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="E12" t="n">
-        <v>91.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F12" t="n">
-        <v>692</v>
+        <v>25.3124</v>
       </c>
       <c r="G12" t="n">
-        <v>90.63333333333335</v>
+        <v>-48524.32958750001</v>
       </c>
       <c r="H12" t="n">
-        <v>89.95333333333346</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="L12" t="n">
-        <v>90</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,44 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91.5</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>91.7</v>
+        <v>90</v>
       </c>
       <c r="D13" t="n">
-        <v>91.7</v>
+        <v>90</v>
       </c>
       <c r="E13" t="n">
-        <v>91.5</v>
+        <v>90</v>
       </c>
       <c r="F13" t="n">
-        <v>19616</v>
+        <v>110</v>
       </c>
       <c r="G13" t="n">
-        <v>90.68666666666668</v>
+        <v>-48634.32958750001</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99000000000014</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="L13" t="n">
-        <v>90</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -978,42 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>91.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>91.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>91.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>91.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>8537</v>
+        <v>2929.0024</v>
       </c>
       <c r="G14" t="n">
-        <v>90.80000000000001</v>
+        <v>-51563.33198750001</v>
       </c>
       <c r="H14" t="n">
-        <v>90.0266666666668</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>90</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1022,42 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>91.7</v>
+        <v>89.5</v>
       </c>
       <c r="C15" t="n">
-        <v>91.7</v>
+        <v>89.3</v>
       </c>
       <c r="D15" t="n">
-        <v>91.7</v>
+        <v>89.5</v>
       </c>
       <c r="E15" t="n">
-        <v>91.7</v>
+        <v>89.3</v>
       </c>
       <c r="F15" t="n">
-        <v>800</v>
+        <v>12688.5556</v>
       </c>
       <c r="G15" t="n">
-        <v>90.91333333333336</v>
+        <v>-64251.88758750001</v>
       </c>
       <c r="H15" t="n">
-        <v>90.06333333333346</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>90</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,42 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>91.7</v>
+        <v>89.8</v>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>89.8</v>
       </c>
       <c r="D16" t="n">
-        <v>92</v>
+        <v>89.8</v>
       </c>
       <c r="E16" t="n">
-        <v>91.7</v>
+        <v>89.8</v>
       </c>
       <c r="F16" t="n">
-        <v>15610</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>91.05333333333334</v>
+        <v>-64241.88758750001</v>
       </c>
       <c r="H16" t="n">
-        <v>90.10500000000012</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>90</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1110,44 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="C17" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="D17" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="E17" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="F17" t="n">
-        <v>7600</v>
+        <v>10258.5742</v>
       </c>
       <c r="G17" t="n">
-        <v>91.18666666666668</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H17" t="n">
-        <v>90.14666666666679</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>92</v>
-      </c>
-      <c r="L17" t="n">
-        <v>90</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1156,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="C18" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="D18" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="E18" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="F18" t="n">
-        <v>1863.6412</v>
+        <v>800</v>
       </c>
       <c r="G18" t="n">
-        <v>91.37333333333335</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H18" t="n">
-        <v>90.18833333333346</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>90</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1200,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="C19" t="n">
-        <v>92.2</v>
+        <v>89.3</v>
       </c>
       <c r="D19" t="n">
-        <v>92.2</v>
+        <v>89.3</v>
       </c>
       <c r="E19" t="n">
-        <v>92</v>
+        <v>89.3</v>
       </c>
       <c r="F19" t="n">
-        <v>1023</v>
+        <v>800</v>
       </c>
       <c r="G19" t="n">
-        <v>91.49333333333334</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H19" t="n">
-        <v>90.23333333333345</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>90</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,42 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>92.2</v>
+        <v>89.3</v>
       </c>
       <c r="C20" t="n">
-        <v>92.3</v>
+        <v>89.3</v>
       </c>
       <c r="D20" t="n">
-        <v>92.3</v>
+        <v>89.3</v>
       </c>
       <c r="E20" t="n">
-        <v>92.2</v>
+        <v>89.3</v>
       </c>
       <c r="F20" t="n">
-        <v>5939</v>
+        <v>930.8891</v>
       </c>
       <c r="G20" t="n">
-        <v>91.61333333333333</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H20" t="n">
-        <v>90.28666666666679</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>90</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,42 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>92.3</v>
+        <v>89.8</v>
       </c>
       <c r="C21" t="n">
-        <v>92.7</v>
+        <v>89.2</v>
       </c>
       <c r="D21" t="n">
-        <v>92.7</v>
+        <v>89.8</v>
       </c>
       <c r="E21" t="n">
-        <v>92.3</v>
+        <v>89.2</v>
       </c>
       <c r="F21" t="n">
-        <v>11797</v>
+        <v>542.8842</v>
       </c>
       <c r="G21" t="n">
-        <v>91.74000000000001</v>
+        <v>-75043.34598750001</v>
       </c>
       <c r="H21" t="n">
-        <v>90.34166666666678</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>90</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,42 +1133,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>92.7</v>
+        <v>89.2</v>
       </c>
       <c r="C22" t="n">
-        <v>92.7</v>
+        <v>89.2</v>
       </c>
       <c r="D22" t="n">
-        <v>92.7</v>
+        <v>89.2</v>
       </c>
       <c r="E22" t="n">
-        <v>92.7</v>
+        <v>89.2</v>
       </c>
       <c r="F22" t="n">
-        <v>252</v>
+        <v>3434.7007</v>
       </c>
       <c r="G22" t="n">
-        <v>91.85333333333334</v>
+        <v>-75043.34598750001</v>
       </c>
       <c r="H22" t="n">
-        <v>90.37333333333345</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>90</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,42 +1172,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>92.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>92.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>11200</v>
+        <v>5144</v>
       </c>
       <c r="G23" t="n">
-        <v>91.98000000000002</v>
+        <v>-69899.34598750001</v>
       </c>
       <c r="H23" t="n">
-        <v>90.43333333333344</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>90</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1420,42 +1215,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>4800</v>
+        <v>12957</v>
       </c>
       <c r="G24" t="n">
-        <v>92.08666666666667</v>
+        <v>-69899.34598750001</v>
       </c>
       <c r="H24" t="n">
-        <v>90.49166666666677</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>90</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,42 +1258,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>8000</v>
+        <v>7025.0354</v>
       </c>
       <c r="G25" t="n">
-        <v>92.18000000000001</v>
+        <v>-69899.34598750001</v>
       </c>
       <c r="H25" t="n">
-        <v>90.54166666666677</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>90</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1508,42 +1297,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>92.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>92.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>2161</v>
+        <v>125.6375</v>
       </c>
       <c r="G26" t="n">
-        <v>92.26666666666668</v>
+        <v>-69773.70848750001</v>
       </c>
       <c r="H26" t="n">
-        <v>90.57833333333343</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>90</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1552,42 +1340,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>9553</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>92.35333333333337</v>
+        <v>-69773.70848750001</v>
       </c>
       <c r="H27" t="n">
-        <v>90.63000000000009</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>90</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,42 +1381,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="C28" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="D28" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="E28" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="F28" t="n">
-        <v>15449</v>
+        <v>800</v>
       </c>
       <c r="G28" t="n">
-        <v>92.43333333333337</v>
+        <v>-70573.70848750001</v>
       </c>
       <c r="H28" t="n">
-        <v>90.68666666666675</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>90</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1640,42 +1416,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="D29" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="E29" t="n">
-        <v>92.59999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>3214.4569</v>
+        <v>41510.7337</v>
       </c>
       <c r="G29" t="n">
-        <v>92.51333333333336</v>
+        <v>-70573.70848750001</v>
       </c>
       <c r="H29" t="n">
-        <v>90.74333333333341</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>90</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1684,42 +1451,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>93.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>93.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>6378</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>92.6066666666667</v>
+        <v>-70588.70848750001</v>
       </c>
       <c r="H30" t="n">
-        <v>90.8000000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>90</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,42 +1486,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>92.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>92.7</v>
+        <v>90</v>
       </c>
       <c r="D31" t="n">
-        <v>92.7</v>
+        <v>90</v>
       </c>
       <c r="E31" t="n">
-        <v>92.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>5873</v>
+        <v>800</v>
       </c>
       <c r="G31" t="n">
-        <v>92.65333333333336</v>
+        <v>-69788.70848750001</v>
       </c>
       <c r="H31" t="n">
-        <v>90.85333333333342</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>90</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,42 +1521,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>92.7</v>
+        <v>89.2</v>
       </c>
       <c r="C32" t="n">
-        <v>93.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="D32" t="n">
-        <v>93.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="E32" t="n">
-        <v>92.7</v>
+        <v>89.2</v>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>2886.443</v>
       </c>
       <c r="G32" t="n">
-        <v>92.72666666666669</v>
+        <v>-72675.15148750001</v>
       </c>
       <c r="H32" t="n">
-        <v>90.90666666666677</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>90</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,42 +1556,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>93</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>93</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>93</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>93</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>8000</v>
+        <v>540.8276</v>
       </c>
       <c r="G33" t="n">
-        <v>92.79333333333335</v>
+        <v>-72134.32388750001</v>
       </c>
       <c r="H33" t="n">
-        <v>90.96333333333342</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>90</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,42 +1595,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>93</v>
+        <v>90.5</v>
       </c>
       <c r="C34" t="n">
-        <v>93</v>
+        <v>90.5</v>
       </c>
       <c r="D34" t="n">
-        <v>93</v>
+        <v>90.5</v>
       </c>
       <c r="E34" t="n">
-        <v>93</v>
+        <v>90.5</v>
       </c>
       <c r="F34" t="n">
-        <v>3076</v>
+        <v>3613.3778</v>
       </c>
       <c r="G34" t="n">
-        <v>92.84666666666668</v>
+        <v>-68520.94608750001</v>
       </c>
       <c r="H34" t="n">
-        <v>91.00833333333343</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>90</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="K34" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,42 +1638,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>92.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>92.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="D35" t="n">
-        <v>92.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="E35" t="n">
-        <v>92.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>4413.0047</v>
       </c>
       <c r="G35" t="n">
-        <v>92.8866666666667</v>
+        <v>-64107.94138750001</v>
       </c>
       <c r="H35" t="n">
-        <v>91.05333333333343</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>90</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,42 +1681,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>92.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C36" t="n">
-        <v>92.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="D36" t="n">
-        <v>92.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="E36" t="n">
-        <v>92.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F36" t="n">
-        <v>982.5773</v>
+        <v>8335</v>
       </c>
       <c r="G36" t="n">
-        <v>92.88000000000002</v>
+        <v>-55772.94138750001</v>
       </c>
       <c r="H36" t="n">
-        <v>91.10000000000009</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>90</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="K36" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1992,42 +1724,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>92.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="C37" t="n">
-        <v>92.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="D37" t="n">
-        <v>92.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="E37" t="n">
-        <v>92.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="F37" t="n">
-        <v>12400</v>
+        <v>2400</v>
       </c>
       <c r="G37" t="n">
-        <v>92.89333333333336</v>
+        <v>-55772.94138750001</v>
       </c>
       <c r="H37" t="n">
-        <v>91.15500000000007</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>90</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>91</v>
+      </c>
+      <c r="K37" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2036,42 +1767,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>92.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="C38" t="n">
-        <v>92.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="D38" t="n">
-        <v>92.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="E38" t="n">
-        <v>92.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="F38" t="n">
-        <v>4800</v>
+        <v>5763</v>
       </c>
       <c r="G38" t="n">
-        <v>92.89333333333336</v>
+        <v>-50009.94138750001</v>
       </c>
       <c r="H38" t="n">
-        <v>91.21000000000006</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>90</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>91</v>
+      </c>
+      <c r="K38" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,42 +1810,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>92.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="C39" t="n">
-        <v>92.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>92.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>92.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>1995</v>
       </c>
       <c r="G39" t="n">
-        <v>92.90000000000003</v>
+        <v>-48014.94138750001</v>
       </c>
       <c r="H39" t="n">
-        <v>91.26666666666672</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>90</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,42 +1853,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>92.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>92.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>92.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>29</v>
+        <v>424</v>
       </c>
       <c r="G40" t="n">
-        <v>92.90666666666671</v>
+        <v>-47590.94138750001</v>
       </c>
       <c r="H40" t="n">
-        <v>91.31333333333338</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>90</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2168,42 +1894,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>92.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>92.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>92.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>228</v>
+        <v>692</v>
       </c>
       <c r="G41" t="n">
-        <v>92.90666666666671</v>
+        <v>-47590.94138750001</v>
       </c>
       <c r="H41" t="n">
-        <v>91.36000000000004</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>90</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,42 +1937,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>93</v>
+        <v>91.5</v>
       </c>
       <c r="C42" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="D42" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="E42" t="n">
-        <v>93</v>
+        <v>91.5</v>
       </c>
       <c r="F42" t="n">
-        <v>2849</v>
+        <v>19616</v>
       </c>
       <c r="G42" t="n">
-        <v>92.91333333333337</v>
+        <v>-27974.94138750001</v>
       </c>
       <c r="H42" t="n">
-        <v>91.40833333333336</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>90</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,42 +1980,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="C43" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="D43" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="E43" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>8537</v>
       </c>
       <c r="G43" t="n">
-        <v>92.92000000000003</v>
+        <v>-27974.94138750001</v>
       </c>
       <c r="H43" t="n">
-        <v>91.45500000000003</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>90</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,42 +2021,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="C44" t="n">
-        <v>93.2</v>
+        <v>91.7</v>
       </c>
       <c r="D44" t="n">
-        <v>93.2</v>
+        <v>91.7</v>
       </c>
       <c r="E44" t="n">
-        <v>93</v>
+        <v>91.7</v>
       </c>
       <c r="F44" t="n">
-        <v>4400</v>
+        <v>800</v>
       </c>
       <c r="G44" t="n">
-        <v>92.94000000000003</v>
+        <v>-27974.94138750001</v>
       </c>
       <c r="H44" t="n">
-        <v>91.50833333333337</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>90</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,42 +2064,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>93.2</v>
+        <v>91.7</v>
       </c>
       <c r="C45" t="n">
-        <v>93.2</v>
+        <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>93.2</v>
+        <v>92</v>
       </c>
       <c r="E45" t="n">
-        <v>93.2</v>
+        <v>91.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>15610</v>
       </c>
       <c r="G45" t="n">
-        <v>92.9466666666667</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H45" t="n">
-        <v>91.56333333333336</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>90</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,42 +2105,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="C46" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="D46" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="E46" t="n">
-        <v>93.09999999999999</v>
+        <v>92</v>
       </c>
       <c r="F46" t="n">
-        <v>14593</v>
+        <v>7600</v>
       </c>
       <c r="G46" t="n">
-        <v>93.0266666666667</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H46" t="n">
-        <v>91.64000000000003</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>90</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2432,42 +2146,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="C47" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="D47" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="E47" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="F47" t="n">
-        <v>32</v>
+        <v>1863.6412</v>
       </c>
       <c r="G47" t="n">
-        <v>93.08000000000006</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H47" t="n">
-        <v>91.70833333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>90</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,42 +2187,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>93.7</v>
+        <v>92</v>
       </c>
       <c r="C48" t="n">
-        <v>93.7</v>
+        <v>92.2</v>
       </c>
       <c r="D48" t="n">
-        <v>93.7</v>
+        <v>92.2</v>
       </c>
       <c r="E48" t="n">
-        <v>93.7</v>
+        <v>92</v>
       </c>
       <c r="F48" t="n">
-        <v>400</v>
+        <v>1023</v>
       </c>
       <c r="G48" t="n">
-        <v>93.12666666666672</v>
+        <v>-11341.94138750001</v>
       </c>
       <c r="H48" t="n">
-        <v>91.78166666666668</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>90</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>92</v>
+      </c>
+      <c r="K48" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,42 +2230,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>93.7</v>
+        <v>92.2</v>
       </c>
       <c r="C49" t="n">
-        <v>93.7</v>
+        <v>92.3</v>
       </c>
       <c r="D49" t="n">
-        <v>93.7</v>
+        <v>92.3</v>
       </c>
       <c r="E49" t="n">
-        <v>93.7</v>
+        <v>92.2</v>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>5939</v>
       </c>
       <c r="G49" t="n">
-        <v>93.17333333333339</v>
+        <v>-5402.94138750001</v>
       </c>
       <c r="H49" t="n">
-        <v>91.855</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>90</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,42 +2271,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>93</v>
+        <v>92.3</v>
       </c>
       <c r="C50" t="n">
         <v>92.7</v>
       </c>
       <c r="D50" t="n">
-        <v>93.7</v>
+        <v>92.7</v>
       </c>
       <c r="E50" t="n">
-        <v>92.7</v>
+        <v>92.3</v>
       </c>
       <c r="F50" t="n">
-        <v>25504</v>
+        <v>11797</v>
       </c>
       <c r="G50" t="n">
-        <v>93.16000000000005</v>
+        <v>6394.05861249999</v>
       </c>
       <c r="H50" t="n">
-        <v>91.91166666666666</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>90</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2611,39 +2317,36 @@
         <v>92.7</v>
       </c>
       <c r="C51" t="n">
-        <v>91.8</v>
+        <v>92.7</v>
       </c>
       <c r="D51" t="n">
         <v>92.7</v>
       </c>
       <c r="E51" t="n">
-        <v>91.8</v>
+        <v>92.7</v>
       </c>
       <c r="F51" t="n">
-        <v>26498.6252</v>
+        <v>252</v>
       </c>
       <c r="G51" t="n">
-        <v>93.10666666666673</v>
+        <v>6394.05861249999</v>
       </c>
       <c r="H51" t="n">
-        <v>91.95333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>90</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,42 +2355,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>91</v>
+        <v>92.7</v>
       </c>
       <c r="C52" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>91.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>90.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F52" t="n">
-        <v>26401.9188</v>
+        <v>11200</v>
       </c>
       <c r="G52" t="n">
-        <v>92.92000000000004</v>
+        <v>17594.05861249999</v>
       </c>
       <c r="H52" t="n">
-        <v>91.96833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>90</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,42 +2396,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>90.3</v>
+        <v>92.8</v>
       </c>
       <c r="C53" t="n">
-        <v>90.3</v>
+        <v>92.8</v>
       </c>
       <c r="D53" t="n">
-        <v>91.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="E53" t="n">
-        <v>90.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F53" t="n">
-        <v>38011.6506</v>
+        <v>4800</v>
       </c>
       <c r="G53" t="n">
-        <v>92.7466666666667</v>
+        <v>12794.05861249999</v>
       </c>
       <c r="H53" t="n">
-        <v>91.98666666666668</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>90</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,42 +2437,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>92.5</v>
+        <v>92.8</v>
       </c>
       <c r="C54" t="n">
-        <v>93.3</v>
+        <v>92.8</v>
       </c>
       <c r="D54" t="n">
-        <v>93.3</v>
+        <v>92.8</v>
       </c>
       <c r="E54" t="n">
-        <v>92.5</v>
+        <v>92.8</v>
       </c>
       <c r="F54" t="n">
-        <v>10406</v>
+        <v>8000</v>
       </c>
       <c r="G54" t="n">
-        <v>92.77333333333335</v>
+        <v>12794.05861249999</v>
       </c>
       <c r="H54" t="n">
-        <v>92.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>90</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,42 +2478,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="C55" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>93</v>
+        <v>92.8</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>2161</v>
       </c>
       <c r="G55" t="n">
-        <v>92.78000000000002</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H55" t="n">
-        <v>92.08833333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>90</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,42 +2519,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C56" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>2808</v>
+        <v>9553</v>
       </c>
       <c r="G56" t="n">
-        <v>92.78000000000002</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H56" t="n">
-        <v>92.13499999999999</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>90</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,42 +2560,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>10659</v>
+        <v>15449</v>
       </c>
       <c r="G57" t="n">
-        <v>92.76666666666668</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H57" t="n">
-        <v>92.16666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>90</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,42 +2601,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>92.59999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>4000</v>
+        <v>3214.4569</v>
       </c>
       <c r="G58" t="n">
-        <v>92.74666666666668</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H58" t="n">
-        <v>92.19666666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>90</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2960,42 +2642,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>92.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>92.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>21</v>
+        <v>6378</v>
       </c>
       <c r="G59" t="n">
-        <v>92.72000000000001</v>
+        <v>21333.05861249999</v>
       </c>
       <c r="H59" t="n">
-        <v>92.24333333333334</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>90</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K59" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,42 +2685,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C60" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D60" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E60" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1128</v>
+        <v>5873</v>
       </c>
       <c r="G60" t="n">
-        <v>92.68000000000001</v>
+        <v>15460.05861249999</v>
       </c>
       <c r="H60" t="n">
-        <v>92.28666666666668</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>90</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3048,42 +2726,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C61" t="n">
-        <v>92.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D61" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E61" t="n">
         <v>92.7</v>
       </c>
-      <c r="E61" t="n">
-        <v>92.5</v>
-      </c>
       <c r="F61" t="n">
-        <v>5185</v>
+        <v>2000</v>
       </c>
       <c r="G61" t="n">
-        <v>92.59333333333332</v>
+        <v>17460.05861249999</v>
       </c>
       <c r="H61" t="n">
-        <v>92.33166666666669</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>90</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3092,42 +2767,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="C62" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="D62" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="E62" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="F62" t="n">
-        <v>800</v>
+        <v>8000</v>
       </c>
       <c r="G62" t="n">
-        <v>92.51999999999998</v>
+        <v>9460.05861249999</v>
       </c>
       <c r="H62" t="n">
-        <v>92.37833333333336</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>90</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,42 +2808,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="C63" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="D63" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="E63" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="F63" t="n">
-        <v>2380</v>
+        <v>3076</v>
       </c>
       <c r="G63" t="n">
-        <v>92.45999999999998</v>
+        <v>9460.05861249999</v>
       </c>
       <c r="H63" t="n">
-        <v>92.43833333333336</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>90</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,7 +2849,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C64" t="n">
         <v>92.90000000000001</v>
@@ -3189,33 +2858,30 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>1345.7792</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>92.40666666666665</v>
+        <v>9360.05861249999</v>
       </c>
       <c r="H64" t="n">
-        <v>92.48000000000003</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>90</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,42 +2890,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>92.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>2000</v>
+        <v>982.5773</v>
       </c>
       <c r="G65" t="n">
-        <v>92.41999999999999</v>
+        <v>8377.481312499989</v>
       </c>
       <c r="H65" t="n">
-        <v>92.52000000000002</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>90</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3280,30 +2943,27 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>2400</v>
+        <v>12400</v>
       </c>
       <c r="G66" t="n">
-        <v>92.49333333333333</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H66" t="n">
-        <v>92.55500000000002</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>90</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,30 +2984,27 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>13205</v>
+        <v>4800</v>
       </c>
       <c r="G67" t="n">
-        <v>92.68000000000001</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H67" t="n">
-        <v>92.58666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>90</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,30 +3025,27 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>4671.8113</v>
+        <v>1200</v>
       </c>
       <c r="G68" t="n">
-        <v>92.85333333333334</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H68" t="n">
-        <v>92.61833333333334</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>90</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,30 +3066,27 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1577</v>
+        <v>29</v>
       </c>
       <c r="G69" t="n">
-        <v>92.82666666666668</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H69" t="n">
-        <v>92.64666666666668</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>90</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,30 +3107,27 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>7241</v>
+        <v>228</v>
       </c>
       <c r="G70" t="n">
-        <v>92.82000000000002</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H70" t="n">
-        <v>92.67166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>90</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,42 +3136,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C71" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D71" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E71" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F71" t="n">
-        <v>14836</v>
+        <v>2849</v>
       </c>
       <c r="G71" t="n">
-        <v>92.82000000000002</v>
+        <v>23626.48131249999</v>
       </c>
       <c r="H71" t="n">
-        <v>92.69333333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>90</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,42 +3177,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C72" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D72" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E72" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>92.8266666666667</v>
+        <v>23626.48131249999</v>
       </c>
       <c r="H72" t="n">
-        <v>92.71499999999997</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>90</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,42 +3218,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C73" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="D73" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="E73" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F73" t="n">
-        <v>18572.092</v>
+        <v>4400</v>
       </c>
       <c r="G73" t="n">
-        <v>92.8666666666667</v>
+        <v>28026.48131249999</v>
       </c>
       <c r="H73" t="n">
-        <v>92.74166666666665</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>90</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>93</v>
+      </c>
+      <c r="K73" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,42 +3261,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="C74" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D74" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E74" t="n">
-        <v>93.40000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G74" t="n">
-        <v>92.90666666666671</v>
+        <v>28026.48131249999</v>
       </c>
       <c r="H74" t="n">
-        <v>92.76999999999998</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>90</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3664,42 +3302,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>7017.3979</v>
+        <v>14593</v>
       </c>
       <c r="G75" t="n">
-        <v>92.96666666666671</v>
+        <v>42619.48131249999</v>
       </c>
       <c r="H75" t="n">
-        <v>92.79999999999998</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>90</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,42 +3343,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>4328.9766</v>
+        <v>32</v>
       </c>
       <c r="G76" t="n">
-        <v>93.03333333333337</v>
+        <v>42619.48131249999</v>
       </c>
       <c r="H76" t="n">
-        <v>92.82666666666665</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>90</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,42 +3384,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C77" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="D77" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E77" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="F77" t="n">
-        <v>5013.4445</v>
+        <v>400</v>
       </c>
       <c r="G77" t="n">
-        <v>93.08666666666672</v>
+        <v>42219.48131249999</v>
       </c>
       <c r="H77" t="n">
-        <v>92.85333333333332</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>90</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3805,33 +3434,30 @@
         <v>93.7</v>
       </c>
       <c r="E78" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="F78" t="n">
-        <v>22415.9336</v>
+        <v>800</v>
       </c>
       <c r="G78" t="n">
-        <v>93.14666666666672</v>
+        <v>42219.48131249999</v>
       </c>
       <c r="H78" t="n">
-        <v>92.88166666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>90</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3840,42 +3466,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>93.7</v>
+        <v>93</v>
       </c>
       <c r="C79" t="n">
-        <v>93.7</v>
+        <v>92.7</v>
       </c>
       <c r="D79" t="n">
         <v>93.7</v>
       </c>
       <c r="E79" t="n">
-        <v>93.7</v>
+        <v>92.7</v>
       </c>
       <c r="F79" t="n">
-        <v>8759</v>
+        <v>25504</v>
       </c>
       <c r="G79" t="n">
-        <v>93.20000000000005</v>
+        <v>16715.48131249999</v>
       </c>
       <c r="H79" t="n">
-        <v>92.90666666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>90</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,42 +3507,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>93.7</v>
+        <v>92.7</v>
       </c>
       <c r="C80" t="n">
-        <v>93.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="D80" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E80" t="n">
-        <v>93.7</v>
+        <v>91.8</v>
       </c>
       <c r="F80" t="n">
-        <v>11973.0075</v>
+        <v>26498.6252</v>
       </c>
       <c r="G80" t="n">
-        <v>93.26666666666671</v>
+        <v>-9783.143887500006</v>
       </c>
       <c r="H80" t="n">
-        <v>92.93333333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>90</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3928,42 +3548,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>93.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="C81" t="n">
-        <v>93.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>93.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="E81" t="n">
-        <v>93.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1454.8523</v>
+        <v>26401.9188</v>
       </c>
       <c r="G81" t="n">
-        <v>93.33333333333339</v>
+        <v>-36185.0626875</v>
       </c>
       <c r="H81" t="n">
-        <v>92.95333333333332</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>90</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,42 +3589,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>93.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="C82" t="n">
-        <v>93.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D82" t="n">
-        <v>93.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>93.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>2198.935</v>
+        <v>38011.6506</v>
       </c>
       <c r="G82" t="n">
-        <v>93.40000000000005</v>
+        <v>1826.587912499999</v>
       </c>
       <c r="H82" t="n">
-        <v>92.97333333333331</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>90</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,42 +3630,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>93.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="C83" t="n">
-        <v>93.90000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="D83" t="n">
-        <v>93.90000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="E83" t="n">
-        <v>93.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="F83" t="n">
-        <v>5702.3216</v>
+        <v>10406</v>
       </c>
       <c r="G83" t="n">
-        <v>93.46666666666671</v>
+        <v>12232.5879125</v>
       </c>
       <c r="H83" t="n">
-        <v>92.98999999999998</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>90</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,42 +3673,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="C84" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="D84" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E84" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="F84" t="n">
-        <v>2400</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>93.5266666666667</v>
+        <v>12222.5879125</v>
       </c>
       <c r="H84" t="n">
-        <v>93.00666666666665</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>90</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="K84" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,42 +3716,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="C85" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E85" t="n">
-        <v>93.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>3600</v>
+        <v>2808</v>
       </c>
       <c r="G85" t="n">
-        <v>93.59333333333338</v>
+        <v>9414.587912499999</v>
       </c>
       <c r="H85" t="n">
-        <v>93.02499999999996</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>90</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>93</v>
+      </c>
+      <c r="K85" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,42 +3759,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F86" t="n">
-        <v>3200</v>
+        <v>10659</v>
       </c>
       <c r="G86" t="n">
-        <v>93.66000000000004</v>
+        <v>-1244.412087500001</v>
       </c>
       <c r="H86" t="n">
-        <v>93.04166666666664</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>90</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K86" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,42 +3802,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="C87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="G87" t="n">
-        <v>93.7266666666667</v>
+        <v>-5244.412087500001</v>
       </c>
       <c r="H87" t="n">
-        <v>93.05833333333331</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>90</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,42 +3843,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C88" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D88" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E88" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F88" t="n">
-        <v>5090</v>
+        <v>21</v>
       </c>
       <c r="G88" t="n">
-        <v>93.76666666666671</v>
+        <v>-5223.412087500001</v>
       </c>
       <c r="H88" t="n">
-        <v>93.07499999999997</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>90</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,42 +3886,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>31</v>
+        <v>1128</v>
       </c>
       <c r="G89" t="n">
-        <v>93.80000000000004</v>
+        <v>-6351.412087500001</v>
       </c>
       <c r="H89" t="n">
-        <v>93.09166666666664</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>90</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="K89" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,42 +3929,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E90" t="n">
-        <v>93.90000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="F90" t="n">
-        <v>716</v>
+        <v>5185</v>
       </c>
       <c r="G90" t="n">
-        <v>93.82666666666672</v>
+        <v>-6351.412087500001</v>
       </c>
       <c r="H90" t="n">
-        <v>93.10499999999996</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>90</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="K90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,42 +3972,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C91" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D91" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E91" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F91" t="n">
         <v>800</v>
       </c>
       <c r="G91" t="n">
-        <v>93.84666666666674</v>
+        <v>-5551.412087500001</v>
       </c>
       <c r="H91" t="n">
-        <v>93.12499999999996</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>90</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="K91" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,42 +4015,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C92" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D92" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E92" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F92" t="n">
-        <v>1600</v>
+        <v>2380</v>
       </c>
       <c r="G92" t="n">
-        <v>93.86666666666675</v>
+        <v>-5551.412087500001</v>
       </c>
       <c r="H92" t="n">
-        <v>93.13833333333328</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>90</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="K92" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,42 +4058,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C93" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1600</v>
+        <v>1345.7792</v>
       </c>
       <c r="G93" t="n">
-        <v>93.88000000000008</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H93" t="n">
-        <v>93.15333333333326</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>90</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,42 +4099,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G94" t="n">
-        <v>93.89333333333342</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H94" t="n">
-        <v>93.16833333333327</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>90</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K94" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,42 +4142,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>93.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="G95" t="n">
-        <v>93.89333333333342</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H95" t="n">
-        <v>93.18499999999993</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>90</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4588,42 +4183,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>17867</v>
+        <v>13205</v>
       </c>
       <c r="G96" t="n">
-        <v>93.89333333333342</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H96" t="n">
-        <v>93.20666666666658</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>90</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K96" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,42 +4226,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>4905</v>
+        <v>4671.8113</v>
       </c>
       <c r="G97" t="n">
-        <v>93.89333333333342</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H97" t="n">
-        <v>93.22333333333326</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>90</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K97" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,42 +4269,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>800</v>
+        <v>1577</v>
       </c>
       <c r="G98" t="n">
-        <v>93.89333333333342</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H98" t="n">
-        <v>93.23999999999992</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>90</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K98" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,42 +4312,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>400</v>
+        <v>7241</v>
       </c>
       <c r="G99" t="n">
-        <v>93.90000000000009</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H99" t="n">
-        <v>93.25666666666659</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>90</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K99" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4764,42 +4355,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>9727</v>
+        <v>14836</v>
       </c>
       <c r="G100" t="n">
-        <v>93.90000000000009</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H100" t="n">
-        <v>93.27333333333326</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>90</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K100" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,42 +4398,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>203</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>93.90000000000009</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H101" t="n">
-        <v>93.28999999999992</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>90</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K101" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4852,42 +4441,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>93</v>
+        <v>93.3</v>
       </c>
       <c r="D102" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="E102" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>24951.9032</v>
+        <v>18572.092</v>
       </c>
       <c r="G102" t="n">
-        <v>93.84000000000009</v>
+        <v>14366.4591125</v>
       </c>
       <c r="H102" t="n">
-        <v>93.28999999999992</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>90</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,42 +4482,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>7200</v>
+        <v>800</v>
       </c>
       <c r="G103" t="n">
-        <v>93.84000000000009</v>
+        <v>15166.4591125</v>
       </c>
       <c r="H103" t="n">
-        <v>93.30499999999991</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>90</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,42 +4523,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>93.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="D104" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="E104" t="n">
-        <v>93.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>1753.8828</v>
+        <v>7017.3979</v>
       </c>
       <c r="G104" t="n">
-        <v>93.84000000000009</v>
+        <v>22183.8570125</v>
       </c>
       <c r="H104" t="n">
-        <v>93.31666666666658</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>90</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,42 +4564,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="C105" t="n">
-        <v>93.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>93.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>93.90000000000001</v>
+        <v>93.5</v>
       </c>
       <c r="F105" t="n">
-        <v>3898</v>
+        <v>4328.9766</v>
       </c>
       <c r="G105" t="n">
-        <v>93.84000000000009</v>
+        <v>26512.8336125</v>
       </c>
       <c r="H105" t="n">
-        <v>93.32833333333323</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>90</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5028,42 +4605,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>538.2356</v>
+        <v>5013.4445</v>
       </c>
       <c r="G106" t="n">
-        <v>93.78666666666673</v>
+        <v>26512.8336125</v>
       </c>
       <c r="H106" t="n">
-        <v>93.31499999999991</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>90</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,42 +4646,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="C107" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D107" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E107" t="n">
-        <v>93</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>37043.566</v>
+        <v>22415.9336</v>
       </c>
       <c r="G107" t="n">
-        <v>93.78666666666673</v>
+        <v>48928.7672125</v>
       </c>
       <c r="H107" t="n">
-        <v>93.31499999999991</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>90</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5116,42 +4687,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C108" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D108" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E108" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F108" t="n">
-        <v>117</v>
+        <v>8759</v>
       </c>
       <c r="G108" t="n">
-        <v>93.78666666666673</v>
+        <v>48928.7672125</v>
       </c>
       <c r="H108" t="n">
-        <v>93.31833333333324</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>90</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5160,7 +4728,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C109" t="n">
         <v>93.90000000000001</v>
@@ -5169,33 +4737,30 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F109" t="n">
-        <v>2797</v>
+        <v>11973.0075</v>
       </c>
       <c r="G109" t="n">
-        <v>93.78666666666673</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H109" t="n">
-        <v>93.32166666666657</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>90</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,39 +4772,36 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>92.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D110" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>92.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>7910</v>
+        <v>1454.8523</v>
       </c>
       <c r="G110" t="n">
-        <v>93.68666666666674</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H110" t="n">
-        <v>93.31666666666658</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>90</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5248,7 +4810,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C111" t="n">
         <v>93.90000000000001</v>
@@ -5257,33 +4819,30 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>800</v>
+        <v>2198.935</v>
       </c>
       <c r="G111" t="n">
-        <v>93.68666666666674</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H111" t="n">
-        <v>93.35166666666656</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>90</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,30 +4863,27 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>667.4760383386581</v>
+        <v>5702.3216</v>
       </c>
       <c r="G112" t="n">
-        <v>93.68666666666674</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H112" t="n">
-        <v>93.41499999999989</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>90</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,42 +4892,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C113" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="D113" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F113" t="n">
-        <v>600.4366347177848</v>
+        <v>2400</v>
       </c>
       <c r="G113" t="n">
-        <v>93.68666666666674</v>
+        <v>58501.7747125</v>
       </c>
       <c r="H113" t="n">
-        <v>93.47499999999988</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>90</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,7 +4933,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C114" t="n">
         <v>93.90000000000001</v>
@@ -5389,33 +4942,30 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F114" t="n">
-        <v>417.7955</v>
+        <v>3600</v>
       </c>
       <c r="G114" t="n">
-        <v>93.68666666666674</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H114" t="n">
-        <v>93.48499999999987</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>90</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,30 +4986,27 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="G115" t="n">
-        <v>93.68666666666674</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H115" t="n">
-        <v>93.49999999999986</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>90</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5480,30 +5027,27 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>6400</v>
+        <v>2800</v>
       </c>
       <c r="G116" t="n">
-        <v>93.68666666666674</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H116" t="n">
-        <v>93.51666666666652</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>90</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,30 +5068,27 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>5200</v>
+        <v>5090</v>
       </c>
       <c r="G117" t="n">
-        <v>93.74666666666674</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H117" t="n">
-        <v>93.53499999999985</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>90</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,33 +5106,30 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>92.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>7504.2375</v>
+        <v>31</v>
       </c>
       <c r="G118" t="n">
-        <v>93.74666666666674</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H118" t="n">
-        <v>93.55499999999985</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>90</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,42 +5138,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>400</v>
+        <v>716</v>
       </c>
       <c r="G119" t="n">
-        <v>93.74000000000007</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H119" t="n">
-        <v>93.57166666666652</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>90</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,42 +5179,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>93.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>6800</v>
+        <v>800</v>
       </c>
       <c r="G120" t="n">
-        <v>93.74666666666673</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H120" t="n">
-        <v>93.59499999999984</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>90</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5688,42 +5220,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>94.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>94.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="G121" t="n">
-        <v>93.86666666666675</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H121" t="n">
-        <v>93.63333333333317</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>90</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,42 +5261,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>94.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>94.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F122" t="n">
         <v>1600</v>
       </c>
       <c r="G122" t="n">
-        <v>93.94000000000007</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H122" t="n">
-        <v>93.66999999999983</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>90</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5776,42 +5302,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>95</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G123" t="n">
-        <v>94.04666666666672</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H123" t="n">
-        <v>93.71499999999983</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>90</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,42 +5343,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>95.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>95.5</v>
+        <v>93.8</v>
       </c>
       <c r="F124" t="n">
-        <v>1650</v>
+        <v>2800</v>
       </c>
       <c r="G124" t="n">
-        <v>94.15333333333339</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H124" t="n">
-        <v>93.75833333333317</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>90</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5864,42 +5384,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>95.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>99</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>99</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>95.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>95748.76720919192</v>
+        <v>17867</v>
       </c>
       <c r="G125" t="n">
-        <v>94.59333333333339</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H125" t="n">
-        <v>93.85999999999984</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>90</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,43 +5425,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>98.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>99</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>99</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>98.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>3314.0707</v>
+        <v>4905</v>
       </c>
       <c r="G126" t="n">
-        <v>94.93333333333338</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H126" t="n">
-        <v>93.96166666666652</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>90</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
-        <v>1.095</v>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5952,36 +5466,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>96.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>96.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>1888.28</v>
+        <v>800</v>
       </c>
       <c r="G127" t="n">
-        <v>95.1466666666667</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H127" t="n">
-        <v>94.03166666666652</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,36 +5507,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>981.6154</v>
+        <v>400</v>
       </c>
       <c r="G128" t="n">
-        <v>95.36000000000003</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H128" t="n">
-        <v>94.10166666666653</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6028,36 +5548,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>635</v>
+        <v>9727</v>
       </c>
       <c r="G129" t="n">
-        <v>95.57333333333334</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H129" t="n">
-        <v>94.17166666666655</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,36 +5589,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>97.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>1409.1366</v>
+        <v>203</v>
       </c>
       <c r="G130" t="n">
-        <v>95.78666666666666</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H130" t="n">
-        <v>94.24166666666656</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6104,36 +5630,1238 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>93</v>
+      </c>
+      <c r="D131" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>93</v>
+      </c>
+      <c r="F131" t="n">
+        <v>24951.9032</v>
+      </c>
+      <c r="G131" t="n">
+        <v>37149.87151249999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>44349.87151249999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>93</v>
+      </c>
+      <c r="K132" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1753.8828</v>
+      </c>
+      <c r="G133" t="n">
+        <v>44349.87151249999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K133" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3898</v>
+      </c>
+      <c r="G134" t="n">
+        <v>44349.87151249999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K134" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>538.2356</v>
+      </c>
+      <c r="G135" t="n">
+        <v>43811.63591249999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K135" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>93</v>
+      </c>
+      <c r="C136" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>93</v>
+      </c>
+      <c r="F136" t="n">
+        <v>37043.566</v>
+      </c>
+      <c r="G136" t="n">
+        <v>80855.20191249999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="K136" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>117</v>
+      </c>
+      <c r="G137" t="n">
+        <v>80855.20191249999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K137" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2797</v>
+      </c>
+      <c r="G138" t="n">
+        <v>80855.20191249999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K138" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>7910</v>
+      </c>
+      <c r="G139" t="n">
+        <v>72945.20191249999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K139" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>800</v>
+      </c>
+      <c r="G140" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="K140" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>667.4760383386581</v>
+      </c>
+      <c r="G141" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K141" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>600.4366347177848</v>
+      </c>
+      <c r="G142" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K142" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F143" t="n">
+        <v>417.7955</v>
+      </c>
+      <c r="G143" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K143" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G144" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K144" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G145" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K145" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K146" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7504.2375</v>
+      </c>
+      <c r="G147" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K147" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>400</v>
+      </c>
+      <c r="G148" t="n">
+        <v>73345.20191249999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K148" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>94</v>
+      </c>
+      <c r="D149" t="n">
+        <v>94</v>
+      </c>
+      <c r="E149" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G149" t="n">
+        <v>80145.20191249999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="K149" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>94</v>
+      </c>
+      <c r="C150" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>94</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G150" t="n">
+        <v>84945.20191249999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>94</v>
+      </c>
+      <c r="K150" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="C151" t="n">
+        <v>95</v>
+      </c>
+      <c r="D151" t="n">
+        <v>95</v>
+      </c>
+      <c r="E151" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G151" t="n">
+        <v>86545.20191249999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="K151" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>95</v>
+      </c>
+      <c r="C152" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>95</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G152" t="n">
+        <v>89745.20191249999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C153" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G153" t="n">
+        <v>89745.20191249999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C154" t="n">
+        <v>99</v>
+      </c>
+      <c r="D154" t="n">
+        <v>99</v>
+      </c>
+      <c r="E154" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>95748.76720919192</v>
+      </c>
+      <c r="G154" t="n">
+        <v>185493.9691216919</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>99</v>
+      </c>
+      <c r="D155" t="n">
+        <v>99</v>
+      </c>
+      <c r="E155" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3314.0707</v>
+      </c>
+      <c r="G155" t="n">
+        <v>185493.9691216919</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1.104865470852018</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1888.28</v>
+      </c>
+      <c r="G156" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E157" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F157" t="n">
+        <v>981.6154</v>
+      </c>
+      <c r="G157" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>635</v>
+      </c>
+      <c r="G158" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D159" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1409.1366</v>
+      </c>
+      <c r="G159" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
         <v>96.7</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C160" t="n">
         <v>96.7</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D160" t="n">
         <v>96.7</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E160" t="n">
         <v>96.7</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F160" t="n">
         <v>362.304</v>
       </c>
-      <c r="G131" t="n">
-        <v>95.97333333333333</v>
-      </c>
-      <c r="H131" t="n">
-        <v>94.30499999999989</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="G160" t="n">
+        <v>183243.3851216919</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="C2" t="n">
-        <v>89.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="D2" t="n">
-        <v>89.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="E2" t="n">
-        <v>89.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G2" t="n">
-        <v>-32583.23488750001</v>
+        <v>-27974.94138750001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,308 +467,365 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>90.3</v>
+        <v>91.7</v>
       </c>
       <c r="C3" t="n">
-        <v>90.3</v>
+        <v>92</v>
       </c>
       <c r="D3" t="n">
-        <v>90.3</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
-        <v>90.3</v>
+        <v>91.7</v>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>15610</v>
       </c>
       <c r="G3" t="n">
-        <v>-32572.23488750001</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>91.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>90.2</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>90.2</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>90.2</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>90.2</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>25.3124</v>
+        <v>7600</v>
       </c>
       <c r="G4" t="n">
-        <v>-32597.54728750001</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>92</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>89.8</v>
+        <v>92</v>
       </c>
       <c r="C5" t="n">
-        <v>89.8</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
-        <v>89.8</v>
+        <v>92</v>
       </c>
       <c r="E5" t="n">
-        <v>89.8</v>
+        <v>92</v>
       </c>
       <c r="F5" t="n">
-        <v>508.6821</v>
+        <v>1863.6412</v>
       </c>
       <c r="G5" t="n">
-        <v>-33106.22938750001</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>92</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>89.8</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>89.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="D6" t="n">
-        <v>89.8</v>
+        <v>92.2</v>
       </c>
       <c r="E6" t="n">
-        <v>89.59999999999999</v>
+        <v>92</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>1023</v>
       </c>
       <c r="G6" t="n">
-        <v>-43106.22938750001</v>
+        <v>-11341.94138750001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>92</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="C7" t="n">
-        <v>89.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="D7" t="n">
-        <v>89.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="E7" t="n">
-        <v>89.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="F7" t="n">
-        <v>7000</v>
+        <v>5939</v>
       </c>
       <c r="G7" t="n">
-        <v>-43106.22938750001</v>
+        <v>-5402.94138750001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>92.2</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="C8" t="n">
-        <v>89.5</v>
+        <v>92.7</v>
       </c>
       <c r="D8" t="n">
-        <v>89.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E8" t="n">
-        <v>89.5</v>
+        <v>92.3</v>
       </c>
       <c r="F8" t="n">
-        <v>5453.4126</v>
+        <v>11797</v>
       </c>
       <c r="G8" t="n">
-        <v>-48559.64198750001</v>
+        <v>6394.05861249999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>92.3</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C9" t="n">
-        <v>90.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D9" t="n">
-        <v>90.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E9" t="n">
-        <v>90.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="G9" t="n">
-        <v>-48549.64198750001</v>
+        <v>6394.05861249999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>92.7</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C10" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>90.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1074.1134</v>
+        <v>11200</v>
       </c>
       <c r="G10" t="n">
-        <v>-48549.64198750001</v>
+        <v>17594.05861249999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>92.7</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>90.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="C11" t="n">
-        <v>90.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="D11" t="n">
-        <v>90.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="E11" t="n">
-        <v>90.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F11" t="n">
-        <v>3551.9242</v>
+        <v>4800</v>
       </c>
       <c r="G11" t="n">
-        <v>-48549.64198750001</v>
+        <v>12794.05861249999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,32 +835,37 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90.2</v>
+        <v>92.8</v>
       </c>
       <c r="C12" t="n">
-        <v>90.2</v>
+        <v>92.8</v>
       </c>
       <c r="D12" t="n">
-        <v>90.2</v>
+        <v>92.8</v>
       </c>
       <c r="E12" t="n">
-        <v>90.2</v>
+        <v>92.8</v>
       </c>
       <c r="F12" t="n">
-        <v>25.3124</v>
+        <v>8000</v>
       </c>
       <c r="G12" t="n">
-        <v>-48524.32958750001</v>
+        <v>12794.05861249999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,32 +875,37 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>92.8</v>
       </c>
       <c r="C13" t="n">
-        <v>90</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>90</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>92.8</v>
       </c>
       <c r="F13" t="n">
-        <v>110</v>
+        <v>2161</v>
       </c>
       <c r="G13" t="n">
-        <v>-48634.32958750001</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,32 +915,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>89.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>89.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>89.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>89.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>2929.0024</v>
+        <v>9553</v>
       </c>
       <c r="G14" t="n">
-        <v>-51563.33198750001</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,67 +955,79 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>89.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>89.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>89.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>89.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>12688.5556</v>
+        <v>15449</v>
       </c>
       <c r="G15" t="n">
-        <v>-64251.88758750001</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>92.90000000000001</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>89.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>89.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>89.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>89.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>3214.4569</v>
       </c>
       <c r="G16" t="n">
-        <v>-64241.88758750001</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,32 +1037,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>89.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>89.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>89.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>89.3</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>10258.5742</v>
+        <v>6378</v>
       </c>
       <c r="G17" t="n">
-        <v>-74500.46178750001</v>
+        <v>21333.05861249999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1077,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>89.3</v>
+        <v>92.7</v>
       </c>
       <c r="C18" t="n">
-        <v>89.3</v>
+        <v>92.7</v>
       </c>
       <c r="D18" t="n">
-        <v>89.3</v>
+        <v>92.7</v>
       </c>
       <c r="E18" t="n">
-        <v>89.3</v>
+        <v>92.7</v>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>5873</v>
       </c>
       <c r="G18" t="n">
-        <v>-74500.46178750001</v>
+        <v>15460.05861249999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,32 +1117,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>89.3</v>
+        <v>92.7</v>
       </c>
       <c r="C19" t="n">
-        <v>89.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>89.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>89.3</v>
+        <v>92.7</v>
       </c>
       <c r="F19" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="G19" t="n">
-        <v>-74500.46178750001</v>
+        <v>17460.05861249999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1157,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>89.3</v>
+        <v>93</v>
       </c>
       <c r="C20" t="n">
-        <v>89.3</v>
+        <v>93</v>
       </c>
       <c r="D20" t="n">
-        <v>89.3</v>
+        <v>93</v>
       </c>
       <c r="E20" t="n">
-        <v>89.3</v>
+        <v>93</v>
       </c>
       <c r="F20" t="n">
-        <v>930.8891</v>
+        <v>8000</v>
       </c>
       <c r="G20" t="n">
-        <v>-74500.46178750001</v>
+        <v>9460.05861249999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1197,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>89.8</v>
+        <v>93</v>
       </c>
       <c r="C21" t="n">
-        <v>89.2</v>
+        <v>93</v>
       </c>
       <c r="D21" t="n">
-        <v>89.8</v>
+        <v>93</v>
       </c>
       <c r="E21" t="n">
-        <v>89.2</v>
+        <v>93</v>
       </c>
       <c r="F21" t="n">
-        <v>542.8842</v>
+        <v>3076</v>
       </c>
       <c r="G21" t="n">
-        <v>-75043.34598750001</v>
+        <v>9460.05861249999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,239 +1237,237 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>89.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>89.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>89.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>89.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>3434.7007</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>-75043.34598750001</v>
+        <v>9360.05861249999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>89.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>90.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>90.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>89.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>5144</v>
+        <v>982.5773</v>
       </c>
       <c r="G23" t="n">
-        <v>-69899.34598750001</v>
+        <v>8377.481312499989</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>12957</v>
+        <v>12400</v>
       </c>
       <c r="G24" t="n">
-        <v>-69899.34598750001</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="K24" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>90.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>7025.0354</v>
+        <v>4800</v>
       </c>
       <c r="G25" t="n">
-        <v>-69899.34598750001</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>125.6375</v>
+        <v>1200</v>
       </c>
       <c r="G26" t="n">
-        <v>-69773.70848750001</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>90.09999999999999</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>90.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>-69773.70848750001</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1364,39 +1476,38 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>90.09999999999999</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>90</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>90</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>90</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>90</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>228</v>
       </c>
       <c r="G28" t="n">
-        <v>-70573.70848750001</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1406,32 +1517,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E29" t="n">
-        <v>89.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="F29" t="n">
-        <v>41510.7337</v>
+        <v>2849</v>
       </c>
       <c r="G29" t="n">
-        <v>-70573.70848750001</v>
+        <v>23626.48131249999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1441,137 +1557,163 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C30" t="n">
-        <v>89.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D30" t="n">
-        <v>89.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E30" t="n">
-        <v>89.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-70588.70848750001</v>
+        <v>23626.48131249999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>93</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C31" t="n">
-        <v>90</v>
+        <v>93.2</v>
       </c>
       <c r="D31" t="n">
-        <v>90</v>
+        <v>93.2</v>
       </c>
       <c r="E31" t="n">
-        <v>89.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F31" t="n">
-        <v>800</v>
+        <v>4400</v>
       </c>
       <c r="G31" t="n">
-        <v>-69788.70848750001</v>
+        <v>28026.48131249999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>93</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.2</v>
+        <v>93.2</v>
       </c>
       <c r="C32" t="n">
-        <v>89.2</v>
+        <v>93.2</v>
       </c>
       <c r="D32" t="n">
-        <v>89.2</v>
+        <v>93.2</v>
       </c>
       <c r="E32" t="n">
-        <v>89.2</v>
+        <v>93.2</v>
       </c>
       <c r="F32" t="n">
-        <v>2886.443</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="n">
-        <v>-72675.15148750001</v>
+        <v>28026.48131249999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>93.2</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>90.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>90.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>90.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>90.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>540.8276</v>
+        <v>14593</v>
       </c>
       <c r="G33" t="n">
-        <v>-72134.32388750001</v>
+        <v>42619.48131249999</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1580,37 +1722,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>93.2</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>90.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>90.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>90.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>90.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>3613.3778</v>
+        <v>32</v>
       </c>
       <c r="G34" t="n">
-        <v>-68520.94608750001</v>
+        <v>42619.48131249999</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1619,41 +1764,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>89.2</v>
-      </c>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C35" t="n">
-        <v>90.8</v>
+        <v>93.7</v>
       </c>
       <c r="D35" t="n">
-        <v>90.8</v>
+        <v>93.7</v>
       </c>
       <c r="E35" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="F35" t="n">
-        <v>4413.0047</v>
+        <v>400</v>
       </c>
       <c r="G35" t="n">
-        <v>-64107.94138750001</v>
+        <v>42219.48131249999</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1662,41 +1806,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>89.2</v>
-      </c>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>90.8</v>
+        <v>93.7</v>
       </c>
       <c r="C36" t="n">
-        <v>91</v>
+        <v>93.7</v>
       </c>
       <c r="D36" t="n">
-        <v>91</v>
+        <v>93.7</v>
       </c>
       <c r="E36" t="n">
-        <v>90.8</v>
+        <v>93.7</v>
       </c>
       <c r="F36" t="n">
-        <v>8335</v>
+        <v>800</v>
       </c>
       <c r="G36" t="n">
-        <v>-55772.94138750001</v>
+        <v>42219.48131249999</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1705,54 +1848,49 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="K36" t="n">
-        <v>89.2</v>
-      </c>
+        <v>93.7</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" t="n">
-        <v>91</v>
+        <v>92.7</v>
       </c>
       <c r="D37" t="n">
-        <v>91</v>
+        <v>93.7</v>
       </c>
       <c r="E37" t="n">
-        <v>91</v>
+        <v>92.7</v>
       </c>
       <c r="F37" t="n">
-        <v>2400</v>
+        <v>25504</v>
       </c>
       <c r="G37" t="n">
-        <v>-55772.94138750001</v>
+        <v>16715.48131249999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>91</v>
-      </c>
-      <c r="K37" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1761,28 +1899,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>91</v>
+        <v>92.7</v>
       </c>
       <c r="C38" t="n">
-        <v>91.2</v>
+        <v>91.8</v>
       </c>
       <c r="D38" t="n">
-        <v>91.2</v>
+        <v>92.7</v>
       </c>
       <c r="E38" t="n">
-        <v>91</v>
+        <v>91.8</v>
       </c>
       <c r="F38" t="n">
-        <v>5763</v>
+        <v>26498.6252</v>
       </c>
       <c r="G38" t="n">
-        <v>-50009.94138750001</v>
+        <v>-9783.143887500006</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1791,11 +1930,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91</v>
-      </c>
-      <c r="K38" t="n">
-        <v>89.2</v>
-      </c>
+        <v>92.7</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1804,28 +1941,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="C39" t="n">
-        <v>91.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>91.40000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="E39" t="n">
-        <v>91.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>1995</v>
+        <v>26401.9188</v>
       </c>
       <c r="G39" t="n">
-        <v>-48014.94138750001</v>
+        <v>-36185.0626875</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1834,11 +1972,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="K39" t="n">
-        <v>89.2</v>
-      </c>
+        <v>91.8</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1847,39 +1983,40 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>91.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="C40" t="n">
-        <v>91.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="D40" t="n">
-        <v>91.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>91.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>424</v>
+        <v>38011.6506</v>
       </c>
       <c r="G40" t="n">
-        <v>-47590.94138750001</v>
+        <v>1826.587912499999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J40" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1888,28 +2025,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>91.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="C41" t="n">
-        <v>91.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="D41" t="n">
-        <v>91.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="E41" t="n">
-        <v>91.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="F41" t="n">
-        <v>692</v>
+        <v>10406</v>
       </c>
       <c r="G41" t="n">
-        <v>-47590.94138750001</v>
+        <v>12232.5879125</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1918,11 +2056,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>89.2</v>
-      </c>
+        <v>90.3</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1931,28 +2067,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91.5</v>
+        <v>93</v>
       </c>
       <c r="C42" t="n">
-        <v>91.7</v>
+        <v>93</v>
       </c>
       <c r="D42" t="n">
-        <v>91.7</v>
+        <v>93</v>
       </c>
       <c r="E42" t="n">
-        <v>91.5</v>
+        <v>93</v>
       </c>
       <c r="F42" t="n">
-        <v>19616</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-27974.94138750001</v>
+        <v>12222.5879125</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1961,11 +2098,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>89.2</v>
-      </c>
+        <v>93.3</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1974,39 +2109,40 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91.7</v>
+        <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>91.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>91.7</v>
+        <v>93</v>
       </c>
       <c r="E43" t="n">
-        <v>91.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>8537</v>
+        <v>2808</v>
       </c>
       <c r="G43" t="n">
-        <v>-27974.94138750001</v>
+        <v>9414.587912499999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J43" t="n">
+        <v>93</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2015,41 +2151,38 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>91.7</v>
+        <v>92.8</v>
       </c>
       <c r="C44" t="n">
-        <v>91.7</v>
+        <v>92.8</v>
       </c>
       <c r="D44" t="n">
-        <v>91.7</v>
+        <v>92.8</v>
       </c>
       <c r="E44" t="n">
-        <v>91.7</v>
+        <v>92.8</v>
       </c>
       <c r="F44" t="n">
-        <v>800</v>
+        <v>10659</v>
       </c>
       <c r="G44" t="n">
-        <v>-27974.94138750001</v>
+        <v>-1244.412087500001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2058,28 +2191,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>91.7</v>
+        <v>92.7</v>
       </c>
       <c r="C45" t="n">
-        <v>92</v>
+        <v>92.7</v>
       </c>
       <c r="D45" t="n">
-        <v>92</v>
+        <v>92.8</v>
       </c>
       <c r="E45" t="n">
-        <v>91.7</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>15610</v>
+        <v>4000</v>
       </c>
       <c r="G45" t="n">
-        <v>-12364.94138750001</v>
+        <v>-5244.412087500001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2088,9 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2099,28 +2231,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92</v>
+        <v>92.8</v>
       </c>
       <c r="C46" t="n">
-        <v>92</v>
+        <v>92.8</v>
       </c>
       <c r="D46" t="n">
-        <v>92</v>
+        <v>92.8</v>
       </c>
       <c r="E46" t="n">
-        <v>92</v>
+        <v>92.8</v>
       </c>
       <c r="F46" t="n">
-        <v>7600</v>
+        <v>21</v>
       </c>
       <c r="G46" t="n">
-        <v>-12364.94138750001</v>
+        <v>-5223.412087500001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2129,9 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2140,39 +2271,40 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>92</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>92</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>92</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>92</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>1863.6412</v>
+        <v>1128</v>
       </c>
       <c r="G47" t="n">
-        <v>-12364.94138750001</v>
+        <v>-6351.412087500001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J47" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2181,28 +2313,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>92</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>92.2</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>92.2</v>
+        <v>92.7</v>
       </c>
       <c r="E48" t="n">
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1023</v>
+        <v>5185</v>
       </c>
       <c r="G48" t="n">
-        <v>-11341.94138750001</v>
+        <v>-6351.412087500001</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2211,11 +2344,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>92</v>
-      </c>
-      <c r="K48" t="n">
-        <v>89.2</v>
-      </c>
+        <v>92.59999999999999</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,39 +2355,40 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>92.2</v>
+        <v>92.8</v>
       </c>
       <c r="C49" t="n">
-        <v>92.3</v>
+        <v>92.8</v>
       </c>
       <c r="D49" t="n">
-        <v>92.3</v>
+        <v>92.8</v>
       </c>
       <c r="E49" t="n">
-        <v>92.2</v>
+        <v>92.8</v>
       </c>
       <c r="F49" t="n">
-        <v>5939</v>
+        <v>800</v>
       </c>
       <c r="G49" t="n">
-        <v>-5402.94138750001</v>
+        <v>-5551.412087500001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J49" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2265,28 +2397,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>92.3</v>
+        <v>92.8</v>
       </c>
       <c r="C50" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="D50" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="E50" t="n">
-        <v>92.3</v>
+        <v>92.8</v>
       </c>
       <c r="F50" t="n">
-        <v>11797</v>
+        <v>2380</v>
       </c>
       <c r="G50" t="n">
-        <v>6394.05861249999</v>
+        <v>-5551.412087500001</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2295,11 +2428,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>89.2</v>
-      </c>
+        <v>92.8</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2308,39 +2439,40 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="C51" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="F51" t="n">
-        <v>252</v>
+        <v>1345.7792</v>
       </c>
       <c r="G51" t="n">
-        <v>6394.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J51" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2349,13 +2481,14 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>92.90000000000001</v>
@@ -2364,13 +2497,13 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>11200</v>
+        <v>2000</v>
       </c>
       <c r="G52" t="n">
-        <v>17594.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2379,9 +2512,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2390,28 +2521,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="G53" t="n">
-        <v>12794.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2420,9 +2552,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2431,28 +2561,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>8000</v>
+        <v>13205</v>
       </c>
       <c r="G54" t="n">
-        <v>12794.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2461,9 +2592,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,13 +2601,14 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C55" t="n">
         <v>92.90000000000001</v>
@@ -2487,24 +2617,24 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>2161</v>
+        <v>4671.8113</v>
       </c>
       <c r="G55" t="n">
-        <v>14955.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J55" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2513,6 +2643,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2531,21 +2662,21 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>9553</v>
+        <v>1577</v>
       </c>
       <c r="G56" t="n">
-        <v>14955.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J56" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2554,6 +2685,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2572,10 +2704,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>15449</v>
+        <v>7241</v>
       </c>
       <c r="G57" t="n">
-        <v>14955.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2584,9 +2716,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2595,6 +2725,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2610,13 +2741,13 @@
         <v>92.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>92.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>3214.4569</v>
+        <v>14836</v>
       </c>
       <c r="G58" t="n">
-        <v>14955.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2625,9 +2756,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2636,6 +2765,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2645,32 +2775,28 @@
         <v>92.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>6378</v>
+        <v>2000</v>
       </c>
       <c r="G59" t="n">
-        <v>21333.05861249999</v>
+        <v>-4205.632887500001</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2679,28 +2805,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>92.7</v>
+        <v>93.3</v>
       </c>
       <c r="D60" t="n">
-        <v>92.7</v>
+        <v>93.3</v>
       </c>
       <c r="E60" t="n">
-        <v>92.7</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>5873</v>
+        <v>18572.092</v>
       </c>
       <c r="G60" t="n">
-        <v>15460.05861249999</v>
+        <v>14366.4591125</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2709,9 +2836,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,28 +2845,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>92.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>92.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G61" t="n">
-        <v>17460.05861249999</v>
+        <v>15166.4591125</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2750,9 +2876,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,28 +2885,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>93</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="D62" t="n">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="E62" t="n">
-        <v>93</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>8000</v>
+        <v>7017.3979</v>
       </c>
       <c r="G62" t="n">
-        <v>9460.05861249999</v>
+        <v>22183.8570125</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2791,9 +2916,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2802,28 +2925,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="C63" t="n">
-        <v>93</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>93</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="F63" t="n">
-        <v>3076</v>
+        <v>4328.9766</v>
       </c>
       <c r="G63" t="n">
-        <v>9460.05861249999</v>
+        <v>26512.8336125</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2832,9 +2956,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2843,28 +2965,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>92.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>92.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>92.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>92.90000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>5013.4445</v>
       </c>
       <c r="G64" t="n">
-        <v>9360.05861249999</v>
+        <v>26512.8336125</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2873,9 +2996,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2884,28 +3005,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>92.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C65" t="n">
-        <v>92.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="D65" t="n">
-        <v>92.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E65" t="n">
-        <v>92.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>982.5773</v>
+        <v>22415.9336</v>
       </c>
       <c r="G65" t="n">
-        <v>8377.481312499989</v>
+        <v>48928.7672125</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2914,9 +3036,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2925,28 +3045,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C66" t="n">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D66" t="n">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E66" t="n">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F66" t="n">
-        <v>12400</v>
+        <v>8759</v>
       </c>
       <c r="G66" t="n">
-        <v>20777.48131249999</v>
+        <v>48928.7672125</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2955,9 +3076,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,28 +3085,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C67" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>92.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F67" t="n">
-        <v>4800</v>
+        <v>11973.0075</v>
       </c>
       <c r="G67" t="n">
-        <v>20777.48131249999</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2996,9 +3116,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,28 +3125,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>1200</v>
+        <v>1454.8523</v>
       </c>
       <c r="G68" t="n">
-        <v>20777.48131249999</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3037,9 +3156,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,28 +3165,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>29</v>
+        <v>2198.935</v>
       </c>
       <c r="G69" t="n">
-        <v>20777.48131249999</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3078,9 +3196,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,28 +3205,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>228</v>
+        <v>5702.3216</v>
       </c>
       <c r="G70" t="n">
-        <v>20777.48131249999</v>
+        <v>60901.7747125</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3119,9 +3236,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,28 +3245,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="C71" t="n">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="D71" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="F71" t="n">
-        <v>2849</v>
+        <v>2400</v>
       </c>
       <c r="G71" t="n">
-        <v>23626.48131249999</v>
+        <v>58501.7747125</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3160,9 +3276,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3171,28 +3285,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="C72" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>93</v>
+        <v>93.8</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>3600</v>
       </c>
       <c r="G72" t="n">
-        <v>23626.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3201,9 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,41 +3325,38 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="G73" t="n">
-        <v>28026.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>93</v>
-      </c>
-      <c r="K73" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,28 +3365,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>93.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="G74" t="n">
-        <v>28026.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3285,9 +3396,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3296,13 +3405,14 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C75" t="n">
         <v>93.90000000000001</v>
@@ -3311,13 +3421,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>93.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>14593</v>
+        <v>5090</v>
       </c>
       <c r="G75" t="n">
-        <v>42619.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3326,9 +3436,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3337,6 +3445,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3355,10 +3464,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="n">
-        <v>42619.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3367,9 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3378,28 +3485,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>400</v>
+        <v>716</v>
       </c>
       <c r="G77" t="n">
-        <v>42219.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3408,9 +3516,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,28 +3525,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F78" t="n">
         <v>800</v>
       </c>
       <c r="G78" t="n">
-        <v>42219.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3449,9 +3556,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,28 +3565,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>25504</v>
+        <v>1600</v>
       </c>
       <c r="G79" t="n">
-        <v>16715.48131249999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3490,9 +3596,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,28 +3605,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>91.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>91.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>26498.6252</v>
+        <v>1600</v>
       </c>
       <c r="G80" t="n">
-        <v>-9783.143887500006</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3531,9 +3636,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,28 +3645,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>91</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>90.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>91.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>90.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>26401.9188</v>
+        <v>800</v>
       </c>
       <c r="G81" t="n">
-        <v>-36185.0626875</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3572,9 +3676,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,28 +3685,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>90.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>90.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>91.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>90.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F82" t="n">
-        <v>38011.6506</v>
+        <v>2800</v>
       </c>
       <c r="G82" t="n">
-        <v>1826.587912499999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3613,9 +3716,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,41 +3725,38 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>92.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>93.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>93.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>92.5</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>10406</v>
+        <v>17867</v>
       </c>
       <c r="G83" t="n">
-        <v>12232.5879125</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>90.3</v>
-      </c>
-      <c r="K83" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,41 +3765,38 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>4905</v>
       </c>
       <c r="G84" t="n">
-        <v>12222.5879125</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="K84" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,41 +3805,38 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>93</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>2808</v>
+        <v>800</v>
       </c>
       <c r="G85" t="n">
-        <v>9414.587912499999</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>93</v>
-      </c>
-      <c r="K85" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3753,41 +3845,38 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>10659</v>
+        <v>400</v>
       </c>
       <c r="G86" t="n">
-        <v>-1244.412087500001</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,28 +3885,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>92.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>4000</v>
+        <v>9727</v>
       </c>
       <c r="G87" t="n">
-        <v>-5244.412087500001</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3826,9 +3916,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,41 +3925,38 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="G88" t="n">
-        <v>-5223.412087500001</v>
+        <v>62101.7747125</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,41 +3965,38 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>92.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>92.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="D89" t="n">
-        <v>92.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>92.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="F89" t="n">
-        <v>1128</v>
+        <v>24951.9032</v>
       </c>
       <c r="G89" t="n">
-        <v>-6351.412087500001</v>
+        <v>37149.87151249999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K89" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3923,41 +4005,38 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>92.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C90" t="n">
-        <v>92.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>92.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>92.5</v>
+        <v>93.8</v>
       </c>
       <c r="F90" t="n">
-        <v>5185</v>
+        <v>7200</v>
       </c>
       <c r="G90" t="n">
-        <v>-6351.412087500001</v>
+        <v>44349.87151249999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="K90" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3966,41 +4045,38 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>800</v>
+        <v>1753.8828</v>
       </c>
       <c r="G91" t="n">
-        <v>-5551.412087500001</v>
+        <v>44349.87151249999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="K91" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4009,41 +4085,38 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>2380</v>
+        <v>3898</v>
       </c>
       <c r="G92" t="n">
-        <v>-5551.412087500001</v>
+        <v>44349.87151249999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K92" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,28 +4125,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>92.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>92.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>92.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>92.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>1345.7792</v>
+        <v>538.2356</v>
       </c>
       <c r="G93" t="n">
-        <v>-4205.632887500001</v>
+        <v>43811.63591249999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4082,9 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4093,41 +4165,38 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F94" t="n">
-        <v>2000</v>
+        <v>37043.566</v>
       </c>
       <c r="G94" t="n">
-        <v>-4205.632887500001</v>
+        <v>80855.20191249999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,28 +4205,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>2400</v>
+        <v>117</v>
       </c>
       <c r="G95" t="n">
-        <v>-4205.632887500001</v>
+        <v>80855.20191249999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4166,9 +4236,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4177,41 +4245,38 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>13205</v>
+        <v>2797</v>
       </c>
       <c r="G96" t="n">
-        <v>-4205.632887500001</v>
+        <v>80855.20191249999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,41 +4285,38 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>92.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>92.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>4671.8113</v>
+        <v>7910</v>
       </c>
       <c r="G97" t="n">
-        <v>-4205.632887500001</v>
+        <v>72945.20191249999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,41 +4325,38 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>92.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C98" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>92.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="F98" t="n">
-        <v>1577</v>
+        <v>800</v>
       </c>
       <c r="G98" t="n">
-        <v>-4205.632887500001</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,41 +4365,38 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>7241</v>
+        <v>667.4760383386581</v>
       </c>
       <c r="G99" t="n">
-        <v>-4205.632887500001</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K99" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4349,41 +4405,38 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>14836</v>
+        <v>600.4366347177848</v>
       </c>
       <c r="G100" t="n">
-        <v>-4205.632887500001</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K100" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4392,41 +4445,38 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>2000</v>
+        <v>417.7955</v>
       </c>
       <c r="G101" t="n">
-        <v>-4205.632887500001</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K101" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4435,28 +4485,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>93.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>93.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>92.90000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>18572.092</v>
+        <v>2800</v>
       </c>
       <c r="G102" t="n">
-        <v>14366.4591125</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4465,9 +4516,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4476,28 +4525,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>93.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>93.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>93.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>93.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>6400</v>
       </c>
       <c r="G103" t="n">
-        <v>15166.4591125</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4506,9 +4556,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,28 +4565,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>93.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>93.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>7017.3979</v>
+        <v>5200</v>
       </c>
       <c r="G104" t="n">
-        <v>22183.8570125</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4547,9 +4596,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,28 +4605,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>93.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>4328.9766</v>
+        <v>7504.2375</v>
       </c>
       <c r="G105" t="n">
-        <v>26512.8336125</v>
+        <v>73745.20191249999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4588,9 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,28 +4645,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="C106" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="D106" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="E106" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F106" t="n">
-        <v>5013.4445</v>
+        <v>400</v>
       </c>
       <c r="G106" t="n">
-        <v>26512.8336125</v>
+        <v>73345.20191249999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4629,9 +4676,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4640,28 +4685,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="C107" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="D107" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="E107" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F107" t="n">
-        <v>22415.9336</v>
+        <v>6800</v>
       </c>
       <c r="G107" t="n">
-        <v>48928.7672125</v>
+        <v>80145.20191249999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4670,9 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4681,28 +4725,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="C108" t="n">
-        <v>93.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>93.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="F108" t="n">
-        <v>8759</v>
+        <v>4800</v>
       </c>
       <c r="G108" t="n">
-        <v>48928.7672125</v>
+        <v>84945.20191249999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4711,9 +4756,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,28 +4765,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>93.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>93.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="D109" t="n">
-        <v>93.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="E109" t="n">
-        <v>93.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>11973.0075</v>
+        <v>1600</v>
       </c>
       <c r="G109" t="n">
-        <v>60901.7747125</v>
+        <v>86545.20191249999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4752,9 +4796,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,28 +4805,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>93.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="C110" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D110" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="E110" t="n">
-        <v>93.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="F110" t="n">
-        <v>1454.8523</v>
+        <v>3200</v>
       </c>
       <c r="G110" t="n">
-        <v>60901.7747125</v>
+        <v>89745.20191249999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4793,9 +4836,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,28 +4845,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C111" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D111" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="E111" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F111" t="n">
-        <v>2198.935</v>
+        <v>1650</v>
       </c>
       <c r="G111" t="n">
-        <v>60901.7747125</v>
+        <v>89745.20191249999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4834,9 +4876,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4845,28 +4885,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="C112" t="n">
-        <v>93.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="D112" t="n">
-        <v>93.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E112" t="n">
-        <v>93.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="F112" t="n">
-        <v>5702.3216</v>
+        <v>95748.76720919192</v>
       </c>
       <c r="G112" t="n">
-        <v>60901.7747125</v>
+        <v>185493.9691216919</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4875,9 +4916,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4886,28 +4925,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>93.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>93.8</v>
+        <v>99</v>
       </c>
       <c r="D113" t="n">
-        <v>93.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E113" t="n">
-        <v>93.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>2400</v>
+        <v>3314.0707</v>
       </c>
       <c r="G113" t="n">
-        <v>58501.7747125</v>
+        <v>185493.9691216919</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4916,9 +4956,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4927,1943 +4965,189 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>93.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>93.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>3600</v>
+        <v>1888.28</v>
       </c>
       <c r="G114" t="n">
-        <v>62101.7747125</v>
+        <v>183605.6891216919</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>3200</v>
+        <v>981.6154</v>
       </c>
       <c r="G115" t="n">
-        <v>62101.7747125</v>
+        <v>183605.6891216919</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>2800</v>
+        <v>635</v>
       </c>
       <c r="G116" t="n">
-        <v>62101.7747125</v>
+        <v>183605.6891216919</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>93.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>5090</v>
+        <v>1409.1366</v>
       </c>
       <c r="G117" t="n">
-        <v>62101.7747125</v>
+        <v>183605.6891216919</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="C118" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="D118" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="E118" t="n">
-        <v>93.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="F118" t="n">
-        <v>31</v>
+        <v>362.304</v>
       </c>
       <c r="G118" t="n">
-        <v>62101.7747125</v>
+        <v>183243.3851216919</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C119" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D119" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E119" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F119" t="n">
-        <v>716</v>
-      </c>
-      <c r="G119" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C120" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D120" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E120" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F120" t="n">
-        <v>800</v>
-      </c>
-      <c r="G120" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C121" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D121" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E121" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G121" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C122" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D122" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E122" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G122" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C123" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D123" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E123" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F123" t="n">
-        <v>800</v>
-      </c>
-      <c r="G123" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C124" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D124" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E124" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G124" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="C125" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E125" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="F125" t="n">
-        <v>17867</v>
-      </c>
-      <c r="G125" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C126" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D126" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E126" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4905</v>
-      </c>
-      <c r="G126" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C127" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D127" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E127" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F127" t="n">
-        <v>800</v>
-      </c>
-      <c r="G127" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C128" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D128" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E128" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F128" t="n">
-        <v>400</v>
-      </c>
-      <c r="G128" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C129" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D129" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E129" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F129" t="n">
-        <v>9727</v>
-      </c>
-      <c r="G129" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C130" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D130" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E130" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F130" t="n">
-        <v>203</v>
-      </c>
-      <c r="G130" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="C131" t="n">
-        <v>93</v>
-      </c>
-      <c r="D131" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="E131" t="n">
-        <v>93</v>
-      </c>
-      <c r="F131" t="n">
-        <v>24951.9032</v>
-      </c>
-      <c r="G131" t="n">
-        <v>37149.87151249999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D132" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E132" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>7200</v>
-      </c>
-      <c r="G132" t="n">
-        <v>44349.87151249999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>93</v>
-      </c>
-      <c r="K132" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C133" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D133" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1753.8828</v>
-      </c>
-      <c r="G133" t="n">
-        <v>44349.87151249999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K133" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F134" t="n">
-        <v>3898</v>
-      </c>
-      <c r="G134" t="n">
-        <v>44349.87151249999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K134" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="C135" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="E135" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>538.2356</v>
-      </c>
-      <c r="G135" t="n">
-        <v>43811.63591249999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K135" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>93</v>
-      </c>
-      <c r="C136" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D136" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E136" t="n">
-        <v>93</v>
-      </c>
-      <c r="F136" t="n">
-        <v>37043.566</v>
-      </c>
-      <c r="G136" t="n">
-        <v>80855.20191249999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>93.09999999999999</v>
-      </c>
-      <c r="K136" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C137" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D137" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E137" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F137" t="n">
-        <v>117</v>
-      </c>
-      <c r="G137" t="n">
-        <v>80855.20191249999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K137" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C138" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D138" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E138" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2797</v>
-      </c>
-      <c r="G138" t="n">
-        <v>80855.20191249999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K138" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C139" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="D139" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E139" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="F139" t="n">
-        <v>7910</v>
-      </c>
-      <c r="G139" t="n">
-        <v>72945.20191249999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K139" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D140" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E140" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>800</v>
-      </c>
-      <c r="G140" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C141" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D141" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E141" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F141" t="n">
-        <v>667.4760383386581</v>
-      </c>
-      <c r="G141" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K141" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C142" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D142" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E142" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>600.4366347177848</v>
-      </c>
-      <c r="G142" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K142" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C143" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D143" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E143" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F143" t="n">
-        <v>417.7955</v>
-      </c>
-      <c r="G143" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K143" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C144" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D144" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E144" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G144" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K144" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C145" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E145" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>6400</v>
-      </c>
-      <c r="G145" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K145" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C146" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D146" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E146" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G146" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K146" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C147" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D147" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="E147" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7504.2375</v>
-      </c>
-      <c r="G147" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K147" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C148" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="D148" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="E148" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F148" t="n">
-        <v>400</v>
-      </c>
-      <c r="G148" t="n">
-        <v>73345.20191249999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K148" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>94</v>
-      </c>
-      <c r="D149" t="n">
-        <v>94</v>
-      </c>
-      <c r="E149" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6800</v>
-      </c>
-      <c r="G149" t="n">
-        <v>80145.20191249999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="K149" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>94</v>
-      </c>
-      <c r="C150" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="D150" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="E150" t="n">
-        <v>94</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4800</v>
-      </c>
-      <c r="G150" t="n">
-        <v>84945.20191249999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>94</v>
-      </c>
-      <c r="K150" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="C151" t="n">
-        <v>95</v>
-      </c>
-      <c r="D151" t="n">
-        <v>95</v>
-      </c>
-      <c r="E151" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G151" t="n">
-        <v>86545.20191249999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="K151" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>95</v>
-      </c>
-      <c r="C152" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>95</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G152" t="n">
-        <v>89745.20191249999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C153" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="D153" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="E153" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1650</v>
-      </c>
-      <c r="G153" t="n">
-        <v>89745.20191249999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="C154" t="n">
-        <v>99</v>
-      </c>
-      <c r="D154" t="n">
-        <v>99</v>
-      </c>
-      <c r="E154" t="n">
-        <v>95.5</v>
-      </c>
-      <c r="F154" t="n">
-        <v>95748.76720919192</v>
-      </c>
-      <c r="G154" t="n">
-        <v>185493.9691216919</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C155" t="n">
-        <v>99</v>
-      </c>
-      <c r="D155" t="n">
-        <v>99</v>
-      </c>
-      <c r="E155" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3314.0707</v>
-      </c>
-      <c r="G155" t="n">
-        <v>185493.9691216919</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1.104865470852018</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="C156" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D156" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1888.28</v>
-      </c>
-      <c r="G156" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C157" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D157" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E157" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>981.6154</v>
-      </c>
-      <c r="G157" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>635</v>
-      </c>
-      <c r="G158" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1409.1366</v>
-      </c>
-      <c r="G159" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="C160" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="D160" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="E160" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="F160" t="n">
-        <v>362.304</v>
-      </c>
-      <c r="G160" t="n">
-        <v>183243.3851216919</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="C2" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="D2" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="E2" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="F2" t="n">
-        <v>800</v>
+        <v>510.7517</v>
       </c>
       <c r="G2" t="n">
-        <v>-27974.94138750001</v>
+        <v>8268.156012499985</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>15610</v>
+        <v>533.097</v>
       </c>
       <c r="G3" t="n">
-        <v>-12364.94138750001</v>
+        <v>8801.253012499985</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>91.7</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>92</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>7600</v>
+        <v>25909.5887</v>
       </c>
       <c r="G4" t="n">
-        <v>-12364.94138750001</v>
+        <v>-17108.33568750002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>92</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>92</v>
+        <v>91.2</v>
       </c>
       <c r="C5" t="n">
-        <v>92</v>
+        <v>91.3</v>
       </c>
       <c r="D5" t="n">
-        <v>92</v>
+        <v>91.3</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>91.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1863.6412</v>
+        <v>3188</v>
       </c>
       <c r="G5" t="n">
-        <v>-12364.94138750001</v>
+        <v>-20296.33568750002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>92</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92</v>
+        <v>91.3</v>
       </c>
       <c r="C6" t="n">
-        <v>92.2</v>
+        <v>91.3</v>
       </c>
       <c r="D6" t="n">
-        <v>92.2</v>
+        <v>91.3</v>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>91.3</v>
       </c>
       <c r="F6" t="n">
-        <v>1023</v>
+        <v>103</v>
       </c>
       <c r="G6" t="n">
-        <v>-11341.94138750001</v>
+        <v>-20296.33568750002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>92</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>92.3</v>
+        <v>91.3</v>
       </c>
       <c r="D7" t="n">
-        <v>92.3</v>
+        <v>91.5</v>
       </c>
       <c r="E7" t="n">
-        <v>92.2</v>
+        <v>91.3</v>
       </c>
       <c r="F7" t="n">
-        <v>5939</v>
+        <v>522</v>
       </c>
       <c r="G7" t="n">
-        <v>-5402.94138750001</v>
+        <v>-20296.33568750002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>92.2</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -684,38 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>92.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>92.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>92.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>11797</v>
+        <v>509.4748</v>
       </c>
       <c r="G8" t="n">
-        <v>6394.05861249999</v>
+        <v>-20805.81048750002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>92.3</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -726,38 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>92.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>92.7</v>
+        <v>89.5</v>
       </c>
       <c r="D9" t="n">
-        <v>92.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>92.7</v>
+        <v>89.5</v>
       </c>
       <c r="F9" t="n">
-        <v>252</v>
+        <v>12857</v>
       </c>
       <c r="G9" t="n">
-        <v>6394.05861249999</v>
+        <v>-33662.81048750001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>92.7</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -768,38 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>92.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>92.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>92.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>92.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>11200</v>
+        <v>38.6768</v>
       </c>
       <c r="G10" t="n">
-        <v>17594.05861249999</v>
+        <v>-33624.13368750001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>92.7</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -810,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="C11" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="D11" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="E11" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="F11" t="n">
-        <v>4800</v>
+        <v>800</v>
       </c>
       <c r="G11" t="n">
-        <v>12794.05861249999</v>
+        <v>-34424.13368750001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -835,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -850,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="C12" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="D12" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="E12" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="F12" t="n">
-        <v>8000</v>
+        <v>388</v>
       </c>
       <c r="G12" t="n">
-        <v>12794.05861249999</v>
+        <v>-34424.13368750001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -875,11 +823,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -890,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="C13" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="D13" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E13" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="F13" t="n">
-        <v>2161</v>
+        <v>388</v>
       </c>
       <c r="G13" t="n">
-        <v>14955.05861249999</v>
+        <v>-34424.13368750001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -915,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -930,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C14" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="D14" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E14" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="F14" t="n">
-        <v>9553</v>
+        <v>704.9952</v>
       </c>
       <c r="G14" t="n">
-        <v>14955.05861249999</v>
+        <v>-34424.13368750001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -955,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -970,38 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C15" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="D15" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E15" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="F15" t="n">
-        <v>15449</v>
+        <v>1254</v>
       </c>
       <c r="G15" t="n">
-        <v>14955.05861249999</v>
+        <v>-34424.13368750001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>92.90000000000001</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1012,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C16" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="D16" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E16" t="n">
-        <v>92.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="F16" t="n">
-        <v>3214.4569</v>
+        <v>388</v>
       </c>
       <c r="G16" t="n">
-        <v>14955.05861249999</v>
+        <v>-34424.13368750001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1037,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1052,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C17" t="n">
-        <v>93.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="D17" t="n">
-        <v>93.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="E17" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="F17" t="n">
-        <v>6378</v>
+        <v>316.1727</v>
       </c>
       <c r="G17" t="n">
-        <v>21333.05861249999</v>
+        <v>-34424.13368750001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1077,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>92.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>92.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>92.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>92.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>5873</v>
+        <v>896.25</v>
       </c>
       <c r="G18" t="n">
-        <v>15460.05861249999</v>
+        <v>-35320.38368750001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1117,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1132,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>92.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>93.09999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>93.09999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>92.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>2000</v>
+        <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>17460.05861249999</v>
+        <v>-35170.38368750001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1157,11 +1075,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1172,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>93</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>93</v>
+        <v>90.8</v>
       </c>
       <c r="D20" t="n">
-        <v>93</v>
+        <v>90.8</v>
       </c>
       <c r="E20" t="n">
-        <v>93</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>8000</v>
+        <v>6515</v>
       </c>
       <c r="G20" t="n">
-        <v>9460.05861249999</v>
+        <v>-28655.38368750001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1197,11 +1111,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1212,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>93</v>
+        <v>89.3</v>
       </c>
       <c r="C21" t="n">
-        <v>93</v>
+        <v>89.3</v>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>89.3</v>
       </c>
       <c r="E21" t="n">
-        <v>93</v>
+        <v>89.3</v>
       </c>
       <c r="F21" t="n">
-        <v>3076</v>
+        <v>2181.4109</v>
       </c>
       <c r="G21" t="n">
-        <v>9460.05861249999</v>
+        <v>-30836.79458750001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1237,11 +1147,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1252,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>92.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="C22" t="n">
-        <v>92.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="D22" t="n">
-        <v>92.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="E22" t="n">
-        <v>92.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>124.7119</v>
       </c>
       <c r="G22" t="n">
-        <v>9360.05861249999</v>
+        <v>-30836.79458750001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1277,11 +1183,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1292,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>92.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="C23" t="n">
-        <v>92.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="D23" t="n">
-        <v>92.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="E23" t="n">
-        <v>92.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="F23" t="n">
-        <v>982.5773</v>
+        <v>133.5234</v>
       </c>
       <c r="G23" t="n">
-        <v>8377.481312499989</v>
+        <v>-30703.27118750001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1317,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1332,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>92.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="C24" t="n">
-        <v>92.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="D24" t="n">
-        <v>92.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="E24" t="n">
-        <v>92.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="F24" t="n">
-        <v>12400</v>
+        <v>230.87</v>
       </c>
       <c r="G24" t="n">
-        <v>20777.48131249999</v>
+        <v>-30472.40118750001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1357,11 +1255,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1372,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>92.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="C25" t="n">
-        <v>92.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D25" t="n">
-        <v>92.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="E25" t="n">
-        <v>92.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F25" t="n">
-        <v>4800</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>20777.48131249999</v>
+        <v>-31472.40118750001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1397,11 +1291,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1412,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C26" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="D26" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="E26" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1200</v>
+        <v>1213.3514</v>
       </c>
       <c r="G26" t="n">
-        <v>20777.48131249999</v>
+        <v>-32685.75258750001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1437,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1452,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>92.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="D27" t="n">
-        <v>92.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>92.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>800</v>
       </c>
       <c r="G27" t="n">
-        <v>20777.48131249999</v>
+        <v>-32685.75258750001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1477,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1492,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>92.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C28" t="n">
-        <v>92.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D28" t="n">
-        <v>92.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="E28" t="n">
-        <v>92.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F28" t="n">
-        <v>228</v>
+        <v>1300</v>
       </c>
       <c r="G28" t="n">
-        <v>20777.48131249999</v>
+        <v>-31385.75258750001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1517,11 +1399,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1532,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>93</v>
+        <v>89.7</v>
       </c>
       <c r="C29" t="n">
-        <v>93</v>
+        <v>89.5</v>
       </c>
       <c r="D29" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="E29" t="n">
-        <v>93</v>
+        <v>89.5</v>
       </c>
       <c r="F29" t="n">
-        <v>2849</v>
+        <v>3600</v>
       </c>
       <c r="G29" t="n">
-        <v>23626.48131249999</v>
+        <v>-34985.75258750001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1557,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1572,38 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="C30" t="n">
-        <v>93</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>93</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>93</v>
+        <v>89.8</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>2802.5177</v>
       </c>
       <c r="G30" t="n">
-        <v>23626.48131249999</v>
+        <v>-32183.23488750001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>93</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1614,38 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4400</v>
+        <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>28026.48131249999</v>
+        <v>-32583.23488750001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>93</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1656,38 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>93.2</v>
+        <v>90.3</v>
       </c>
       <c r="C32" t="n">
-        <v>93.2</v>
+        <v>90.3</v>
       </c>
       <c r="D32" t="n">
-        <v>93.2</v>
+        <v>90.3</v>
       </c>
       <c r="E32" t="n">
-        <v>93.2</v>
+        <v>90.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>28026.48131249999</v>
+        <v>-32572.23488750001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>93.2</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1698,38 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>93.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C33" t="n">
-        <v>93.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="D33" t="n">
-        <v>93.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="E33" t="n">
-        <v>93.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F33" t="n">
-        <v>14593</v>
+        <v>25.3124</v>
       </c>
       <c r="G33" t="n">
-        <v>42619.48131249999</v>
+        <v>-32597.54728750001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>93.2</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1740,38 +1590,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="C34" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D34" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="E34" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="F34" t="n">
-        <v>32</v>
+        <v>508.6821</v>
       </c>
       <c r="G34" t="n">
-        <v>42619.48131249999</v>
+        <v>-33106.22938750001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1782,38 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>93.7</v>
+        <v>89.8</v>
       </c>
       <c r="C35" t="n">
-        <v>93.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>93.7</v>
+        <v>89.8</v>
       </c>
       <c r="E35" t="n">
-        <v>93.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="n">
-        <v>42219.48131249999</v>
+        <v>-43106.22938750001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>93.90000000000001</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1824,38 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>93.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>93.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>93.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>93.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>800</v>
+        <v>7000</v>
       </c>
       <c r="G36" t="n">
-        <v>42219.48131249999</v>
+        <v>-43106.22938750001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>93.7</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>92.7</v>
+        <v>89.5</v>
       </c>
       <c r="D37" t="n">
-        <v>93.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>92.7</v>
+        <v>89.5</v>
       </c>
       <c r="F37" t="n">
-        <v>25504</v>
+        <v>5453.4126</v>
       </c>
       <c r="G37" t="n">
-        <v>16715.48131249999</v>
+        <v>-48559.64198750001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1891,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1906,38 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>92.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>91.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>92.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>91.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>26498.6252</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-9783.143887500006</v>
+        <v>-48549.64198750001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>92.7</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1948,38 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>91</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C39" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>91.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>26401.9188</v>
+        <v>1074.1134</v>
       </c>
       <c r="G39" t="n">
-        <v>-36185.0626875</v>
+        <v>-48549.64198750001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>91.8</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1990,38 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>90.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>91.09999999999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E40" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>38011.6506</v>
+        <v>3551.9242</v>
       </c>
       <c r="G40" t="n">
-        <v>1826.587912499999</v>
+        <v>-48549.64198750001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>90.09999999999999</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2032,38 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92.5</v>
+        <v>90.2</v>
       </c>
       <c r="C41" t="n">
-        <v>93.3</v>
+        <v>90.2</v>
       </c>
       <c r="D41" t="n">
-        <v>93.3</v>
+        <v>90.2</v>
       </c>
       <c r="E41" t="n">
-        <v>92.5</v>
+        <v>90.2</v>
       </c>
       <c r="F41" t="n">
-        <v>10406</v>
+        <v>25.3124</v>
       </c>
       <c r="G41" t="n">
-        <v>12232.5879125</v>
+        <v>-48524.32958750001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>90.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2074,38 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E42" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G42" t="n">
-        <v>12222.5879125</v>
+        <v>-48634.32958750001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>93.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2116,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>93</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>92.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>2808</v>
+        <v>2929.0024</v>
       </c>
       <c r="G43" t="n">
-        <v>9414.587912499999</v>
+        <v>-51563.33198750001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>93</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2158,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="C44" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="D44" t="n">
-        <v>92.8</v>
+        <v>89.5</v>
       </c>
       <c r="E44" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="F44" t="n">
-        <v>10659</v>
+        <v>12688.5556</v>
       </c>
       <c r="G44" t="n">
-        <v>-1244.412087500001</v>
+        <v>-64251.88758750001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2183,11 +1975,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2198,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>92.7</v>
+        <v>89.8</v>
       </c>
       <c r="C45" t="n">
-        <v>92.7</v>
+        <v>89.8</v>
       </c>
       <c r="D45" t="n">
-        <v>92.8</v>
+        <v>89.8</v>
       </c>
       <c r="E45" t="n">
-        <v>92.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="F45" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-5244.412087500001</v>
+        <v>-64241.88758750001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2223,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2238,36 +2022,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="C46" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="D46" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="E46" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="F46" t="n">
-        <v>21</v>
+        <v>10258.5742</v>
       </c>
       <c r="G46" t="n">
-        <v>-5223.412087500001</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2278,22 +2062,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>92.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="C47" t="n">
-        <v>92.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="D47" t="n">
-        <v>92.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="E47" t="n">
-        <v>92.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="F47" t="n">
-        <v>1128</v>
+        <v>800</v>
       </c>
       <c r="G47" t="n">
-        <v>-6351.412087500001</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2302,12 +2086,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>89.8</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2320,22 +2106,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>92.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="C48" t="n">
-        <v>92.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="D48" t="n">
-        <v>92.7</v>
+        <v>89.3</v>
       </c>
       <c r="E48" t="n">
-        <v>92.5</v>
+        <v>89.3</v>
       </c>
       <c r="F48" t="n">
-        <v>5185</v>
+        <v>800</v>
       </c>
       <c r="G48" t="n">
-        <v>-6351.412087500001</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2344,12 +2130,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>89.8</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
@@ -2362,22 +2150,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="C49" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="D49" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="E49" t="n">
-        <v>92.8</v>
+        <v>89.3</v>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>930.8891</v>
       </c>
       <c r="G49" t="n">
-        <v>-5551.412087500001</v>
+        <v>-74500.46178750001</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2386,14 +2174,12 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>89.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2404,22 +2190,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>92.8</v>
+        <v>89.8</v>
       </c>
       <c r="C50" t="n">
-        <v>92.8</v>
+        <v>89.2</v>
       </c>
       <c r="D50" t="n">
-        <v>92.8</v>
+        <v>89.8</v>
       </c>
       <c r="E50" t="n">
-        <v>92.8</v>
+        <v>89.2</v>
       </c>
       <c r="F50" t="n">
-        <v>2380</v>
+        <v>542.8842</v>
       </c>
       <c r="G50" t="n">
-        <v>-5551.412087500001</v>
+        <v>-75043.34598750001</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2428,12 +2214,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2446,22 +2234,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>92.8</v>
+        <v>89.2</v>
       </c>
       <c r="C51" t="n">
-        <v>92.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D51" t="n">
-        <v>92.90000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E51" t="n">
-        <v>92.8</v>
+        <v>89.2</v>
       </c>
       <c r="F51" t="n">
-        <v>1345.7792</v>
+        <v>3434.7007</v>
       </c>
       <c r="G51" t="n">
-        <v>-4205.632887500001</v>
+        <v>-75043.34598750001</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -2470,9 +2258,11 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>89.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2488,31 +2278,35 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>5144</v>
       </c>
       <c r="G52" t="n">
-        <v>-4205.632887500001</v>
+        <v>-69899.34598750001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,31 +2322,35 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>2400</v>
+        <v>12957</v>
       </c>
       <c r="G53" t="n">
-        <v>-4205.632887500001</v>
+        <v>-69899.34598750001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K53" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,31 +2366,35 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>92.90000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>13205</v>
+        <v>7025.0354</v>
       </c>
       <c r="G54" t="n">
-        <v>-4205.632887500001</v>
+        <v>-69899.34598750001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2608,22 +2410,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>4671.8113</v>
+        <v>125.6375</v>
       </c>
       <c r="G55" t="n">
-        <v>-4205.632887500001</v>
+        <v>-69773.70848750001</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2632,9 +2434,11 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>90.09999999999999</v>
+      </c>
+      <c r="K55" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2650,33 +2454,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>92.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>1577</v>
+        <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>-4205.632887500001</v>
+        <v>-69773.70848750001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,22 +2496,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="C57" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="D57" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="E57" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="F57" t="n">
-        <v>7241</v>
+        <v>800</v>
       </c>
       <c r="G57" t="n">
-        <v>-4205.632887500001</v>
+        <v>-70573.70848750001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2716,7 +2520,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,31 +2538,35 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="C58" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="D58" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="E58" t="n">
-        <v>92.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>14836</v>
+        <v>41510.7337</v>
       </c>
       <c r="G58" t="n">
-        <v>-4205.632887500001</v>
+        <v>-70573.70848750001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>90</v>
+      </c>
+      <c r="K58" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2772,22 +2582,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>-4205.632887500001</v>
+        <v>-70588.70848750001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2796,7 +2606,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2812,22 +2624,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>93.3</v>
+        <v>90</v>
       </c>
       <c r="D60" t="n">
-        <v>93.3</v>
+        <v>90</v>
       </c>
       <c r="E60" t="n">
-        <v>92.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>18572.092</v>
+        <v>800</v>
       </c>
       <c r="G60" t="n">
-        <v>14366.4591125</v>
+        <v>-69788.70848750001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2836,7 +2648,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2852,31 +2666,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>93.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="C61" t="n">
-        <v>93.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="D61" t="n">
-        <v>93.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="E61" t="n">
-        <v>93.40000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="F61" t="n">
-        <v>800</v>
+        <v>2886.443</v>
       </c>
       <c r="G61" t="n">
-        <v>15166.4591125</v>
+        <v>-72675.15148750001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>90</v>
+      </c>
+      <c r="K61" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,31 +2710,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>93.40000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>93.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>93.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>93.40000000000001</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>7017.3979</v>
+        <v>540.8276</v>
       </c>
       <c r="G62" t="n">
-        <v>22183.8570125</v>
+        <v>-72134.32388750001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,31 +2754,35 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>93.5</v>
+        <v>90.5</v>
       </c>
       <c r="C63" t="n">
-        <v>93.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="D63" t="n">
-        <v>93.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="E63" t="n">
-        <v>93.5</v>
+        <v>90.5</v>
       </c>
       <c r="F63" t="n">
-        <v>4328.9766</v>
+        <v>3613.3778</v>
       </c>
       <c r="G63" t="n">
-        <v>26512.8336125</v>
+        <v>-68520.94608750001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="K63" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2972,31 +2798,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>93.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>93.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D64" t="n">
-        <v>93.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E64" t="n">
-        <v>93.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>5013.4445</v>
+        <v>4413.0047</v>
       </c>
       <c r="G64" t="n">
-        <v>26512.8336125</v>
+        <v>-64107.94138750001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3012,31 +2842,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>93.7</v>
+        <v>90.8</v>
       </c>
       <c r="C65" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="D65" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="E65" t="n">
-        <v>93.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F65" t="n">
-        <v>22415.9336</v>
+        <v>8335</v>
       </c>
       <c r="G65" t="n">
-        <v>48928.7672125</v>
+        <v>-55772.94138750001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="K65" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,31 +2886,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="C66" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="D66" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="E66" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="F66" t="n">
-        <v>8759</v>
+        <v>2400</v>
       </c>
       <c r="G66" t="n">
-        <v>48928.7672125</v>
+        <v>-55772.94138750001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>91</v>
+      </c>
+      <c r="K66" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3092,22 +2930,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="C67" t="n">
-        <v>93.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="D67" t="n">
-        <v>93.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="E67" t="n">
-        <v>93.7</v>
+        <v>91</v>
       </c>
       <c r="F67" t="n">
-        <v>11973.0075</v>
+        <v>5763</v>
       </c>
       <c r="G67" t="n">
-        <v>60901.7747125</v>
+        <v>-50009.94138750001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3116,7 +2954,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3132,22 +2972,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>93.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="C68" t="n">
-        <v>93.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>93.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>93.90000000000001</v>
+        <v>91.2</v>
       </c>
       <c r="F68" t="n">
-        <v>1454.8523</v>
+        <v>1995</v>
       </c>
       <c r="G68" t="n">
-        <v>60901.7747125</v>
+        <v>-48014.94138750001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3156,7 +2996,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,22 +3014,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>93.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>93.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>93.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>93.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>2198.935</v>
+        <v>424</v>
       </c>
       <c r="G69" t="n">
-        <v>60901.7747125</v>
+        <v>-47590.94138750001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3196,7 +3038,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,22 +3056,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>93.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>93.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>93.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>93.90000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>5702.3216</v>
+        <v>692</v>
       </c>
       <c r="G70" t="n">
-        <v>60901.7747125</v>
+        <v>-47590.94138750001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3236,7 +3080,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,22 +3098,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>93.8</v>
+        <v>91.5</v>
       </c>
       <c r="C71" t="n">
-        <v>93.8</v>
+        <v>91.7</v>
       </c>
       <c r="D71" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="E71" t="n">
-        <v>93.8</v>
+        <v>91.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2400</v>
+        <v>19616</v>
       </c>
       <c r="G71" t="n">
-        <v>58501.7747125</v>
+        <v>-27974.94138750001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3276,7 +3122,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,22 +3140,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>93.8</v>
+        <v>91.7</v>
       </c>
       <c r="C72" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="D72" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="E72" t="n">
-        <v>93.8</v>
+        <v>91.7</v>
       </c>
       <c r="F72" t="n">
-        <v>3600</v>
+        <v>8537</v>
       </c>
       <c r="G72" t="n">
-        <v>62101.7747125</v>
+        <v>-27974.94138750001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3316,7 +3164,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,22 +3182,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="C73" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="D73" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="E73" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="F73" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G73" t="n">
-        <v>62101.7747125</v>
+        <v>-27974.94138750001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3356,7 +3206,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,22 +3224,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="C74" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="D74" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="E74" t="n">
-        <v>93.90000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="F74" t="n">
-        <v>2800</v>
+        <v>15610</v>
       </c>
       <c r="G74" t="n">
-        <v>62101.7747125</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3396,7 +3248,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3412,22 +3266,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="C75" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="D75" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="E75" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="F75" t="n">
-        <v>5090</v>
+        <v>7600</v>
       </c>
       <c r="G75" t="n">
-        <v>62101.7747125</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3436,7 +3290,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,22 +3308,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="C76" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="D76" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="E76" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="F76" t="n">
-        <v>31</v>
+        <v>1863.6412</v>
       </c>
       <c r="G76" t="n">
-        <v>62101.7747125</v>
+        <v>-12364.94138750001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3476,7 +3332,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,22 +3350,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="C77" t="n">
-        <v>93.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="D77" t="n">
-        <v>93.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="E77" t="n">
-        <v>93.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="F77" t="n">
-        <v>716</v>
+        <v>1023</v>
       </c>
       <c r="G77" t="n">
-        <v>62101.7747125</v>
+        <v>-11341.94138750001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3516,7 +3374,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,22 +3392,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>93.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="C78" t="n">
-        <v>93.90000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="D78" t="n">
-        <v>93.90000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="E78" t="n">
-        <v>93.90000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="F78" t="n">
-        <v>800</v>
+        <v>5939</v>
       </c>
       <c r="G78" t="n">
-        <v>62101.7747125</v>
+        <v>-5402.94138750001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3556,7 +3416,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,22 +3434,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>93.90000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="C79" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D79" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E79" t="n">
-        <v>93.90000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="F79" t="n">
-        <v>1600</v>
+        <v>11797</v>
       </c>
       <c r="G79" t="n">
-        <v>62101.7747125</v>
+        <v>6394.05861249999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3596,7 +3458,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,22 +3476,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="C80" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D80" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="E80" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="F80" t="n">
-        <v>1600</v>
+        <v>252</v>
       </c>
       <c r="G80" t="n">
-        <v>62101.7747125</v>
+        <v>6394.05861249999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3636,7 +3500,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,22 +3518,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="C81" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>93.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>11200</v>
       </c>
       <c r="G81" t="n">
-        <v>62101.7747125</v>
+        <v>17594.05861249999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3676,7 +3542,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,22 +3560,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C82" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D82" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E82" t="n">
-        <v>93.8</v>
+        <v>92.8</v>
       </c>
       <c r="F82" t="n">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="G82" t="n">
-        <v>62101.7747125</v>
+        <v>12794.05861249999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3716,7 +3584,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3732,22 +3602,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>93.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="C83" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D83" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="E83" t="n">
-        <v>93.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F83" t="n">
-        <v>17867</v>
+        <v>8000</v>
       </c>
       <c r="G83" t="n">
-        <v>62101.7747125</v>
+        <v>12794.05861249999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3756,7 +3626,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3772,22 +3644,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C84" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>93.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="F84" t="n">
-        <v>4905</v>
+        <v>2161</v>
       </c>
       <c r="G84" t="n">
-        <v>62101.7747125</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3796,7 +3668,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,22 +3686,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>800</v>
+        <v>9553</v>
       </c>
       <c r="G85" t="n">
-        <v>62101.7747125</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3836,7 +3710,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,22 +3728,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>400</v>
+        <v>15449</v>
       </c>
       <c r="G86" t="n">
-        <v>62101.7747125</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3876,7 +3752,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3892,22 +3770,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>9727</v>
+        <v>3214.4569</v>
       </c>
       <c r="G87" t="n">
-        <v>62101.7747125</v>
+        <v>14955.05861249999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3916,7 +3794,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,22 +3812,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>203</v>
+        <v>6378</v>
       </c>
       <c r="G88" t="n">
-        <v>62101.7747125</v>
+        <v>21333.05861249999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3956,7 +3836,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,22 +3854,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C89" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="D89" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="E89" t="n">
-        <v>93</v>
+        <v>92.7</v>
       </c>
       <c r="F89" t="n">
-        <v>24951.9032</v>
+        <v>5873</v>
       </c>
       <c r="G89" t="n">
-        <v>37149.87151249999</v>
+        <v>15460.05861249999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3996,7 +3878,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,22 +3896,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>93.8</v>
+        <v>92.7</v>
       </c>
       <c r="C90" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>93.8</v>
+        <v>92.7</v>
       </c>
       <c r="F90" t="n">
-        <v>7200</v>
+        <v>2000</v>
       </c>
       <c r="G90" t="n">
-        <v>44349.87151249999</v>
+        <v>17460.05861249999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4036,7 +3920,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,22 +3938,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C91" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D91" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E91" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F91" t="n">
-        <v>1753.8828</v>
+        <v>8000</v>
       </c>
       <c r="G91" t="n">
-        <v>44349.87151249999</v>
+        <v>9460.05861249999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4076,7 +3962,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,22 +3980,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C92" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D92" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E92" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F92" t="n">
-        <v>3898</v>
+        <v>3076</v>
       </c>
       <c r="G92" t="n">
-        <v>44349.87151249999</v>
+        <v>9460.05861249999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4116,7 +4004,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,22 +4022,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>538.2356</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>43811.63591249999</v>
+        <v>9360.05861249999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4156,7 +4046,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,22 +4064,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>93</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>93.90000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>93</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>37043.566</v>
+        <v>982.5773</v>
       </c>
       <c r="G94" t="n">
-        <v>80855.20191249999</v>
+        <v>8377.481312499989</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4196,7 +4088,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,22 +4106,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>117</v>
+        <v>12400</v>
       </c>
       <c r="G95" t="n">
-        <v>80855.20191249999</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4236,7 +4130,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,22 +4148,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>2797</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="n">
-        <v>80855.20191249999</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4276,7 +4172,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4292,22 +4190,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>92.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>92.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>7910</v>
+        <v>1200</v>
       </c>
       <c r="G97" t="n">
-        <v>72945.20191249999</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4316,7 +4214,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4332,22 +4232,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>93.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>93.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>800</v>
+        <v>29</v>
       </c>
       <c r="G98" t="n">
-        <v>73745.20191249999</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4356,7 +4256,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4372,22 +4274,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>93.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>667.4760383386581</v>
+        <v>228</v>
       </c>
       <c r="G99" t="n">
-        <v>73745.20191249999</v>
+        <v>20777.48131249999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4396,7 +4298,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,22 +4316,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C100" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D100" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E100" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F100" t="n">
-        <v>600.4366347177848</v>
+        <v>2849</v>
       </c>
       <c r="G100" t="n">
-        <v>73745.20191249999</v>
+        <v>23626.48131249999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4436,7 +4340,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4452,22 +4358,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C101" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="D101" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="E101" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F101" t="n">
-        <v>417.7955</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>73745.20191249999</v>
+        <v>23626.48131249999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4476,7 +4382,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,22 +4400,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C102" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D102" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E102" t="n">
-        <v>93.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F102" t="n">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="G102" t="n">
-        <v>73745.20191249999</v>
+        <v>28026.48131249999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4516,7 +4424,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,22 +4442,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="C103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E103" t="n">
-        <v>93.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="F103" t="n">
-        <v>6400</v>
+        <v>1200</v>
       </c>
       <c r="G103" t="n">
-        <v>73745.20191249999</v>
+        <v>28026.48131249999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4556,7 +4466,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4572,7 +4484,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C104" t="n">
         <v>93.90000000000001</v>
@@ -4581,13 +4493,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>93.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>5200</v>
+        <v>14593</v>
       </c>
       <c r="G104" t="n">
-        <v>73745.20191249999</v>
+        <v>42619.48131249999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4596,7 +4508,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,13 +4535,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>92.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>7504.2375</v>
+        <v>32</v>
       </c>
       <c r="G105" t="n">
-        <v>73745.20191249999</v>
+        <v>42619.48131249999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4636,7 +4550,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,22 +4568,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="C106" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="D106" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="E106" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="F106" t="n">
         <v>400</v>
       </c>
       <c r="G106" t="n">
-        <v>73345.20191249999</v>
+        <v>42219.48131249999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4676,7 +4592,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,22 +4610,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="C107" t="n">
-        <v>94</v>
+        <v>93.7</v>
       </c>
       <c r="D107" t="n">
-        <v>94</v>
+        <v>93.7</v>
       </c>
       <c r="E107" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="F107" t="n">
-        <v>6800</v>
+        <v>800</v>
       </c>
       <c r="G107" t="n">
-        <v>80145.20191249999</v>
+        <v>42219.48131249999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4716,7 +4634,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,22 +4652,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" t="n">
-        <v>94.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D108" t="n">
-        <v>94.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="E108" t="n">
-        <v>94</v>
+        <v>92.7</v>
       </c>
       <c r="F108" t="n">
-        <v>4800</v>
+        <v>25504</v>
       </c>
       <c r="G108" t="n">
-        <v>84945.20191249999</v>
+        <v>16715.48131249999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4756,7 +4676,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,22 +4694,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>94.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="C109" t="n">
-        <v>95</v>
+        <v>91.8</v>
       </c>
       <c r="D109" t="n">
-        <v>95</v>
+        <v>92.7</v>
       </c>
       <c r="E109" t="n">
-        <v>94.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="F109" t="n">
-        <v>1600</v>
+        <v>26498.6252</v>
       </c>
       <c r="G109" t="n">
-        <v>86545.20191249999</v>
+        <v>-9783.143887500006</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4796,7 +4718,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4812,22 +4736,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C110" t="n">
-        <v>95.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>95.5</v>
+        <v>91.8</v>
       </c>
       <c r="E110" t="n">
-        <v>95</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>3200</v>
+        <v>26401.9188</v>
       </c>
       <c r="G110" t="n">
-        <v>89745.20191249999</v>
+        <v>-36185.0626875</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4836,7 +4760,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4852,22 +4778,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>95.5</v>
+        <v>90.3</v>
       </c>
       <c r="C111" t="n">
-        <v>95.5</v>
+        <v>90.3</v>
       </c>
       <c r="D111" t="n">
-        <v>95.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>95.5</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>1650</v>
+        <v>38011.6506</v>
       </c>
       <c r="G111" t="n">
-        <v>89745.20191249999</v>
+        <v>1826.587912499999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4876,7 +4802,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,22 +4820,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>95.5</v>
+        <v>92.5</v>
       </c>
       <c r="C112" t="n">
-        <v>99</v>
+        <v>93.3</v>
       </c>
       <c r="D112" t="n">
-        <v>99</v>
+        <v>93.3</v>
       </c>
       <c r="E112" t="n">
-        <v>95.5</v>
+        <v>92.5</v>
       </c>
       <c r="F112" t="n">
-        <v>95748.76720919192</v>
+        <v>10406</v>
       </c>
       <c r="G112" t="n">
-        <v>185493.9691216919</v>
+        <v>12232.5879125</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4916,7 +4844,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,22 +4862,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>98.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C113" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D113" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E113" t="n">
-        <v>98.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="F113" t="n">
-        <v>3314.0707</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>185493.9691216919</v>
+        <v>12222.5879125</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4956,7 +4886,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,37 +4904,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>96.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="C114" t="n">
-        <v>97.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>97.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="E114" t="n">
-        <v>96.90000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>1888.28</v>
+        <v>2808</v>
       </c>
       <c r="G114" t="n">
-        <v>183605.6891216919</v>
+        <v>9414.587912499999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>89.3</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
       <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -5010,32 +4946,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="C115" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="D115" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="E115" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F115" t="n">
-        <v>981.6154</v>
+        <v>10659</v>
       </c>
       <c r="G115" t="n">
-        <v>183605.6891216919</v>
+        <v>-1244.412087500001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5046,32 +4988,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>97.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="C116" t="n">
-        <v>97.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="D116" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="E116" t="n">
-        <v>97.09999999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>635</v>
+        <v>4000</v>
       </c>
       <c r="G116" t="n">
-        <v>183605.6891216919</v>
+        <v>-5244.412087500001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5082,32 +5030,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="C117" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="D117" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="E117" t="n">
-        <v>97.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="F117" t="n">
-        <v>1409.1366</v>
+        <v>21</v>
       </c>
       <c r="G117" t="n">
-        <v>183605.6891216919</v>
+        <v>-5223.412087500001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5118,36 +5072,2996 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="D118" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1128</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-6351.412087500001</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="E119" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>5185</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-6351.412087500001</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C120" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D120" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E120" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>800</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-5551.412087500001</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C121" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D121" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2380</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-5551.412087500001</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E122" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1345.7792</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D124" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E124" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>13205</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D126" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E126" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4671.8113</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D127" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E127" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D128" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E128" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7241</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14836</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4205.632887500001</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>18572.092</v>
+      </c>
+      <c r="G131" t="n">
+        <v>14366.4591125</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>800</v>
+      </c>
+      <c r="G132" t="n">
+        <v>15166.4591125</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>7017.3979</v>
+      </c>
+      <c r="G133" t="n">
+        <v>22183.8570125</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4328.9766</v>
+      </c>
+      <c r="G134" t="n">
+        <v>26512.8336125</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5013.4445</v>
+      </c>
+      <c r="G135" t="n">
+        <v>26512.8336125</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>22415.9336</v>
+      </c>
+      <c r="G136" t="n">
+        <v>48928.7672125</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>8759</v>
+      </c>
+      <c r="G137" t="n">
+        <v>48928.7672125</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D138" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11973.0075</v>
+      </c>
+      <c r="G138" t="n">
+        <v>60901.7747125</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C139" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1454.8523</v>
+      </c>
+      <c r="G139" t="n">
+        <v>60901.7747125</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C140" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E140" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2198.935</v>
+      </c>
+      <c r="G140" t="n">
+        <v>60901.7747125</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E141" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5702.3216</v>
+      </c>
+      <c r="G141" t="n">
+        <v>60901.7747125</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G142" t="n">
+        <v>58501.7747125</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D143" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G143" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G144" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G145" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>5090</v>
+      </c>
+      <c r="G146" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F147" t="n">
+        <v>31</v>
+      </c>
+      <c r="G147" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C148" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D148" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E148" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>716</v>
+      </c>
+      <c r="G148" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D149" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>800</v>
+      </c>
+      <c r="G149" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G150" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C151" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G151" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>800</v>
+      </c>
+      <c r="G152" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C153" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D153" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E153" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G153" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E154" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17867</v>
+      </c>
+      <c r="G154" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4905</v>
+      </c>
+      <c r="G155" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E156" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>800</v>
+      </c>
+      <c r="G156" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C157" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D157" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>400</v>
+      </c>
+      <c r="G157" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>9727</v>
+      </c>
+      <c r="G158" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C159" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D159" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>203</v>
+      </c>
+      <c r="G159" t="n">
+        <v>62101.7747125</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>93</v>
+      </c>
+      <c r="D160" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>93</v>
+      </c>
+      <c r="F160" t="n">
+        <v>24951.9032</v>
+      </c>
+      <c r="G160" t="n">
+        <v>37149.87151249999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D161" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E161" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G161" t="n">
+        <v>44349.87151249999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C162" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E162" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1753.8828</v>
+      </c>
+      <c r="G162" t="n">
+        <v>44349.87151249999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3898</v>
+      </c>
+      <c r="G163" t="n">
+        <v>44349.87151249999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D164" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E164" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F164" t="n">
+        <v>538.2356</v>
+      </c>
+      <c r="G164" t="n">
+        <v>43811.63591249999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>93</v>
+      </c>
+      <c r="C165" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>93</v>
+      </c>
+      <c r="F165" t="n">
+        <v>37043.566</v>
+      </c>
+      <c r="G165" t="n">
+        <v>80855.20191249999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>117</v>
+      </c>
+      <c r="G166" t="n">
+        <v>80855.20191249999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2797</v>
+      </c>
+      <c r="G167" t="n">
+        <v>80855.20191249999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="D168" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>7910</v>
+      </c>
+      <c r="G168" t="n">
+        <v>72945.20191249999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D169" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>800</v>
+      </c>
+      <c r="G169" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C170" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F170" t="n">
+        <v>667.4760383386581</v>
+      </c>
+      <c r="G170" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C171" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D171" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F171" t="n">
+        <v>600.4366347177848</v>
+      </c>
+      <c r="G171" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>417.7955</v>
+      </c>
+      <c r="G172" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G173" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G174" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G175" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D176" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7504.2375</v>
+      </c>
+      <c r="G176" t="n">
+        <v>73745.20191249999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C177" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="E177" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>400</v>
+      </c>
+      <c r="G177" t="n">
+        <v>73345.20191249999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="C178" t="n">
+        <v>94</v>
+      </c>
+      <c r="D178" t="n">
+        <v>94</v>
+      </c>
+      <c r="E178" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G178" t="n">
+        <v>80145.20191249999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>94</v>
+      </c>
+      <c r="C179" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D179" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="E179" t="n">
+        <v>94</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G179" t="n">
+        <v>84945.20191249999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="C180" t="n">
+        <v>95</v>
+      </c>
+      <c r="D180" t="n">
+        <v>95</v>
+      </c>
+      <c r="E180" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G180" t="n">
+        <v>86545.20191249999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>95</v>
+      </c>
+      <c r="C181" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E181" t="n">
+        <v>95</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G181" t="n">
+        <v>89745.20191249999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1650</v>
+      </c>
+      <c r="G182" t="n">
+        <v>89745.20191249999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="C183" t="n">
+        <v>99</v>
+      </c>
+      <c r="D183" t="n">
+        <v>99</v>
+      </c>
+      <c r="E183" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>95748.76720919192</v>
+      </c>
+      <c r="G183" t="n">
+        <v>185493.9691216919</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>99</v>
+      </c>
+      <c r="D184" t="n">
+        <v>99</v>
+      </c>
+      <c r="E184" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3314.0707</v>
+      </c>
+      <c r="G184" t="n">
+        <v>185493.9691216919</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1.103622620380739</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1.028058361391695</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="C185" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D185" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1888.28</v>
+      </c>
+      <c r="G185" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>981.6154</v>
+      </c>
+      <c r="G186" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>635</v>
+      </c>
+      <c r="G187" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1409.1366</v>
+      </c>
+      <c r="G188" t="n">
+        <v>183605.6891216919</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
         <v>96.7</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C189" t="n">
         <v>96.7</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D189" t="n">
         <v>96.7</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E189" t="n">
         <v>96.7</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F189" t="n">
         <v>362.304</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G189" t="n">
         <v>183243.3851216919</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,19 @@
         <v>-35170.38368750001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1051,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1090,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1129,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1162,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1195,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1226,19 @@
         <v>-31472.40118750001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>90.7</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1265,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1304,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1343,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1380,23 @@
         <v>-34985.75258750001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>89.7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1423,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1460,23 @@
         <v>-32583.23488750001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>89.90000000000001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1501,23 @@
         <v>-32572.23488750001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>89.59999999999999</v>
+      </c>
+      <c r="J32" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1542,23 @@
         <v>-32597.54728750001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>90.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1585,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1622,23 @@
         <v>-43106.22938750001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>89.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1665,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1704,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1741,23 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>89.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1782,23 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>90.09999999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1825,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1862,23 @@
         <v>-48524.32958750001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>90.09999999999999</v>
+      </c>
+      <c r="J41" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1905,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1944,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1983,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2022,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,22 +2059,21 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K46" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2080,26 +2098,23 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="J47" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2124,26 +2139,23 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="J48" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2168,22 +2180,23 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="J49" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2208,26 +2221,23 @@
         <v>-75043.34598750001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="J50" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2252,26 +2262,23 @@
         <v>-75043.34598750001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="J51" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2296,26 +2303,23 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="J52" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2340,26 +2344,23 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,26 +2385,23 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="K54" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2428,26 +2426,23 @@
         <v>-69773.70848750001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2472,24 +2467,23 @@
         <v>-69773.70848750001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>90.90000000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2514,24 +2508,23 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>90.90000000000001</v>
+      </c>
+      <c r="J57" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2556,26 +2549,21 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>90</v>
-      </c>
-      <c r="K58" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2600,24 +2588,23 @@
         <v>-70588.70848750001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="J59" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2644,22 +2631,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2684,26 +2668,23 @@
         <v>-72675.15148750001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J61" t="n">
-        <v>90</v>
-      </c>
-      <c r="K61" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2728,26 +2709,23 @@
         <v>-72134.32388750001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="J62" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2772,26 +2750,23 @@
         <v>-68520.94608750001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="K63" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2816,26 +2791,23 @@
         <v>-64107.94138750001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>90.5</v>
       </c>
       <c r="J64" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2860,26 +2832,23 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>90.8</v>
       </c>
       <c r="J65" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="K65" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2904,26 +2873,23 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J66" t="n">
-        <v>91</v>
-      </c>
-      <c r="K66" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2948,24 +2914,23 @@
         <v>-50009.94138750001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>91</v>
+      </c>
+      <c r="J67" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2992,22 +2957,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3034,22 +2996,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3076,22 +3035,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3118,22 +3074,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3160,22 +3113,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3202,22 +3152,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3244,22 +3191,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3286,22 +3230,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3328,22 +3269,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3370,22 +3308,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3412,22 +3347,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3454,22 +3386,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3496,22 +3425,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3538,22 +3464,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3580,22 +3503,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3622,22 +3542,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3664,22 +3581,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3706,22 +3620,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3748,22 +3659,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3790,22 +3698,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3832,22 +3737,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3874,22 +3776,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3916,22 +3815,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3958,22 +3854,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4000,22 +3893,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4042,22 +3932,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4084,22 +3971,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4126,22 +4010,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4168,22 +4049,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4210,22 +4088,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4252,22 +4127,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4294,22 +4166,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4336,22 +4205,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4378,22 +4244,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4420,22 +4283,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4462,22 +4322,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4504,22 +4361,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4546,22 +4400,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4588,22 +4439,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4630,22 +4478,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4672,22 +4517,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4714,22 +4556,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4756,22 +4595,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4798,22 +4634,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4840,22 +4673,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4882,22 +4712,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4924,22 +4751,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4966,22 +4790,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5008,22 +4829,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5050,22 +4868,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5092,22 +4907,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5134,22 +4946,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5176,22 +4985,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5218,22 +5024,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5260,22 +5063,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5302,22 +5102,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5344,22 +5141,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5386,22 +5180,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5428,22 +5219,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5470,22 +5258,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5512,22 +5297,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5554,22 +5336,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5596,22 +5375,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5638,22 +5414,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5680,22 +5453,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5722,22 +5492,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5764,22 +5531,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5806,22 +5570,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5848,22 +5609,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5890,22 +5648,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5932,22 +5687,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5974,22 +5726,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6016,22 +5765,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6058,22 +5804,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6100,22 +5843,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6142,22 +5882,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6184,22 +5921,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6226,22 +5960,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6268,22 +5999,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6310,22 +6038,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6352,22 +6077,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6394,22 +6116,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6436,22 +6155,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6478,22 +6194,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6520,22 +6233,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6562,22 +6272,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6604,22 +6311,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6646,22 +6350,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6688,22 +6389,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6730,22 +6428,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6772,22 +6467,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6814,22 +6506,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6856,22 +6545,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6898,22 +6584,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6940,22 +6623,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6982,22 +6662,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7024,22 +6701,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7066,22 +6740,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7108,22 +6779,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7150,22 +6818,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7192,22 +6857,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7234,22 +6896,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7276,22 +6935,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7318,22 +6974,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7360,22 +7013,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7402,22 +7052,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7444,22 +7091,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7486,22 +7130,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7528,22 +7169,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7570,22 +7208,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7612,22 +7247,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7654,22 +7286,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7696,22 +7325,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7738,22 +7364,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7780,22 +7403,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7820,24 +7440,23 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1.086510474090408</v>
       </c>
       <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>1.028058361391695</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7862,26 +7481,15 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1.103622620380739</v>
-      </c>
-      <c r="N184" t="n">
-        <v>1.028058361391695</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7906,18 +7514,15 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7942,18 +7547,15 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7978,18 +7580,15 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8014,18 +7613,15 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8050,20 +7646,17 @@
         <v>183243.3851216919</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,10 +946,14 @@
         <v>-34424.13368750001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>89.5</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -979,11 +983,19 @@
         <v>-35320.38368750001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,15 +1024,19 @@
         <v>-35170.38368750001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>89.09999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>89.5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1052,14 +1068,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1091,14 +1101,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,10 +1197,14 @@
         <v>-30472.40118750001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>89.8</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1226,15 +1234,19 @@
         <v>-31472.40118750001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>90.7</v>
       </c>
       <c r="J25" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>89.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,11 +1275,13 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>89.8</v>
+      </c>
       <c r="J26" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1302,11 +1316,13 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>89.5</v>
+      </c>
       <c r="J27" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1341,11 +1357,13 @@
         <v>-31385.75258750001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>89.5</v>
+      </c>
       <c r="J28" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1380,13 +1398,13 @@
         <v>-34985.75258750001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>89.7</v>
       </c>
       <c r="J29" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1421,11 +1439,13 @@
         <v>-32183.23488750001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>89.5</v>
+      </c>
       <c r="J30" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1460,13 +1480,13 @@
         <v>-32583.23488750001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>89.90000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1501,13 +1521,13 @@
         <v>-32572.23488750001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>89.59999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1542,13 +1562,13 @@
         <v>-32597.54728750001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>90.3</v>
       </c>
       <c r="J33" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1583,11 +1603,13 @@
         <v>-33106.22938750001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J34" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1622,13 +1644,13 @@
         <v>-43106.22938750001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>89.8</v>
       </c>
       <c r="J35" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1663,11 +1685,13 @@
         <v>-43106.22938750001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="J36" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1702,11 +1726,13 @@
         <v>-48559.64198750001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="J37" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1741,13 +1767,13 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>89.5</v>
       </c>
       <c r="J38" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1782,13 +1808,13 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1823,11 +1849,13 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="J40" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1862,13 +1890,11 @@
         <v>-48524.32958750001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>90.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1903,11 +1929,13 @@
         <v>-48634.32958750001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J42" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1942,11 +1970,13 @@
         <v>-51563.33198750001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>90</v>
+      </c>
       <c r="J43" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1981,11 +2011,13 @@
         <v>-64251.88758750001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>89.90000000000001</v>
+      </c>
       <c r="J44" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2020,11 +2052,13 @@
         <v>-64241.88758750001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>89.3</v>
+      </c>
       <c r="J45" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2059,11 +2093,13 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>89.8</v>
+      </c>
       <c r="J46" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2098,13 +2134,13 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>89.3</v>
       </c>
       <c r="J47" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2139,13 +2175,13 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>89.3</v>
       </c>
       <c r="J48" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2180,13 +2216,13 @@
         <v>-74500.46178750001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>89.3</v>
       </c>
       <c r="J49" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2221,13 +2257,13 @@
         <v>-75043.34598750001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>89.3</v>
       </c>
       <c r="J50" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2262,13 +2298,13 @@
         <v>-75043.34598750001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>89.2</v>
       </c>
       <c r="J51" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2303,13 +2339,13 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>89.2</v>
       </c>
       <c r="J52" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2344,13 +2380,13 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2385,13 +2421,13 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2426,13 +2462,13 @@
         <v>-69773.70848750001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2467,13 +2503,13 @@
         <v>-69773.70848750001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>90.90000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2508,13 +2544,13 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>90.90000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2553,7 +2589,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2588,13 +2624,11 @@
         <v>-70588.70848750001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2633,7 +2667,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2668,13 +2702,11 @@
         <v>-72675.15148750001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2709,13 +2741,13 @@
         <v>-72134.32388750001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>89.2</v>
       </c>
       <c r="J62" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2750,13 +2782,13 @@
         <v>-68520.94608750001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>90.40000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2791,13 +2823,13 @@
         <v>-64107.94138750001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>90.5</v>
       </c>
       <c r="J64" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2832,13 +2864,13 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>90.8</v>
       </c>
       <c r="J65" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2873,13 +2905,13 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>91</v>
       </c>
       <c r="J66" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2914,13 +2946,13 @@
         <v>-50009.94138750001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>91</v>
       </c>
       <c r="J67" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2955,11 +2987,13 @@
         <v>-48014.94138750001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J68" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2994,11 +3028,13 @@
         <v>-47590.94138750001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>91.40000000000001</v>
+      </c>
       <c r="J69" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3037,7 +3073,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3076,7 +3112,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3115,7 +3151,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3154,7 +3190,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3193,7 +3229,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3232,7 +3268,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3271,7 +3307,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3310,7 +3346,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3349,7 +3385,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3388,7 +3424,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3427,7 +3463,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3466,7 +3502,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3505,7 +3541,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3544,7 +3580,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3583,7 +3619,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3622,7 +3658,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3661,7 +3697,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3700,7 +3736,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3739,7 +3775,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3778,7 +3814,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3817,7 +3853,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3856,7 +3892,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3895,7 +3931,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3934,7 +3970,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3973,7 +4009,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4012,7 +4048,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4051,7 +4087,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4090,7 +4126,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4129,7 +4165,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4168,7 +4204,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4207,7 +4243,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4246,7 +4282,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4285,7 +4321,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4324,7 +4360,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4363,7 +4399,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4402,7 +4438,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4441,7 +4477,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4480,7 +4516,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4519,7 +4555,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4558,7 +4594,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4597,7 +4633,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4636,7 +4672,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4675,7 +4711,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4714,7 +4750,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4753,7 +4789,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4792,7 +4828,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4831,7 +4867,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4870,7 +4906,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4909,7 +4945,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4948,7 +4984,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4987,7 +5023,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5026,7 +5062,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5065,7 +5101,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5104,7 +5140,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5143,7 +5179,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5182,7 +5218,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5221,7 +5257,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5260,7 +5296,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5299,7 +5335,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5338,7 +5374,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5377,7 +5413,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5416,7 +5452,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5455,7 +5491,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5494,7 +5530,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5533,7 +5569,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5572,7 +5608,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5611,7 +5647,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5650,7 +5686,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5689,7 +5725,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5728,7 +5764,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5767,7 +5803,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5806,7 +5842,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5845,7 +5881,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5884,7 +5920,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5923,7 +5959,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5962,7 +5998,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6001,7 +6037,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6040,7 +6076,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6079,7 +6115,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6118,7 +6154,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6157,7 +6193,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6196,7 +6232,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6235,7 +6271,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6274,7 +6310,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6313,7 +6349,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6352,7 +6388,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6391,7 +6427,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6430,7 +6466,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6469,7 +6505,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6508,7 +6544,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6547,7 +6583,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6586,7 +6622,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6625,7 +6661,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6664,7 +6700,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6703,7 +6739,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6742,7 +6778,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6781,7 +6817,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6820,7 +6856,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6859,7 +6895,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6898,7 +6934,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6937,7 +6973,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6976,7 +7012,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7015,7 +7051,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7054,7 +7090,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7093,7 +7129,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7132,7 +7168,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7171,7 +7207,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7210,7 +7246,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7249,7 +7285,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7288,7 +7324,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7327,7 +7363,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7366,7 +7402,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7405,7 +7441,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7440,23 +7476,21 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>90.7</v>
+        <v>89.8</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.086510474090408</v>
-      </c>
-      <c r="M183" t="n">
-        <v>1.028058361391695</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7481,15 +7515,23 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>1.097449888641425</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.028058361391695</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7514,7 +7556,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7547,7 +7589,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7580,7 +7622,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7613,7 +7655,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7646,7 +7688,7 @@
         <v>183243.3851216919</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7657,6 +7699,6 @@
       <c r="M189" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>-34424.13368750001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>89.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>-35320.38368750001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,11 @@
         <v>-35170.38368750001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1164,10 +1144,14 @@
         <v>-30703.27118750001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>89.3</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1197,15 +1181,17 @@
         <v>-30472.40118750001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>89.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1234,13 +1220,11 @@
         <v>-31472.40118750001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>90.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1283,11 +1267,7 @@
       <c r="J26" t="n">
         <v>89.8</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1521,11 +1501,9 @@
         <v>-32572.23488750001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>89.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>89.8</v>
       </c>
@@ -1562,11 +1540,9 @@
         <v>-32597.54728750001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>90.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>89.8</v>
       </c>
@@ -1603,11 +1579,9 @@
         <v>-33106.22938750001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>90.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>89.8</v>
       </c>
@@ -1644,11 +1618,9 @@
         <v>-43106.22938750001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>89.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>89.8</v>
       </c>
@@ -1685,11 +1657,9 @@
         <v>-43106.22938750001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>89.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>89.8</v>
       </c>
@@ -1726,11 +1696,9 @@
         <v>-48559.64198750001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>89.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>89.8</v>
       </c>
@@ -1767,11 +1735,9 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>89.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>89.8</v>
       </c>
@@ -1849,11 +1815,9 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>90.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>89.8</v>
       </c>
@@ -1929,11 +1893,9 @@
         <v>-48634.32958750001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>90.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>89.8</v>
       </c>
@@ -2011,11 +1973,9 @@
         <v>-64251.88758750001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>89.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>89.8</v>
       </c>
@@ -2421,11 +2381,9 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>90.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>89.8</v>
       </c>
@@ -2503,11 +2461,9 @@
         <v>-69773.70848750001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>90.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>89.8</v>
       </c>
@@ -2544,11 +2500,9 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>90.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>89.8</v>
       </c>
@@ -2585,9 +2539,11 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>90</v>
+      </c>
       <c r="J58" t="n">
         <v>89.8</v>
       </c>
@@ -2823,11 +2779,9 @@
         <v>-64107.94138750001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>90.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>89.8</v>
       </c>
@@ -2864,11 +2818,9 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>90.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>89.8</v>
       </c>
@@ -2905,11 +2857,9 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>89.8</v>
       </c>
@@ -2946,11 +2896,9 @@
         <v>-50009.94138750001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>89.8</v>
       </c>
@@ -2987,11 +2935,9 @@
         <v>-48014.94138750001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>91.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>89.8</v>
       </c>
@@ -3028,11 +2974,9 @@
         <v>-47590.94138750001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>91.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>89.8</v>
       </c>
@@ -3459,7 +3403,7 @@
         <v>6394.05861249999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
@@ -3467,11 +3411,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>1.027293986636971</v>
       </c>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -3498,17 +3442,11 @@
         <v>17594.05861249999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3537,17 +3475,11 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3576,17 +3508,11 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3615,17 +3541,11 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3654,17 +3574,11 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3693,17 +3607,11 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3732,17 +3640,11 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3771,17 +3673,11 @@
         <v>21333.05861249999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3810,17 +3706,11 @@
         <v>15460.05861249999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3849,17 +3739,11 @@
         <v>17460.05861249999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3888,17 +3772,11 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3927,17 +3805,11 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3966,17 +3838,11 @@
         <v>9360.05861249999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4005,17 +3871,11 @@
         <v>8377.481312499989</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4044,17 +3904,11 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4083,17 +3937,11 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4122,17 +3970,11 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4161,17 +4003,11 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4200,17 +4036,11 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4239,17 +4069,11 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4278,17 +4102,11 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4317,17 +4135,11 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4356,17 +4168,11 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4395,17 +4201,11 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4434,17 +4234,11 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4473,17 +4267,11 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4512,17 +4300,11 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4551,17 +4333,11 @@
         <v>16715.48131249999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4590,17 +4366,11 @@
         <v>-9783.143887500006</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4629,17 +4399,11 @@
         <v>-36185.0626875</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4668,17 +4432,11 @@
         <v>1826.587912499999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4710,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4749,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4785,17 +4531,11 @@
         <v>9414.587912499999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4824,17 +4564,11 @@
         <v>-1244.412087500001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4863,17 +4597,11 @@
         <v>-5244.412087500001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4905,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4941,17 +4663,11 @@
         <v>-6351.412087500001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4983,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5022,14 +4732,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5061,14 +4765,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5100,14 +4798,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5139,14 +4831,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5178,14 +4864,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5217,14 +4897,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5256,14 +4930,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5295,14 +4963,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5334,14 +4996,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5373,14 +5029,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5412,14 +5062,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5451,14 +5095,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5490,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5529,14 +5161,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5568,14 +5194,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5607,14 +5227,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5643,17 +5257,11 @@
         <v>48928.7672125</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5682,17 +5290,11 @@
         <v>48928.7672125</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5721,17 +5323,11 @@
         <v>60901.7747125</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5760,17 +5356,11 @@
         <v>60901.7747125</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5799,17 +5389,11 @@
         <v>60901.7747125</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5838,17 +5422,11 @@
         <v>60901.7747125</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5877,17 +5455,11 @@
         <v>58501.7747125</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5916,17 +5488,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5955,17 +5521,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5994,17 +5554,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6033,17 +5587,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6072,17 +5620,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6111,17 +5653,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6150,17 +5686,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6189,17 +5719,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6228,17 +5752,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6267,17 +5785,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6309,14 +5821,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6345,17 +5851,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6384,17 +5884,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6426,14 +5920,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6462,17 +5950,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6501,17 +5983,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6540,17 +6016,11 @@
         <v>62101.7747125</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6579,17 +6049,11 @@
         <v>37149.87151249999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6618,17 +6082,11 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6657,17 +6115,11 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6696,17 +6148,11 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6735,17 +6181,11 @@
         <v>43811.63591249999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6777,14 +6217,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6813,17 +6247,11 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6852,17 +6280,11 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6891,17 +6313,11 @@
         <v>72945.20191249999</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6930,17 +6346,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6969,17 +6379,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7008,17 +6412,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7047,17 +6445,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7086,17 +6478,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7125,17 +6511,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7164,17 +6544,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7203,17 +6577,11 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7242,17 +6610,11 @@
         <v>73345.20191249999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7281,17 +6643,11 @@
         <v>80145.20191249999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7320,17 +6676,11 @@
         <v>84945.20191249999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7359,17 +6709,11 @@
         <v>86545.20191249999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7398,17 +6742,11 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7437,17 +6775,11 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7476,17 +6808,11 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7515,23 +6841,15 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>1.097449888641425</v>
-      </c>
-      <c r="M184" t="n">
-        <v>1.028058361391695</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7556,7 +6874,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7589,7 +6907,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7622,7 +6940,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7655,7 +6973,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7688,7 +7006,7 @@
         <v>183243.3851216919</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7699,6 +7017,6 @@
       <c r="M189" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -1144,14 +1144,10 @@
         <v>-30703.27118750001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>89.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1184,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1223,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1259,14 +1243,10 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>89.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1296,19 +1276,11 @@
         <v>-32685.75258750001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1337,19 +1309,11 @@
         <v>-31385.75258750001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1378,19 +1342,11 @@
         <v>-34985.75258750001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1419,19 +1375,11 @@
         <v>-32183.23488750001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1460,19 +1408,11 @@
         <v>-32583.23488750001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="J31" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1504,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1543,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1582,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1621,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1660,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1699,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1774,19 +1672,11 @@
         <v>-48549.64198750001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1818,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1857,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1896,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1932,19 +1804,11 @@
         <v>-51563.33198750001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>90</v>
-      </c>
-      <c r="J43" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1976,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2012,19 +1870,11 @@
         <v>-64241.88758750001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2061,11 +1911,7 @@
       <c r="J46" t="n">
         <v>89.8</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2104,7 +1950,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2145,7 +1991,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
@@ -2182,13 +2028,9 @@
         <v>89.3</v>
       </c>
       <c r="J49" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>89.3</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2223,11 +2065,11 @@
         <v>89.3</v>
       </c>
       <c r="J50" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2264,7 +2106,7 @@
         <v>89.2</v>
       </c>
       <c r="J51" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2305,7 +2147,7 @@
         <v>89.2</v>
       </c>
       <c r="J52" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2346,7 +2188,7 @@
         <v>90.09999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2381,11 +2223,13 @@
         <v>-69899.34598750001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="J54" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2426,7 +2270,7 @@
         <v>90.09999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2461,11 +2305,13 @@
         <v>-69773.70848750001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>90.90000000000001</v>
+      </c>
       <c r="J56" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2500,11 +2346,13 @@
         <v>-70573.70848750001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>90.90000000000001</v>
+      </c>
       <c r="J57" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2545,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="J58" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2584,7 +2432,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2623,7 +2471,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2662,7 +2510,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2703,7 +2551,7 @@
         <v>89.2</v>
       </c>
       <c r="J62" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2744,7 +2592,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2779,11 +2627,13 @@
         <v>-64107.94138750001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>90.5</v>
+      </c>
       <c r="J64" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2818,11 +2668,13 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>90.8</v>
+      </c>
       <c r="J65" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2857,11 +2709,13 @@
         <v>-55772.94138750001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>91</v>
+      </c>
       <c r="J66" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2900,7 +2754,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2935,11 +2789,13 @@
         <v>-48014.94138750001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>91.2</v>
+      </c>
       <c r="J68" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2978,7 +2834,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3017,7 +2873,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3056,7 +2912,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3095,7 +2951,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3134,7 +2990,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3173,7 +3029,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3212,7 +3068,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3251,7 +3107,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3290,7 +3146,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3329,7 +3185,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3368,7 +3224,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3403,19 +3259,19 @@
         <v>6394.05861249999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>89.8</v>
+        <v>89.3</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.027293986636971</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -3442,11 +3298,17 @@
         <v>17594.05861249999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3475,11 +3337,17 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3508,11 +3376,17 @@
         <v>12794.05861249999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3541,11 +3415,17 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3574,11 +3454,17 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3607,11 +3493,17 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3640,11 +3532,17 @@
         <v>14955.05861249999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3673,11 +3571,17 @@
         <v>21333.05861249999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3706,11 +3610,17 @@
         <v>15460.05861249999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3739,11 +3649,17 @@
         <v>17460.05861249999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3772,11 +3688,17 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3805,11 +3727,17 @@
         <v>9460.05861249999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3766,17 @@
         <v>9360.05861249999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3805,17 @@
         <v>8377.481312499989</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3904,11 +3844,17 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3937,11 +3883,17 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +3922,17 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +3961,17 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +4000,17 @@
         <v>20777.48131249999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4069,11 +4039,17 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4102,11 +4078,17 @@
         <v>23626.48131249999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4135,11 +4117,17 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4168,11 +4156,17 @@
         <v>28026.48131249999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4201,11 +4195,17 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4234,11 +4234,17 @@
         <v>42619.48131249999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4267,11 +4273,17 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4300,11 +4312,17 @@
         <v>42219.48131249999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4333,11 +4351,17 @@
         <v>16715.48131249999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +4390,17 @@
         <v>-9783.143887500006</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4399,11 +4429,17 @@
         <v>-36185.0626875</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4432,11 +4468,17 @@
         <v>1826.587912499999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4468,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4501,8 +4549,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4531,11 +4585,17 @@
         <v>9414.587912499999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4564,11 +4624,17 @@
         <v>-1244.412087500001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4663,17 @@
         <v>-5244.412087500001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4633,8 +4705,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4663,11 +4741,17 @@
         <v>-6351.412087500001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4732,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4765,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4798,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4831,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4897,8 +5017,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4963,8 +5095,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4996,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5029,8 +5173,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5095,8 +5251,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5128,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5161,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5194,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5227,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +5443,17 @@
         <v>48928.7672125</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +5482,17 @@
         <v>48928.7672125</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +5521,17 @@
         <v>60901.7747125</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5356,11 +5560,17 @@
         <v>60901.7747125</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5389,11 +5599,17 @@
         <v>60901.7747125</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +5638,17 @@
         <v>60901.7747125</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +5677,17 @@
         <v>58501.7747125</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5488,11 +5716,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5521,11 +5755,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5554,11 +5794,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5587,11 +5833,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5620,11 +5872,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +5911,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +5950,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5719,11 +5989,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +6028,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5785,11 +6067,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5821,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5851,11 +6145,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +6184,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5920,8 +6226,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5950,11 +6262,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +6301,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +6340,17 @@
         <v>62101.7747125</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6049,11 +6379,17 @@
         <v>37149.87151249999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +6418,17 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6115,11 +6457,17 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6148,11 +6496,17 @@
         <v>44349.87151249999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6181,11 +6535,17 @@
         <v>43811.63591249999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6217,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6247,11 +6613,17 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6280,11 +6652,17 @@
         <v>80855.20191249999</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6313,11 +6691,17 @@
         <v>72945.20191249999</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6346,11 +6730,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6379,11 +6769,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6412,11 +6808,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6445,11 +6847,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6478,11 +6886,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6511,11 +6925,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6544,11 +6964,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6577,11 +7003,17 @@
         <v>73745.20191249999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +7042,17 @@
         <v>73345.20191249999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6643,11 +7081,17 @@
         <v>80145.20191249999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6676,11 +7120,17 @@
         <v>84945.20191249999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6709,11 +7159,17 @@
         <v>86545.20191249999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6742,11 +7198,17 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6775,11 +7237,17 @@
         <v>89745.20191249999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6808,11 +7276,17 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6841,15 +7315,23 @@
         <v>185493.9691216919</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>1.103622620380739</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.028058361391695</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6874,7 +7356,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6907,7 +7389,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6940,7 +7422,7 @@
         <v>183605.6891216919</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7006,7 +7488,7 @@
         <v>183243.3851216919</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest PAY.xlsx
+++ b/BackTest/2019-11-01 BackTest PAY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>510.7517</v>
       </c>
       <c r="G2" t="n">
-        <v>8268.156012499985</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>533.097</v>
       </c>
       <c r="G3" t="n">
-        <v>8801.253012499985</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>25909.5887</v>
       </c>
       <c r="G4" t="n">
-        <v>-17108.33568750002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3188</v>
       </c>
       <c r="G5" t="n">
-        <v>-20296.33568750002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>103</v>
       </c>
       <c r="G6" t="n">
-        <v>-20296.33568750002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>522</v>
       </c>
       <c r="G7" t="n">
-        <v>-20296.33568750002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>509.4748</v>
       </c>
       <c r="G8" t="n">
-        <v>-20805.81048750002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>12857</v>
       </c>
       <c r="G9" t="n">
-        <v>-33662.81048750001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>38.6768</v>
       </c>
       <c r="G10" t="n">
-        <v>-33624.13368750001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>800</v>
       </c>
       <c r="G11" t="n">
-        <v>-34424.13368750001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>388</v>
       </c>
       <c r="G12" t="n">
-        <v>-34424.13368750001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>388</v>
       </c>
       <c r="G13" t="n">
-        <v>-34424.13368750001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>704.9952</v>
       </c>
       <c r="G14" t="n">
-        <v>-34424.13368750001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1254</v>
       </c>
       <c r="G15" t="n">
-        <v>-34424.13368750001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>388</v>
       </c>
       <c r="G16" t="n">
-        <v>-34424.13368750001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>316.1727</v>
       </c>
       <c r="G17" t="n">
-        <v>-34424.13368750001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>896.25</v>
       </c>
       <c r="G18" t="n">
-        <v>-35320.38368750001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,19 @@
         <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>-35170.38368750001</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +987,23 @@
         <v>6515</v>
       </c>
       <c r="G20" t="n">
-        <v>-28655.38368750001</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>89.40000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1025,21 @@
         <v>2181.4109</v>
       </c>
       <c r="G21" t="n">
-        <v>-30836.79458750001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1061,15 @@
         <v>124.7119</v>
       </c>
       <c r="G22" t="n">
-        <v>-30836.79458750001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1091,15 @@
         <v>133.5234</v>
       </c>
       <c r="G23" t="n">
-        <v>-30703.27118750001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1121,19 @@
         <v>230.87</v>
       </c>
       <c r="G24" t="n">
-        <v>-30472.40118750001</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>89.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>89.8</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1155,23 @@
         <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>-31472.40118750001</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>90.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1193,23 @@
         <v>1213.3514</v>
       </c>
       <c r="G26" t="n">
-        <v>-32685.75258750001</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>89.8</v>
+      </c>
+      <c r="I26" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1231,15 @@
         <v>800</v>
       </c>
       <c r="G27" t="n">
-        <v>-32685.75258750001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1261,15 @@
         <v>1300</v>
       </c>
       <c r="G28" t="n">
-        <v>-31385.75258750001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1291,15 @@
         <v>3600</v>
       </c>
       <c r="G29" t="n">
-        <v>-34985.75258750001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1321,15 @@
         <v>2802.5177</v>
       </c>
       <c r="G30" t="n">
-        <v>-32183.23488750001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1351,15 @@
         <v>400</v>
       </c>
       <c r="G31" t="n">
-        <v>-32583.23488750001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1381,15 @@
         <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>-32572.23488750001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1411,15 @@
         <v>25.3124</v>
       </c>
       <c r="G33" t="n">
-        <v>-32597.54728750001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1441,15 @@
         <v>508.6821</v>
       </c>
       <c r="G34" t="n">
-        <v>-33106.22938750001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1471,21 @@
         <v>10000</v>
       </c>
       <c r="G35" t="n">
-        <v>-43106.22938750001</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>89.8</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1507,21 @@
         <v>7000</v>
       </c>
       <c r="G36" t="n">
-        <v>-43106.22938750001</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1543,21 @@
         <v>5453.4126</v>
       </c>
       <c r="G37" t="n">
-        <v>-48559.64198750001</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1579,21 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-48549.64198750001</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>89.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1615,21 @@
         <v>1074.1134</v>
       </c>
       <c r="G39" t="n">
-        <v>-48549.64198750001</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1651,21 @@
         <v>3551.9242</v>
       </c>
       <c r="G40" t="n">
-        <v>-48549.64198750001</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1687,21 @@
         <v>25.3124</v>
       </c>
       <c r="G41" t="n">
-        <v>-48524.32958750001</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1723,19 @@
         <v>110</v>
       </c>
       <c r="G42" t="n">
-        <v>-48634.32958750001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1757,19 @@
         <v>2929.0024</v>
       </c>
       <c r="G43" t="n">
-        <v>-51563.33198750001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1791,19 @@
         <v>12688.5556</v>
       </c>
       <c r="G44" t="n">
-        <v>-64251.88758750001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1825,21 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-64241.88758750001</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,22 +1861,19 @@
         <v>10258.5742</v>
       </c>
       <c r="G46" t="n">
-        <v>-74500.46178750001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1937,26 +1895,21 @@
         <v>800</v>
       </c>
       <c r="G47" t="n">
-        <v>-74500.46178750001</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
         <v>89.3</v>
       </c>
-      <c r="J47" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1978,26 +1931,21 @@
         <v>800</v>
       </c>
       <c r="G48" t="n">
-        <v>-74500.46178750001</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
         <v>89.3</v>
       </c>
-      <c r="J48" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2019,22 +1967,21 @@
         <v>930.8891</v>
       </c>
       <c r="G49" t="n">
-        <v>-74500.46178750001</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
         <v>89.3</v>
       </c>
-      <c r="J49" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2056,26 +2003,19 @@
         <v>542.8842</v>
       </c>
       <c r="G50" t="n">
-        <v>-75043.34598750001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2097,26 +2037,19 @@
         <v>3434.7007</v>
       </c>
       <c r="G51" t="n">
-        <v>-75043.34598750001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2138,26 +2071,21 @@
         <v>5144</v>
       </c>
       <c r="G52" t="n">
-        <v>-69899.34598750001</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
         <v>89.2</v>
       </c>
-      <c r="J52" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2179,26 +2107,21 @@
         <v>12957</v>
       </c>
       <c r="G53" t="n">
-        <v>-69899.34598750001</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="J53" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2220,26 +2143,21 @@
         <v>7025.0354</v>
       </c>
       <c r="G54" t="n">
-        <v>-69899.34598750001</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="J54" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2261,26 +2179,21 @@
         <v>125.6375</v>
       </c>
       <c r="G55" t="n">
-        <v>-69773.70848750001</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="J55" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2302,26 +2215,19 @@
         <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>-69773.70848750001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="J56" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2343,26 +2249,19 @@
         <v>800</v>
       </c>
       <c r="G57" t="n">
-        <v>-70573.70848750001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="J57" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2384,26 +2283,19 @@
         <v>41510.7337</v>
       </c>
       <c r="G58" t="n">
-        <v>-70573.70848750001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>90</v>
-      </c>
-      <c r="J58" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2425,24 +2317,19 @@
         <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>-70588.70848750001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2464,24 +2351,19 @@
         <v>800</v>
       </c>
       <c r="G60" t="n">
-        <v>-69788.70848750001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2503,24 +2385,19 @@
         <v>2886.443</v>
       </c>
       <c r="G61" t="n">
-        <v>-72675.15148750001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2542,26 +2419,19 @@
         <v>540.8276</v>
       </c>
       <c r="G62" t="n">
-        <v>-72134.32388750001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,26 +2453,19 @@
         <v>3613.3778</v>
       </c>
       <c r="G63" t="n">
-        <v>-68520.94608750001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="J63" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2624,26 +2487,19 @@
         <v>4413.0047</v>
       </c>
       <c r="G64" t="n">
-        <v>-64107.94138750001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2665,26 +2521,19 @@
         <v>8335</v>
       </c>
       <c r="G65" t="n">
-        <v>-55772.94138750001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2706,26 +2555,19 @@
         <v>2400</v>
       </c>
       <c r="G66" t="n">
-        <v>-55772.94138750001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>91</v>
-      </c>
-      <c r="J66" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2747,24 +2589,19 @@
         <v>5763</v>
       </c>
       <c r="G67" t="n">
-        <v>-50009.94138750001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2786,26 +2623,19 @@
         <v>1995</v>
       </c>
       <c r="G68" t="n">
-        <v>-48014.94138750001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2827,24 +2657,19 @@
         <v>424</v>
       </c>
       <c r="G69" t="n">
-        <v>-47590.94138750001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2866,24 +2691,19 @@
         <v>692</v>
       </c>
       <c r="G70" t="n">
-        <v>-47590.94138750001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2905,24 +2725,19 @@
         <v>19616</v>
       </c>
       <c r="G71" t="n">
-        <v>-27974.94138750001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2944,24 +2759,19 @@
         <v>8537</v>
       </c>
       <c r="G72" t="n">
-        <v>-27974.94138750001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2983,24 +2793,19 @@
         <v>800</v>
       </c>
       <c r="G73" t="n">
-        <v>-27974.94138750001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3022,24 +2827,19 @@
         <v>15610</v>
       </c>
       <c r="G74" t="n">
-        <v>-12364.94138750001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3061,24 +2861,19 @@
         <v>7600</v>
       </c>
       <c r="G75" t="n">
-        <v>-12364.94138750001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3100,24 +2895,19 @@
         <v>1863.6412</v>
       </c>
       <c r="G76" t="n">
-        <v>-12364.94138750001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3139,24 +2929,19 @@
         <v>1023</v>
       </c>
       <c r="G77" t="n">
-        <v>-11341.94138750001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3178,24 +2963,19 @@
         <v>5939</v>
       </c>
       <c r="G78" t="n">
-        <v>-5402.94138750001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3217,24 +2997,19 @@
         <v>11797</v>
       </c>
       <c r="G79" t="n">
-        <v>6394.05861249999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3256,24 +3031,19 @@
         <v>252</v>
       </c>
       <c r="G80" t="n">
-        <v>6394.05861249999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3295,24 +3065,19 @@
         <v>11200</v>
       </c>
       <c r="G81" t="n">
-        <v>17594.05861249999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3334,24 +3099,19 @@
         <v>4800</v>
       </c>
       <c r="G82" t="n">
-        <v>12794.05861249999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3373,24 +3133,19 @@
         <v>8000</v>
       </c>
       <c r="G83" t="n">
-        <v>12794.05861249999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3412,24 +3167,19 @@
         <v>2161</v>
       </c>
       <c r="G84" t="n">
-        <v>14955.05861249999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3451,24 +3201,19 @@
         <v>9553</v>
       </c>
       <c r="G85" t="n">
-        <v>14955.05861249999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3490,24 +3235,19 @@
         <v>15449</v>
       </c>
       <c r="G86" t="n">
-        <v>14955.05861249999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3529,24 +3269,19 @@
         <v>3214.4569</v>
       </c>
       <c r="G87" t="n">
-        <v>14955.05861249999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3568,24 +3303,19 @@
         <v>6378</v>
       </c>
       <c r="G88" t="n">
-        <v>21333.05861249999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3607,24 +3337,19 @@
         <v>5873</v>
       </c>
       <c r="G89" t="n">
-        <v>15460.05861249999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,24 +3371,19 @@
         <v>2000</v>
       </c>
       <c r="G90" t="n">
-        <v>17460.05861249999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3685,24 +3405,19 @@
         <v>8000</v>
       </c>
       <c r="G91" t="n">
-        <v>9460.05861249999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3724,24 +3439,19 @@
         <v>3076</v>
       </c>
       <c r="G92" t="n">
-        <v>9460.05861249999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3763,24 +3473,19 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>9360.05861249999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3802,24 +3507,19 @@
         <v>982.5773</v>
       </c>
       <c r="G94" t="n">
-        <v>8377.481312499989</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3841,24 +3541,19 @@
         <v>12400</v>
       </c>
       <c r="G95" t="n">
-        <v>20777.48131249999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3880,24 +3575,19 @@
         <v>4800</v>
       </c>
       <c r="G96" t="n">
-        <v>20777.48131249999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3919,24 +3609,19 @@
         <v>1200</v>
       </c>
       <c r="G97" t="n">
-        <v>20777.48131249999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3958,24 +3643,19 @@
         <v>29</v>
       </c>
       <c r="G98" t="n">
-        <v>20777.48131249999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3997,24 +3677,19 @@
         <v>228</v>
       </c>
       <c r="G99" t="n">
-        <v>20777.48131249999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4036,24 +3711,19 @@
         <v>2849</v>
       </c>
       <c r="G100" t="n">
-        <v>23626.48131249999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4075,24 +3745,19 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>23626.48131249999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4114,24 +3779,19 @@
         <v>4400</v>
       </c>
       <c r="G102" t="n">
-        <v>28026.48131249999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4153,24 +3813,19 @@
         <v>1200</v>
       </c>
       <c r="G103" t="n">
-        <v>28026.48131249999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4192,24 +3847,19 @@
         <v>14593</v>
       </c>
       <c r="G104" t="n">
-        <v>42619.48131249999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4231,24 +3881,19 @@
         <v>32</v>
       </c>
       <c r="G105" t="n">
-        <v>42619.48131249999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4270,24 +3915,19 @@
         <v>400</v>
       </c>
       <c r="G106" t="n">
-        <v>42219.48131249999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4309,24 +3949,19 @@
         <v>800</v>
       </c>
       <c r="G107" t="n">
-        <v>42219.48131249999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4348,24 +3983,19 @@
         <v>25504</v>
       </c>
       <c r="G108" t="n">
-        <v>16715.48131249999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4387,24 +4017,19 @@
         <v>26498.6252</v>
       </c>
       <c r="G109" t="n">
-        <v>-9783.143887500006</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4426,24 +4051,19 @@
         <v>26401.9188</v>
       </c>
       <c r="G110" t="n">
-        <v>-36185.0626875</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4465,24 +4085,19 @@
         <v>38011.6506</v>
       </c>
       <c r="G111" t="n">
-        <v>1826.587912499999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4504,24 +4119,19 @@
         <v>10406</v>
       </c>
       <c r="G112" t="n">
-        <v>12232.5879125</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4543,24 +4153,19 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>12222.5879125</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4582,24 +4187,19 @@
         <v>2808</v>
       </c>
       <c r="G114" t="n">
-        <v>9414.587912499999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4621,24 +4221,19 @@
         <v>10659</v>
       </c>
       <c r="G115" t="n">
-        <v>-1244.412087500001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4660,24 +4255,19 @@
         <v>4000</v>
       </c>
       <c r="G116" t="n">
-        <v>-5244.412087500001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4699,24 +4289,19 @@
         <v>21</v>
       </c>
       <c r="G117" t="n">
-        <v>-5223.412087500001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4738,24 +4323,19 @@
         <v>1128</v>
       </c>
       <c r="G118" t="n">
-        <v>-6351.412087500001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4777,24 +4357,19 @@
         <v>5185</v>
       </c>
       <c r="G119" t="n">
-        <v>-6351.412087500001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4816,24 +4391,19 @@
         <v>800</v>
       </c>
       <c r="G120" t="n">
-        <v>-5551.412087500001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4855,24 +4425,19 @@
         <v>2380</v>
       </c>
       <c r="G121" t="n">
-        <v>-5551.412087500001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4894,24 +4459,19 @@
         <v>1345.7792</v>
       </c>
       <c r="G122" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4933,24 +4493,19 @@
         <v>2000</v>
       </c>
       <c r="G123" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4972,24 +4527,19 @@
         <v>2400</v>
       </c>
       <c r="G124" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5011,24 +4561,19 @@
         <v>13205</v>
       </c>
       <c r="G125" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5050,24 +4595,19 @@
         <v>4671.8113</v>
       </c>
       <c r="G126" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5089,24 +4629,19 @@
         <v>1577</v>
       </c>
       <c r="G127" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5128,24 +4663,19 @@
         <v>7241</v>
       </c>
       <c r="G128" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5167,24 +4697,19 @@
         <v>14836</v>
       </c>
       <c r="G129" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5206,24 +4731,19 @@
         <v>2000</v>
       </c>
       <c r="G130" t="n">
-        <v>-4205.632887500001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5245,24 +4765,19 @@
         <v>18572.092</v>
       </c>
       <c r="G131" t="n">
-        <v>14366.4591125</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5284,24 +4799,19 @@
         <v>800</v>
       </c>
       <c r="G132" t="n">
-        <v>15166.4591125</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5323,24 +4833,19 @@
         <v>7017.3979</v>
       </c>
       <c r="G133" t="n">
-        <v>22183.8570125</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5362,24 +4867,19 @@
         <v>4328.9766</v>
       </c>
       <c r="G134" t="n">
-        <v>26512.8336125</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5401,24 +4901,19 @@
         <v>5013.4445</v>
       </c>
       <c r="G135" t="n">
-        <v>26512.8336125</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5440,24 +4935,19 @@
         <v>22415.9336</v>
       </c>
       <c r="G136" t="n">
-        <v>48928.7672125</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5479,24 +4969,19 @@
         <v>8759</v>
       </c>
       <c r="G137" t="n">
-        <v>48928.7672125</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5518,24 +5003,19 @@
         <v>11973.0075</v>
       </c>
       <c r="G138" t="n">
-        <v>60901.7747125</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5557,24 +5037,19 @@
         <v>1454.8523</v>
       </c>
       <c r="G139" t="n">
-        <v>60901.7747125</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5596,24 +5071,19 @@
         <v>2198.935</v>
       </c>
       <c r="G140" t="n">
-        <v>60901.7747125</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5635,24 +5105,19 @@
         <v>5702.3216</v>
       </c>
       <c r="G141" t="n">
-        <v>60901.7747125</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5674,24 +5139,19 @@
         <v>2400</v>
       </c>
       <c r="G142" t="n">
-        <v>58501.7747125</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5713,24 +5173,19 @@
         <v>3600</v>
       </c>
       <c r="G143" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5752,24 +5207,19 @@
         <v>3200</v>
       </c>
       <c r="G144" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5791,24 +5241,19 @@
         <v>2800</v>
       </c>
       <c r="G145" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5830,24 +5275,19 @@
         <v>5090</v>
       </c>
       <c r="G146" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5869,24 +5309,19 @@
         <v>31</v>
       </c>
       <c r="G147" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5908,24 +5343,19 @@
         <v>716</v>
       </c>
       <c r="G148" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5947,24 +5377,19 @@
         <v>800</v>
       </c>
       <c r="G149" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5986,24 +5411,19 @@
         <v>1600</v>
       </c>
       <c r="G150" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6025,24 +5445,19 @@
         <v>1600</v>
       </c>
       <c r="G151" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6064,24 +5479,19 @@
         <v>800</v>
       </c>
       <c r="G152" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6103,24 +5513,19 @@
         <v>2800</v>
       </c>
       <c r="G153" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6142,24 +5547,19 @@
         <v>17867</v>
       </c>
       <c r="G154" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6181,24 +5581,19 @@
         <v>4905</v>
       </c>
       <c r="G155" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6220,24 +5615,19 @@
         <v>800</v>
       </c>
       <c r="G156" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6259,24 +5649,19 @@
         <v>400</v>
       </c>
       <c r="G157" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6298,24 +5683,19 @@
         <v>9727</v>
       </c>
       <c r="G158" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6337,24 +5717,19 @@
         <v>203</v>
       </c>
       <c r="G159" t="n">
-        <v>62101.7747125</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6376,24 +5751,19 @@
         <v>24951.9032</v>
       </c>
       <c r="G160" t="n">
-        <v>37149.87151249999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6415,24 +5785,19 @@
         <v>7200</v>
       </c>
       <c r="G161" t="n">
-        <v>44349.87151249999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6454,24 +5819,19 @@
         <v>1753.8828</v>
       </c>
       <c r="G162" t="n">
-        <v>44349.87151249999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6493,24 +5853,19 @@
         <v>3898</v>
       </c>
       <c r="G163" t="n">
-        <v>44349.87151249999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6532,24 +5887,19 @@
         <v>538.2356</v>
       </c>
       <c r="G164" t="n">
-        <v>43811.63591249999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6571,24 +5921,19 @@
         <v>37043.566</v>
       </c>
       <c r="G165" t="n">
-        <v>80855.20191249999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6610,24 +5955,19 @@
         <v>117</v>
       </c>
       <c r="G166" t="n">
-        <v>80855.20191249999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6649,24 +5989,19 @@
         <v>2797</v>
       </c>
       <c r="G167" t="n">
-        <v>80855.20191249999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6688,24 +6023,19 @@
         <v>7910</v>
       </c>
       <c r="G168" t="n">
-        <v>72945.20191249999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6727,24 +6057,19 @@
         <v>800</v>
       </c>
       <c r="G169" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6766,24 +6091,19 @@
         <v>667.4760383386581</v>
       </c>
       <c r="G170" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6805,24 +6125,19 @@
         <v>600.4366347177848</v>
       </c>
       <c r="G171" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6844,24 +6159,19 @@
         <v>417.7955</v>
       </c>
       <c r="G172" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6883,24 +6193,19 @@
         <v>2800</v>
       </c>
       <c r="G173" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6922,24 +6227,19 @@
         <v>6400</v>
       </c>
       <c r="G174" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6961,24 +6261,19 @@
         <v>5200</v>
       </c>
       <c r="G175" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7000,24 +6295,19 @@
         <v>7504.2375</v>
       </c>
       <c r="G176" t="n">
-        <v>73745.20191249999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7039,24 +6329,19 @@
         <v>400</v>
       </c>
       <c r="G177" t="n">
-        <v>73345.20191249999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7078,24 +6363,19 @@
         <v>6800</v>
       </c>
       <c r="G178" t="n">
-        <v>80145.20191249999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7117,24 +6397,19 @@
         <v>4800</v>
       </c>
       <c r="G179" t="n">
-        <v>84945.20191249999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7156,24 +6431,19 @@
         <v>1600</v>
       </c>
       <c r="G180" t="n">
-        <v>86545.20191249999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7195,24 +6465,19 @@
         <v>3200</v>
       </c>
       <c r="G181" t="n">
-        <v>89745.20191249999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7234,24 +6499,19 @@
         <v>1650</v>
       </c>
       <c r="G182" t="n">
-        <v>89745.20191249999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7273,24 +6533,19 @@
         <v>95748.76720919192</v>
       </c>
       <c r="G183" t="n">
-        <v>185493.9691216919</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7312,26 +6567,17 @@
         <v>3314.0707</v>
       </c>
       <c r="G184" t="n">
-        <v>185493.9691216919</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1.103622620380739</v>
-      </c>
-      <c r="M184" t="n">
-        <v>1.028058361391695</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7353,18 +6599,15 @@
         <v>1888.28</v>
       </c>
       <c r="G185" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7386,18 +6629,15 @@
         <v>981.6154</v>
       </c>
       <c r="G186" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7419,18 +6659,15 @@
         <v>635</v>
       </c>
       <c r="G187" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7452,18 +6689,15 @@
         <v>1409.1366</v>
       </c>
       <c r="G188" t="n">
-        <v>183605.6891216919</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7485,18 +6719,15 @@
         <v>362.304</v>
       </c>
       <c r="G189" t="n">
-        <v>183243.3851216919</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
